--- a/output.xlsx
+++ b/output.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="673">
   <si>
     <t>question</t>
   </si>
@@ -35,6 +35,9 @@
     <t>key</t>
   </si>
   <si>
+    <t>flowEntityTypes</t>
+  </si>
+  <si>
     <t>locale</t>
   </si>
   <si>
@@ -47,7 +50,10 @@
     <t>fields_keys</t>
   </si>
   <si>
-    <t>flowEntityTypes</t>
+    <t>Quiero informarme acerca de los pagos</t>
+  </si>
+  <si>
+    <t>Tengo un problema con un pago</t>
   </si>
   <si>
     <t>Quiero eliminar un PAT</t>
@@ -80,6 +86,12 @@
     <t>Necesito activar un producto</t>
   </si>
   <si>
+    <t>{'text': '¡Hola! Soy Scoty, tu asistente virtual. Cuéntame, ¿Qué opción relacionada a pagos deseas revisar?', 'chips': [{'text': 'Información de pagos automáticos', 'url': 'intent://flow.infopagosautom.info', 'entityValue': {'entityValue': 'Información Pagos Automáticos', 'synonyms': ['Información PAC', 'Información PAT']}, 'forgetParameter': False}, {'text': 'Generar un Pago', 'url': 'intent://flow.generarpagos.info', 'entityValue': {'entityValue': 'Generar pago', 'synonyms': ['pagar', 'cómo pagar', 'quiero pagar']}, 'forgetParameter': False}, {'text': 'Anular un pago', 'url': 'intent://flow.anularpagos.info', 'entityValue': {'entityValue': 'Anular pago', 'synonyms': ['Eliminar pago', 'cancelar pago', 'reversar pago']}, 'forgetParameter': False}, {'text': 'Problema con un pago', 'url': 'intent://flow.incidenciapagos.info', 'entityValue': {'entityValue': 'Problema con un pago', 'synonyms': ['Problema con pago', 'incidencia pago']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}</t>
+  </si>
+  <si>
+    <t>{'text': 'Cuéntame, ¿Qué tipo de anulación quieres hacer?', 'entityType': {'entityType': 'tipo-información-anular-pago', 'entityValue': [{'entityValue': 'Eliminar pago automático', 'synonyms': ['Finalizar pago automático', 'Desvincular pago automático', 'Terminar pago automático.']}, {'entityValue': 'Reversar pago', 'synonyms': ['Retroceder un pago', 'Deshacer un pago', 'Cancelar un pago', 'retroceder pago', 'deshacer pago', 'cancelar pago', 'anular pago']}]}, 'chips': [{'text': 'Eliminar pago automático', 'location': {'text': '¿Que tipo de pago de servicio deseas eliminar?', 'entityType': {'entityType': 'pagosautomaticos', 'entityValue': [{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}]}, 'chips': [{'text': 'PAC', 'url': 'intent://faq.eliminarpac.info', 'entityValue': {'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, 'forgetParameter': False}, {'text': 'PAT', 'url': 'intent://faq.eliminarpat.info', 'entityValue': {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Eliminar pago automático', 'synonyms': ['Finalizar pago automático', 'Desvincular pago automático', 'Terminar pago automático.']}, 'forgetParameter': False}, {'text': 'Reversar pago', 'location': {'text': 'Cuéntame, ¿Qué tipo de pago quieres reversar?', 'entityType': {'entityType': 'producto-pago', 'entityValue': [{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}, {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, {'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, {'entityValue': 'Seguro'}, {'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}, {'entityValue': 'Línea de Crédito'}]}, 'chips': [{'text': 'Crédito de consumo', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, 'forgetParameter': False}, {'text': 'Crédito Hipotecario', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, 'forgetParameter': False}, {'text': 'CAE', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, 'forgetParameter': False}, {'text': 'Seguro', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Seguro'}, 'forgetParameter': False}, {'text': 'Línea de Crédito', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Línea de Crédito'}, 'forgetParameter': False}, {'text': 'Tarjeta de Crédito', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Reversar pago', 'synonyms': ['Retroceder un pago', 'Deshacer un pago', 'Cancelar un pago', 'retroceder pago', 'deshacer pago', 'cancelar pago', 'anular pago']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}</t>
+  </si>
+  <si>
     <t>{'text': 'Para eliminar un pago automático asociado a tu tarjeta de crédito (PAT) realiza los siguientes pasos:\n\n1. Dirígete al menú "Transferencias y pagos"\n2. Ingresa en el sub menú "Pagos de servicios"\n3. Selecciona la opción "Pago automático de tarjeta (PAT)"\n4. Selecciona el servicio que deseas eliminar haciendo clic en "Ver detalle".\n5. Finalmente selecciona el botón "Eliminar"\nImportante: Si pagas tu crédito por Sencillito o Servipag, debes esperar hasta que el saldo de tu deuda se actualice antes de volver a pagar por este canal. \n'}</t>
   </si>
   <si>
@@ -89,13 +101,13 @@
     <t>{'text': 'Para eliminar un PAC debes ingresar al menú transferencias y pagos, pagos y servicios y seleccionar Pago Automático de Cuenta Corriente (PAC), ahí podrás eliminar tus cuentas inscritas.'}</t>
   </si>
   <si>
-    <t>{'text': '¿Qué tipo de pago de servicio deseas revisar?', 'entityType': {'entityType': 'informacion-pagosautomaticos', 'entityValue': [{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}]}, 'chips': [{'text': 'Pago automático en cuenta (PAC)', 'location': {'text': '¿Qué información sobre PAC deseas conocer?', 'entityType': {'entityType': 'informacion-pagosautomaticos-PAC', 'entityValue': [{'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, {'entityValue': 'Administrar PAC', 'synonyms': ['Gestionar PAC.']}, {'entityValue': 'Consulta Mandatos Banco'}, {'entityValue': 'Consulta Pagos Banco'}, {'entityValue': 'Eliminar PAC', 'synonyms': ['Cancelar PAC', 'Desvincular PAC', 'Finalizar PAC']}, {'entityValue': 'PAC en 1 Clic'}]}, 'chips': [{'text': 'Eliminar PAC', 'url': 'intent://faq.eliminarPAC.info', 'entityValue': {'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, 'forgetParameter': False}, {'text': 'Inscribir PAC', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, 'forgetParameter': False}, {'text': 'Administrar PAC', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Administrar PAC', 'synonyms': ['Gestionar PAC.']}, 'forgetParameter': False}, {'text': 'Consulta Mandatos Banco', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Consulta Mandatos Banco'}, 'forgetParameter': False}, {'text': 'Consulta Pagos Banco', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Consulta Pagos Banco'}, 'forgetParameter': False}, {'text': 'PAC en 1 Clic', 'location': {'text': '¿Qué opción de PAC en 1 clic deseas consultar?', 'entityType': {'entityType': 'informacion-pagosautomaticos-PAC- En1clic', 'entityValue': [{'entityValue': 'Inscripción desde oferta'}, {'entityValue': '¿Cómo inscribir?'}, {'entityValue': 'Configurar monto máximo'}, {'entityValue': 'Configurar fecha de término'}, {'entityValue': 'Configurar información adicional'}, {'entityValue': 'Inscripción múltiple'}, {'entityValue': '¿Qué es PAC en un clic?'}]}, 'chips': [{'text': 'Inscripción desde Oferta', 'location': {'text': 'Para visualizar una oferta de inscripción de PAC en 1 clic debes ingresar a Scotia GO, aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, por lo que debes ingresar a Scotia GO con tu Rut y clave secreta, una vez hecho el ingreso debes ubicar la sección de ofertas que aparece en el home. Próximamente estará disponible para el sitio privado.'}, 'entityValue': {'entityValue': 'Inscripción desde oferta'}, 'forgetParameter': False}, {'text': '¿Cómo inscribir?', 'location': {'text': 'Para inscribir PAC en 1 clic debes realizarlo a través de Scotia Go, ya que aún no hemos disponibilizado esta funcionalidad ScotiaWeb.\nPara realizar la inscripción de PAC en 1 Clic, ingresa a Scotia GO y realiza los siguientes pasos:\n1.- Presiona la oferta para inscripción de PAC\n2.- Selecciona el servicio que deseas inscribir marcando la casilla ubicada a la izquierda del mismo\n3.- Presiona el botón continuar\n4.- Si no deseas configurar el servicio debes presionar nuevamente el botón continuar\n5.- Verifica la información en pantalla y selecciona una cuenta de cargo (de esta cuenta serán debitados los próximos pagos asociados al PAC)\n6.- Acepta los términos y condiciones\n7.- Presiona el botón confirmar\n8.- Al finalizar visualizarás una pantalla con el resumen de la operación\n'}, 'entityValue': {'entityValue': '¿Cómo inscribir?'}, 'forgetParameter': False}, {'text': 'Configurar monto máximo', 'location': {'text': 'Efectivamente puedes establecer un monto máximo para el PAC en 1 clic, no obstante, debes asegurarte de que los cobros en el servicio a inscribir no excedan dicho monto, sin embargo, aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, por lo que debes ingresar a Scotia GO con tu Rut y clave secreta, para realizar la configuración. '}, 'entityValue': {'entityValue': 'Configurar monto máximo'}, 'forgetParameter': False}, {'text': 'Configurar fecha de término', 'location': {'text': 'Aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, sin embargo, lo puedes realizar la configuración en Scotia GO ingresando con tu Rut y clave secreta y realizar los siguientes pasos:\n1.- Una vez que hayas seleccionado el servicio que deseas inscribir debes presionar el botón continuar\n2.- En la próxima pantalla debes presionar el link “Configurar pagos”\n3.- Ingresa la información que deseas configurar: monto máximo, fecha de término y/o alias.\n4.- Presiona el botón guardar'}, 'entityValue': {'entityValue': 'Configurar fecha de término'}, 'forgetParameter': False}, {'text': 'Configurar información adicional', 'location': {'text': 'Efectivamente puedes establecer una fecha de término para el PAC, de ser así, los pagos automáticos se realizarán hasta la fecha indicada. Sin embargo, la funcionalidad de PAC en 1 clic actualmente se encuentra disponible sólo a través de Scotia GO, por lo que te puedes ingresar a Scotia GO con tu Rut y clave para realizar la configuración que desees. '}, 'entityValue': {'entityValue': 'Configurar información adicional'}, 'forgetParameter': False}, {'text': 'Inscripción Múltiple', 'location': {'text': 'Efectivamente puedes inscribir más de un servicio, pero aún no hemos disponibilizado la funcionalidad de PAC en 1 clic en el sitio ScotiaWeb, sin embargo, puedes contratar PAC en 1 clic a través de Scotia Go ingresando con tu Rut y clave secreta, una vez hecho el ingreso debes ubicar la sección de ofertas que aparece en el home.'}, 'entityValue': {'entityValue': 'Inscripción múltiple'}, 'forgetParameter': False}, {'text': '¿Qué es PAC en un Clic?', 'location': {'text': 'PAC en 1 clic, es una funcionalidad mediante la cual podrás seleccionar de forma simple y rápida los servicios que quieras inscribir para Pago Automático Mensual desde tu cuenta corriente . Podrás configurar montos máximos, fechas y cuenta de cargo. Para utilizar PAC en un clic selecciona la opción en ScotiaGO, ya que aún no hemos disponibilizado esta funcionalidad en ScotiaWeb.'}, 'entityValue': {'entityValue': '¿Qué es PAC en un clic?'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'PAC en 1 Clic'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, 'forgetParameter': False}, {'text': 'Pago automático en tarjeta de crédito (PAT)', 'location': {'text': '¿Qué información sobre PAT deseas conocer?', 'entityType': {'entityType': 'informacion-pagosautomaticos-PAT', 'entityValue': [{'entityValue': 'Inscribir un nuevo PAT', 'synonyms': ['Inscribir pago automático de tarjeta de crédito']}, {'entityValue': 'Consultar cuentas inscritas'}, {'entityValue': 'Eliminar PAT inscritos', 'synonyms': ['Cancelar PAT', 'Finalizar PAT', 'Desvincular PAT']}, {'entityValue': 'Consultar histórico de movimientos'}]}, 'chips': [{'text': 'Inscribir un nuevo PAT', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Agregar nueva cuenta"\n5. Ingresa los datos solicitado para realizar correctamente la inscripción del PAT.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Inscribir un nuevo PAT', 'synonyms': ['Inscribir pago automático de tarjeta de crédito']}, 'forgetParameter': False}, {'text': 'Consultar Cuentas Inscritas', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Cuentas inscritas"\n5. Aparecerá el listado de tus PAT inscritos, si quieres más información sobre algún en particular, haz clic en la acción "Ver Detalles".\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Consultar cuentas inscritas'}, 'forgetParameter': False}, {'text': 'Eliminar PAT Inscritos', 'url': 'intent://faq.eliminarpat.info', 'entityValue': {'entityValue': 'Eliminar PAT inscritos', 'synonyms': ['Cancelar PAT', 'Finalizar PAT', 'Desvincular PAT']}, 'forgetParameter': False}, {'text': 'Consultar Histórico de Movimientos', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Histórico de pagos"\n5. Aquí podrás seleccionar los filtros que necesitas para mostrar la información histórica que quieres consultar.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Consultar histórico de movimientos'}, 'forgetParameter': False}]}, 'entityValue': {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}</t>
+    <t>{'text': '¿Qué tipo de pago de servicio deseas revisar?', 'entityType': {'entityType': 'pagosautomaticos', 'entityValue': [{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}]}, 'chips': [{'text': 'Pago automático en cuenta (PAC)', 'location': {'text': '¿Qué información sobre PAC deseas conocer?', 'entityType': {'entityType': 'informacion-pagosautomaticos-PAC', 'entityValue': [{'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, {'entityValue': 'Administrar PAC', 'synonyms': ['Gestionar PAC.']}, {'entityValue': 'Consulta Mandatos Banco'}, {'entityValue': 'Consulta Pagos Banco'}, {'entityValue': 'Eliminar PAC', 'synonyms': ['Cancelar PAC', 'Desvincular PAC', 'Finalizar PAC']}, {'entityValue': 'PAC en 1 Clic'}]}, 'chips': [{'text': 'Eliminar PAC', 'url': 'intent://faq.eliminarPAC.info', 'entityValue': {'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, 'forgetParameter': False}, {'text': 'Inscribir PAC', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, 'forgetParameter': False}, {'text': 'Administrar PAC', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Administrar PAC', 'synonyms': ['Gestionar PAC.']}, 'forgetParameter': False}, {'text': 'Consulta Mandatos Banco', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Consulta Mandatos Banco'}, 'forgetParameter': False}, {'text': 'Consulta Pagos Banco', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Consulta Pagos Banco'}, 'forgetParameter': False}, {'text': 'PAC en 1 Clic', 'location': {'text': '¿Qué opción de PAC en 1 clic deseas consultar?', 'entityType': {'entityType': 'informacion-pagosautomaticos-PAC- En1clic', 'entityValue': [{'entityValue': 'Inscripción desde oferta'}, {'entityValue': '¿Cómo inscribir?'}, {'entityValue': 'Configurar monto máximo'}, {'entityValue': 'Configurar fecha de término'}, {'entityValue': 'Configurar información adicional'}, {'entityValue': 'Inscripción múltiple'}, {'entityValue': '¿Qué es PAC en un clic?'}]}, 'chips': [{'text': 'Inscripción desde Oferta', 'location': {'text': 'Para visualizar una oferta de inscripción de PAC en 1 clic debes ingresar a Scotia GO, aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, por lo que debes ingresar a Scotia GO con tu Rut y clave secreta, una vez hecho el ingreso debes ubicar la sección de ofertas que aparece en el home. Próximamente estará disponible para el sitio privado.'}, 'entityValue': {'entityValue': 'Inscripción desde oferta'}, 'forgetParameter': False}, {'text': '¿Cómo inscribir?', 'location': {'text': 'Para inscribir PAC en 1 clic debes realizarlo a través de Scotia Go, ya que aún no hemos disponibilizado esta funcionalidad ScotiaWeb.\nPara realizar la inscripción de PAC en 1 Clic, ingresa a Scotia GO y realiza los siguientes pasos:\n1.- Presiona la oferta para inscripción de PAC\n2.- Selecciona el servicio que deseas inscribir marcando la casilla ubicada a la izquierda del mismo\n3.- Presiona el botón continuar\n4.- Si no deseas configurar el servicio debes presionar nuevamente el botón continuar\n5.- Verifica la información en pantalla y selecciona una cuenta de cargo (de esta cuenta serán debitados los próximos pagos asociados al PAC)\n6.- Acepta los términos y condiciones\n7.- Presiona el botón confirmar\n8.- Al finalizar visualizarás una pantalla con el resumen de la operación\n'}, 'entityValue': {'entityValue': '¿Cómo inscribir?'}, 'forgetParameter': False}, {'text': 'Configurar monto máximo', 'location': {'text': 'Efectivamente puedes establecer un monto máximo para el PAC en 1 clic, no obstante, debes asegurarte de que los cobros en el servicio a inscribir no excedan dicho monto, sin embargo, aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, por lo que debes ingresar a Scotia GO con tu Rut y clave secreta, para realizar la configuración. '}, 'entityValue': {'entityValue': 'Configurar monto máximo'}, 'forgetParameter': False}, {'text': 'Configurar fecha de término', 'location': {'text': 'Aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, sin embargo, lo puedes realizar la configuración en Scotia GO ingresando con tu Rut y clave secreta y realizar los siguientes pasos:\n1.- Una vez que hayas seleccionado el servicio que deseas inscribir debes presionar el botón continuar\n2.- En la próxima pantalla debes presionar el link “Configurar pagos”\n3.- Ingresa la información que deseas configurar: monto máximo, fecha de término y/o alias.\n4.- Presiona el botón guardar'}, 'entityValue': {'entityValue': 'Configurar fecha de término'}, 'forgetParameter': False}, {'text': 'Configurar información adicional', 'location': {'text': 'Efectivamente puedes establecer una fecha de término para el PAC, de ser así, los pagos automáticos se realizarán hasta la fecha indicada. Sin embargo, la funcionalidad de PAC en 1 clic actualmente se encuentra disponible sólo a través de Scotia GO, por lo que te puedes ingresar a Scotia GO con tu Rut y clave para realizar la configuración que desees. '}, 'entityValue': {'entityValue': 'Configurar información adicional'}, 'forgetParameter': False}, {'text': 'Inscripción Múltiple', 'location': {'text': 'Efectivamente puedes inscribir más de un servicio, pero aún no hemos disponibilizado la funcionalidad de PAC en 1 clic en el sitio ScotiaWeb, sin embargo, puedes contratar PAC en 1 clic a través de Scotia Go ingresando con tu Rut y clave secreta, una vez hecho el ingreso debes ubicar la sección de ofertas que aparece en el home.'}, 'entityValue': {'entityValue': 'Inscripción múltiple'}, 'forgetParameter': False}, {'text': '¿Qué es PAC en un Clic?', 'location': {'text': 'PAC en 1 clic, es una funcionalidad mediante la cual podrás seleccionar de forma simple y rápida los servicios que quieras inscribir para Pago Automático Mensual desde tu cuenta corriente . Podrás configurar montos máximos, fechas y cuenta de cargo. Para utilizar PAC en un clic selecciona la opción en ScotiaGO, ya que aún no hemos disponibilizado esta funcionalidad en ScotiaWeb.'}, 'entityValue': {'entityValue': '¿Qué es PAC en un clic?'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'PAC en 1 Clic'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, 'forgetParameter': False}, {'text': 'Pago automático en tarjeta de crédito (PAT)', 'location': {'text': '¿Qué información sobre PAT deseas conocer?', 'entityType': {'entityType': 'informacion-pagosautomaticos-PAT', 'entityValue': [{'entityValue': 'Inscribir un nuevo PAT', 'synonyms': ['Inscribir pago automático de tarjeta de crédito']}, {'entityValue': 'Consultar cuentas inscritas'}, {'entityValue': 'Eliminar PAT inscritos', 'synonyms': ['Cancelar PAT', 'Finalizar PAT', 'Desvincular PAT']}, {'entityValue': 'Consultar histórico de movimientos'}]}, 'chips': [{'text': 'Inscribir un nuevo PAT', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Agregar nueva cuenta"\n5. Ingresa los datos solicitado para realizar correctamente la inscripción del PAT.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Inscribir un nuevo PAT', 'synonyms': ['Inscribir pago automático de tarjeta de crédito']}, 'forgetParameter': False}, {'text': 'Consultar Cuentas Inscritas', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Cuentas inscritas"\n5. Aparecerá el listado de tus PAT inscritos, si quieres más información sobre algún en particular, haz clic en la acción "Ver Detalles".\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Consultar cuentas inscritas'}, 'forgetParameter': False}, {'text': 'Eliminar PAT Inscritos', 'url': 'intent://faq.eliminarpat.info', 'entityValue': {'entityValue': 'Eliminar PAT inscritos', 'synonyms': ['Cancelar PAT', 'Finalizar PAT', 'Desvincular PAT']}, 'forgetParameter': False}, {'text': 'Consultar Histórico de Movimientos', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Histórico de pagos"\n5. Aquí podrás seleccionar los filtros que necesitas para mostrar la información histórica que quieres consultar.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Consultar histórico de movimientos'}, 'forgetParameter': False}]}, 'entityValue': {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}</t>
   </si>
   <si>
     <t>{'text': 'Para realizar Pagos Automáticos con tu Cuenta Corriente, sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios”.\n3. Elige la opción “Pago Automático con Cuenta Corriente (PAC)”,en el cual puedes elegir las siguientes opciones:\n"Administración PAC".\n"Consulta Mandatos Banco".\n"Consulta Pagos Banco".\n4. Inscribe el servicio que deseas vincular a PAC desde el menú superior en "Inscribir pago" e ingresa los datos del servicio a registrar".\n5. Completa los datos del servicio y sigue las instrucciones.\n\nIMPORTANTE\nEl primer cargo de su cuenta de servicio dependerá del proceso interno de cada empresa, por lo que no deje de pagarla hasta que reciba impreso en la boleta el timbre "Acogido al Convenio PAC del Banco Scotiabank" o Pago Automático. En caso contrario, debe consultar directamente en la empresa prestadora del servicio.\n\n ¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}</t>
   </si>
   <si>
-    <t>{'text': 'Por ahora, solo te puedo indicar como pagar un producto, ¿Qué producto deseas pagar?', 'entityType': {'entityType': 'tipo-informacion-pagos-generar', 'entityValue': [{'entityValue': 'Pagar Tarjeta de Crédito', 'synonyms': ['Pagar TC']}, {'entityValue': 'Pagar Crédito'}, {'entityValue': 'Pagar Línea de Crédito'}, {'entityValue': 'Pagar Servicios', 'synonyms': ['PAC', 'PAT', 'Pago automático']}]}, 'chips': [{'text': 'Pagar Tarjeta de Crédito', 'location': {'text': '¿Que opción de pago deseas consultar?', 'entityType': {'entityType': 'informacion-pagos-generar-tarjetacredito', 'entityValue': [{'entityValue': 'Pago deuda total', 'synonyms': ['Pago total deuda']}, {'entityValue': 'Pago parcial de tarjeta'}, {'entityValue': 'Pago mínimo'}, {'entityValue': 'Pago sin cuenta corriente', 'synonyms': ['Pago sin cta cte']}, {'entityValue': 'Deuda en dólares'}]}, 'chips': [{'text': 'Pago Deuda Total', 'location': {'text': 'Para pagar el total de la deuda de tu tarjeta, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjeta".\n2. Dirígete en el submenú ”Pagos".\n3. Elige la opción “Prepago de tarjeta de crédito”\n4. Luego selecciona tu tarjeta y tu cuenta de cargo.\n5. Te figurará la deuda total a pagar de tu tarjeta. \n6. Presiona el botón continuar para confirmar el pago total de tu deuda, de este modo se pagará la deuda total en pesos de tu tarjeta de crédito con cargo tu cuenta corriente.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pago deuda total', 'synonyms': ['Pago total deuda']}, 'forgetParameter': False}, {'text': 'Prepago parcial de tarjeta', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Pago parcial de tarjeta'}, 'forgetParameter': False}, {'text': 'Pago mínimo', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Pago mínimo'}, 'forgetParameter': False}, {'text': 'Pago sin cuenta corriente', 'location': {'text': 'Si no posees una cuenta corriente o cuenta vista de Scotiabank, puedes hacer el pago ingresando en www.scotiabankchile.cl siguiendo los siguientes pasos:\n\n1. En el menú de navegación haz click en la sección "Botón de Pago".\n2. Ahí encontrarás el botón “Paga tu Tarjeta de Crédito”.\n3. Al hacer click sobre el botón anterior, éste te llevará a "Pago Fácil Tarjeta de Crédito".\n4. Aquí deberás realizar los siguientes pasos:\n  - Ingresa tus datos: Coloca tu rut, los últimos cuatro dígitos de tu tarjeta y el tipo de deuda que deseas pagar.\n  - Selecciona el monto: Deberás señalar el monto que deseas pagar, revisa que la información proporcionada sea correcta y luego seleccionas continuar.\n  - Luego, podrás elegir pagar con tu tarjeta de crédito o débito de otro banco, con el mecanismo normal de pago vía WebPay.\n  - Por último tendrás tu comprobante de pago.\n¡Y listo! En simples pasos podrás pagar tu tarjeta de crédito sin necesidad de acudir a una sucursal.\n'}, 'entityValue': {'entityValue': 'Pago sin cuenta corriente', 'synonyms': ['Pago sin cta cte']}, 'forgetParameter': False}, {'text': 'Pagar deuda facturada', 'location': {'text': ' ¿Qué tipo de deuda deseas pagar?', 'entityType': {'entityType': 'informacion-pagos-tarjetacredito-deuda-nacional', 'entityValue': [{'entityValue': 'Pagar deuda nacional'}, {'entityValue': 'Pagar deuda internacional'}]}, 'chips': [{'text': 'Pagar deuda nacional', 'location': {'text': 'Para pagar tu Tarjeta de Crédito en moneda nacional, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjeta".\n2. Dirígete en el submenú ”Pagos".\n3. Elige la opción “Pagar monto nacional”\n4. Donde te figurará el total facturado a pagar.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pagar deuda nacional'}, 'forgetParameter': False}, {'text': 'Pagar deuda internacional', 'location': {'text': 'Para pagar tu deuda internacional en dólares deberás hacer lo siguiente:\n\n1. Selecciona la opción “Tarjetas” en el menú superior.\n2. Selecciona en la columna “Pagos” la opción “Pagar monto internacional”.\n3. Selecciona la cuenta de origen de donde se sacara el dinero para pagar la deuda.\n4. Selecciona la tarjeta de destino (la tarjeta en la que pagaremos el monto en dólares).\n5. Haz clic en “Aceptar”. Esto te llevará a la página con el detalle de la deuda.\n6. Deberás agregar el monto a pagar en dólares.\n7. Si ya se había realizado antes un abono a su deuda en dólares, sólo deberás ingresar como monto el saldo que le queda por pagar, el cual puede ser menor al monto facturado que se informa.\n8. Por último, debes hacer clic al botón para confirmar, se pagará la deuda en dólares y se cargará el monto equivalente en pesos en su cuenta corriente.\n\nTendrás que tener en cuenta lo siguiente:\nLa deuda en dólares sólo se puede pagar por esta vía hasta la fecha de vencimiento del Estado de Cuenta (EECC), posterior a esa fecha, la deuda en dólares se convierte en pesos y pasa a ser parte de la deuda en moneda nacional.\nLos pagos que se efectúen fuera de horario bancario (hasta las 14:00 de lunes a viernes) se contabilizarán y aplicarán al día siguiente.\nPor lo anterior, hasta las 14:00 horas del día de vencimiento de tu Estado de Cuenta, podrás cancelar la última deuda facturada en dólares.\nEl monto a pagar no debe superar los USD 10.000, sobre este monto deberás realizar tu pago a través de caja.\n'}, 'entityValue': {'entityValue': 'Pagar deuda internacional'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Deuda en dólares'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Pagar Tarjeta de Crédito', 'synonyms': ['Pagar TC']}, 'forgetParameter': False}, {'text': 'Pagar Línea de Crédito', 'location': {'text': 'Para realizar el pago de tu Línea de crédito, sigue éstos pasos:\n\n1.Selecciona en el menú principal la opción "Transferencias y Pagos".\n2.Dirígete a la lista “Pagos de productos”.\n3. Elige la opción “Pagar Línea de Crédito”.\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pagar Línea de Crédito'}, 'forgetParameter': False}, {'text': 'Pagar Créditos', 'location': {'text': 'OK, y ¿cuál crédito quieres pagar?', 'entityType': {'entityType': 'informacion-pagos-generar-creditos', 'entityValue': [{'entityValue': 'Pago CAE', 'synonyms': ['Pagar Crédito con aval del estado', 'Pagar crédito con aval', 'pagar cae']}, {'entityValue': 'Pago crédito de consumo', 'synonyms': ['pagar consumo', 'pago consumo']}, {'entityValue': 'Pago crédito hipotecario', 'synonyms': ['Pago chip', 'pagar hipotecario', 'pagar dividendo']}, {'entityValue': 'Pago crédito automotriz'}]}, 'chips': [{'text': 'Crédito de consumo', 'location': {'text': '¿Quieres pagar desde tu cuenta Scotia?', 'entityType': {'entityType': 'tipo-respuesta-sino', 'entityValue': [{'entityValue': 'Sí', 'synonyms': ['si']}, {'entityValue': 'No', 'synonyms': ['nop']}]}, 'chips': [{'text': 'Sí', 'location': {'text': 'Para transferir el pago de tu crédito de consumo, sigue estas indicaciones:\n\n1. Selecciona en el menú "Créditos".\n2. En el submenú "Crédito de consumo" selecciona la opción "Pagar cuota de crédito".\n3. Selecciona el crédito que deseas pagar.\n4. Luego haz clic en botón "Pago Cuota"\n5. Selecciona la cuenta de cargo y la cuota que deseas pagar.\n6. Para finalizar haz clic en el botón "Pagar".\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['si']}, 'forgetParameter': False}, {'text': 'No', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'No', 'synonyms': ['nop']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Pago crédito de consumo', 'synonyms': ['pagar consumo', 'pago consumo']}, 'forgetParameter': False}, {'text': 'CAE (Crédito con Aval del Estado)', 'url': 'intent://faq.pagocae.info', 'entityValue': {'entityValue': 'Pago CAE', 'synonyms': ['Pagar Crédito con aval del estado', 'Pagar crédito con aval', 'pagar cae']}, 'forgetParameter': False}, {'text': 'Crédito Automotriz', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'Pago crédito automotriz'}, 'forgetParameter': False}, {'text': 'Crédito Hipotecario', 'location': {'text': 'Puedes pagar los dividendos de tu crédito hipotecario, siguiendo estos pasos:\n\n1. Selecciona en el menú principal la opción "Crédito".\n2. Dirígete a la lista "Crédito Hipotecario".\n3. Elige la opción “Pagar dividendos”.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pago crédito hipotecario', 'synonyms': ['Pago chip', 'pagar hipotecario', 'pagar dividendo']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Pagar Crédito'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}</t>
+    <t>{'text': 'Por ahora, solo te puedo indicar como pagar un producto, ¿Qué producto deseas pagar?', 'entityType': {'entityType': 'tipo-informacion-pagos-generar', 'entityValue': [{'entityValue': 'Pagar Tarjeta de Crédito', 'synonyms': ['Pagar TC']}, {'entityValue': 'Pagar Crédito'}, {'entityValue': 'Línea de Crédito'}, {'entityValue': 'Pagar Servicios', 'synonyms': ['PAC', 'PAT', 'Pago automático']}]}, 'chips': [{'text': 'Pagar Tarjeta de Crédito', 'location': {'text': '¿Que opción de pago deseas consultar?', 'entityType': {'entityType': 'informacion-pagos-generar-tarjetacredito', 'entityValue': [{'entityValue': 'Pago deuda total', 'synonyms': ['Pago total deuda']}, {'entityValue': 'Pago parcial de tarjeta'}, {'entityValue': 'Pago mínimo'}, {'entityValue': 'Pago sin cuenta corriente', 'synonyms': ['Pago sin cta cte']}, {'entityValue': 'Deuda en dólares'}]}, 'chips': [{'text': 'Pago Deuda Total', 'location': {'text': 'Para pagar el total de la deuda de tu tarjeta, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjeta".\n2. Dirígete en el submenú ”Pagos".\n3. Elige la opción “Prepago de tarjeta de crédito”\n4. Luego selecciona tu tarjeta y tu cuenta de cargo.\n5. Te figurará la deuda total a pagar de tu tarjeta. \n6. Presiona el botón continuar para confirmar el pago total de tu deuda, de este modo se pagará la deuda total en pesos de tu tarjeta de crédito con cargo tu cuenta corriente.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pago deuda total', 'synonyms': ['Pago total deuda']}, 'forgetParameter': False}, {'text': 'Prepago parcial de tarjeta', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Pago parcial de tarjeta'}, 'forgetParameter': False}, {'text': 'Pago mínimo', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Pago mínimo'}, 'forgetParameter': False}, {'text': 'Pago sin cuenta corriente', 'location': {'text': 'Si no posees una cuenta corriente o cuenta vista de Scotiabank, puedes hacer el pago ingresando en www.scotiabankchile.cl siguiendo los siguientes pasos:\n\n1. En el menú de navegación haz click en la sección "Botón de Pago".\n2. Ahí encontrarás el botón “Paga tu Tarjeta de Crédito”.\n3. Al hacer click sobre el botón anterior, éste te llevará a "Pago Fácil Tarjeta de Crédito".\n4. Aquí deberás realizar los siguientes pasos:\n  - Ingresa tus datos: Coloca tu rut, los últimos cuatro dígitos de tu tarjeta y el tipo de deuda que deseas pagar.\n  - Selecciona el monto: Deberás señalar el monto que deseas pagar, revisa que la información proporcionada sea correcta y luego seleccionas continuar.\n  - Luego, podrás elegir pagar con tu tarjeta de crédito o débito de otro banco, con el mecanismo normal de pago vía WebPay.\n  - Por último tendrás tu comprobante de pago.\n¡Y listo! En simples pasos podrás pagar tu tarjeta de crédito sin necesidad de acudir a una sucursal.\n'}, 'entityValue': {'entityValue': 'Pago sin cuenta corriente', 'synonyms': ['Pago sin cta cte']}, 'forgetParameter': False}, {'text': 'Pagar deuda facturada', 'location': {'text': ' ¿Qué tipo de deuda deseas pagar?', 'entityType': {'entityType': 'informacion-pagos-tarjetacredito-deuda-nacional', 'entityValue': [{'entityValue': 'Pagar deuda nacional'}, {'entityValue': 'Pagar deuda internacional'}]}, 'chips': [{'text': 'Pagar deuda nacional', 'location': {'text': 'Para pagar tu Tarjeta de Crédito en moneda nacional, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjeta".\n2. Dirígete en el submenú ”Pagos".\n3. Elige la opción “Pagar monto nacional”\n4. Donde te figurará el total facturado a pagar.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pagar deuda nacional'}, 'forgetParameter': False}, {'text': 'Pagar deuda internacional', 'location': {'text': 'Para pagar tu deuda internacional en dólares deberás hacer lo siguiente:\n\n1. Selecciona la opción “Tarjetas” en el menú superior.\n2. Selecciona en la columna “Pagos” la opción “Pagar monto internacional”.\n3. Selecciona la cuenta de origen de donde se sacara el dinero para pagar la deuda.\n4. Selecciona la tarjeta de destino (la tarjeta en la que pagaremos el monto en dólares).\n5. Haz clic en “Aceptar”. Esto te llevará a la página con el detalle de la deuda.\n6. Deberás agregar el monto a pagar en dólares.\n7. Si ya se había realizado antes un abono a su deuda en dólares, sólo deberás ingresar como monto el saldo que le queda por pagar, el cual puede ser menor al monto facturado que se informa.\n8. Por último, debes hacer clic al botón para confirmar, se pagará la deuda en dólares y se cargará el monto equivalente en pesos en su cuenta corriente.\n\nTendrás que tener en cuenta lo siguiente:\nLa deuda en dólares sólo se puede pagar por esta vía hasta la fecha de vencimiento del Estado de Cuenta (EECC), posterior a esa fecha, la deuda en dólares se convierte en pesos y pasa a ser parte de la deuda en moneda nacional.\nLos pagos que se efectúen fuera de horario bancario (hasta las 14:00 de lunes a viernes) se contabilizarán y aplicarán al día siguiente.\nPor lo anterior, hasta las 14:00 horas del día de vencimiento de tu Estado de Cuenta, podrás cancelar la última deuda facturada en dólares.\nEl monto a pagar no debe superar los USD 10.000, sobre este monto deberás realizar tu pago a través de caja.\n'}, 'entityValue': {'entityValue': 'Pagar deuda internacional'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Deuda en dólares'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Pagar Tarjeta de Crédito', 'synonyms': ['Pagar TC']}, 'forgetParameter': False}, {'text': 'Pagar Línea de Crédito', 'location': {'text': 'Para realizar el pago de tu Línea de crédito, sigue éstos pasos:\n\n1.Selecciona en el menú principal la opción "Transferencias y Pagos".\n2.Dirígete a la lista “Pagos de productos”.\n3. Elige la opción “Pagar Línea de Crédito”.\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Línea de Crédito'}, 'forgetParameter': False}, {'text': 'Pagar Créditos', 'location': {'text': 'OK, y ¿cuál crédito quieres pagar?', 'entityType': {'entityType': 'informacion-pagos-generar-creditos', 'entityValue': [{'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, {'entityValue': 'Pago crédito automotriz'}]}, 'chips': [{'text': 'Crédito de consumo', 'location': {'text': '¿Quieres pagar desde tu cuenta Scotia?', 'entityType': {'entityType': 'tipo-respuesta-sino', 'entityValue': [{'entityValue': 'Sí', 'synonyms': ['si']}, {'entityValue': 'No', 'synonyms': ['nop']}]}, 'chips': [{'text': 'Sí', 'location': {'text': 'Para transferir el pago de tu crédito de consumo, sigue estas indicaciones:\n\n1. Selecciona en el menú "Créditos".\n2. En el submenú "Crédito de consumo" selecciona la opción "Pagar cuota de crédito".\n3. Selecciona el crédito que deseas pagar.\n4. Luego haz clic en botón "Pago Cuota"\n5. Selecciona la cuenta de cargo y la cuota que deseas pagar.\n6. Para finalizar haz clic en el botón "Pagar".\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['si']}, 'forgetParameter': False}, {'text': 'No', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'No', 'synonyms': ['nop']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, 'forgetParameter': False}, {'text': 'CAE (Crédito con Aval del Estado)', 'url': 'intent://faq.pagocae.info', 'entityValue': {'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, 'forgetParameter': False}, {'text': 'Crédito Automotriz', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'Pago crédito automotriz'}, 'forgetParameter': False}, {'text': 'Crédito Hipotecario', 'location': {'text': 'Puedes pagar los dividendos de tu crédito hipotecario, siguiendo estos pasos:\n\n1. Selecciona en el menú principal la opción "Crédito".\n2. Dirígete a la lista "Crédito Hipotecario".\n3. Elige la opción “Pagar dividendos”.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Pagar Crédito'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}</t>
   </si>
   <si>
     <t>{'text': 'Al momento de recibir tus productos financieros Scotiabank, bien sea tu Tarjeta de Crédito, es prioritario que efectúes la activación de las tarjetas para darles la utilidad que deseas.\nPara activar tus tarjetas debes realizar los siguientes pasos:\n1. Ingresa al menú Tarjetas\n2. DirÍgite a la opción configuración\n3. Selecciona la opción configurar claves y usos de tarjetas.\n4. Selecciona la opción tarjetas de crédito y selecciona la tarjeta que deseas activar.\n5. Ingresa en la opción Cambio de Clave Secreta, esta opción te solicitará autorizar transacción con tu keypass.\n6. Luego ingresa tu clave de 4 dígitos numéricos y presiona el botón aceptar.'}</t>
@@ -110,6 +122,12 @@
     <t>{'text': '¡Hola! Soy Scoty, tu asistente virtual. Cuéntame, ¿Qué necesitas activar?', 'entityType': {'entityType': 'tipo-activacion', 'entityValue': [{'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}, {'entityValue': 'Tarjeta de Débito', 'synonyms': ['tarjeta debito', 'td', 'tdd', 'tdb']}, {'entityValue': 'Scotia Pass', 'synonyms': ['keypass', 'scotiapass', 'pin pass']}]}, 'chips': [{'text': 'Tarjeta de Crédito', 'location': {'text': 'Respecto a la activación de las tarjetas de crédito, ¿Qué opción necesitas activar?', 'entityType': {'entityType': 'tipo-activacion-tarjeta-credito', 'entityValue': [{'entityValue': 'Activar Tarjeta Crédito', 'synonyms': ['activar tc', 'activar tarjeta credito']}, {'entityValue': 'Activar Clave', 'synonyms': ['Activación Clave']}, {'entityValue': 'Habilitar compras online', 'synonyms': ['habilitar compras web']}]}, 'chips': [{'text': 'Activar tarjeta', 'url': 'intent://faq.tarjetascreditoactivar.link', 'entityValue': {'entityValue': 'Activar Tarjeta Crédito', 'synonyms': ['activar tc', 'activar tarjeta credito']}, 'forgetParameter': False}, {'text': 'Activar clave', 'url': 'intent://faq.tarjetascreditoactivar.link', 'entityValue': {'entityValue': 'Activar Clave', 'synonyms': ['Activación Clave']}, 'forgetParameter': False}, {'text': 'Habilitar compras online', 'location': {'text': '¿Qué quieres conocer sobre habilitación de compras Online?', 'chips': [{'text': 'Habilitar Titular', 'location': {'text': 'Para habilitar las compras online con Tarjetas de Crédito Scotiabank, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjetas".\n2. Dirígete a la lista “Configuración”.\n3. Elige la opción “Habilitar compras online”.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n1. Ingresa a la aplicación.\n2. Ingresa tu RUT, tu Clave de Internet y tu Clave de Cajero Automático (Tarjeta de Débito).\n3. Para continuar, necesitamos comprobar que el teléfono que usas coincide con el teléfono seguro que registraste en el banco, para ello te enviaremos un SMS con un Código de Validación.\n4. Ingresa el código que te enviamos por SMS para poder verificar tu teléfono.\n5. Crea tu clave de autorización de 6 dígitos.\nA continuación, si tienes ScotiaPass, te solicitaremos que lo escribas. En caso de que no tengas ScotiaPass, te pediremos los 8 últimos números de tu Tarjeta de Débito.\n¡Listo! Ya puedes autorizar tus transacciones y/o pagos con tu App Scotiabank KeyPass.\n'}, 'entityValue': {'entityValue': 'Titular'}, 'forgetParameter': False}, {'text': 'Habilitar Adicional', 'location': {'text': 'Si quieres habilitar las compras online para Tarjetas adicionales, sigue estos pasos:\n\n1. Revisa si el estado de tus Tarjetas adicionales dice “Habilitado”. En caso contrario presiona el botón “Habilitar Servicio”.\n2. Activa el botón “Cambiar Clave Adicional”.\n3. Genera una clave para el cliente adicional.\nIMPORTANTE\n- Esta clave solo servirá para el cliente adicional en el flujo de compras online vía WEBPAY.\n- La clave no permite al cliente adicional acceder al sitio web.\n- El cliente titular debe entregar esta clave a su adicional.\n'}, 'entityValue': {'entityValue': 'Habilitar Adicional'}, 'forgetParameter': False}], 'buttons': [{'text': 'Habilitar titular', 'url': 'pl.habilitarcomprasonlinehabilitartitular.link'}, {'text': 'Habilitar adicional', 'url': 'pl.habilitarcomprasonlinehabilitaradicional.info'}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Habilitar compras online', 'synonyms': ['habilitar compras web']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}, 'forgetParameter': False}, {'text': 'Tarjeta de Débito', 'location': {'text': 'Respecto a la activación de las tarjetas de crédito, ¿Qué opción necesitas activar?', 'entityType': {'entityType': 'tipo-activacion-tarjeta-debito', 'entityValue': [{'entityValue': 'Activar tarjeta débito', 'synonyms': ['activar TD']}, {'entityValue': 'Activar clave Tarjeta Débito', 'synonyms': ['activación clave td']}, {'entityValue': 'Habilitar tarjeta débito', 'synonyms': ['habilitar td']}, {'entityValue': 'Habilitar tarjeta de débito para uso internacional', 'synonyms': ['habilitar uso internacional', 'habilitar TD en el extranjero']}]}, 'chips': [{'text': 'Activar Tarjeta', 'url': 'intent://faq.tarjetasdebitoactivar.link', 'entityValue': {'entityValue': 'Activar tarjeta débito', 'synonyms': ['activar TD']}, 'forgetParameter': False}, {'text': 'Activar Clave', 'url': 'intent://faq.tarjetasdebitoactivar.link', 'entityValue': {'entityValue': 'Activar clave Tarjeta Débito', 'synonyms': ['activación clave td']}, 'forgetParameter': False}, {'text': 'Activar para uso Internacional', 'url': 'intent://faq.tarjetadebactivainternacional.link', 'entityValue': {'entityValue': 'Habilitar tarjeta de débito para uso internacional', 'synonyms': ['habilitar uso internacional', 'habilitar TD en el extranjero']}, 'forgetParameter': False}, {'text': 'Habilitar compras online tarjeta adicional', 'location': {'text': 'Si quieres habilitar las compras online para Tarjetas adicionales, sigue estos pasos:\n\n1. Revisa si el estado de tus Tarjetas adicionales dice “Habilitado”. En caso contrario presiona el botón “Habilitar Servicio”.\n2. Activa el botón “Cambiar Clave Adicional”.\n3. Genera una clave para el cliente adicional.\nIMPORTANTE\n- Esta clave solo servirá para el cliente adicional en el flujo de compras online vía WEBPAY.\n- La clave no permite al cliente adicional acceder al sitio web.\n- El cliente titular debe entregar esta clave a su adicional.\n'}, 'entityValue': {'entityValue': 'Habilitar tarjeta débito', 'synonyms': ['habilitar td']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Tarjeta de Débito', 'synonyms': ['tarjeta debito', 'td', 'tdd', 'tdb']}, 'forgetParameter': False}, {'text': 'Scotia Pass', 'location': {'text': 'Puedo ayudarte con tu Keypass! ¿Quieres activar en un nuevo dispositivo o activar por primera vez?', 'chips': [{'text': 'Activar por primera vez', 'location': {'text': 'Para activar por primera vez en Scotiabank KeyPass, solo deberás seguir los siguientes pasos que se muestran a continuación:\n\n1. Ingresa a la aplicación.\n2. Ingresa tu RUT, tu Clave de Internet y tu Clave de Cajero Automático (Tarjeta de Débito).\n3. Para continuar, necesitamos comprobar que el teléfono que usas coincide con el teléfono seguro que registraste en el banco, para ello te enviaremos un SMS con un Código de Validación.\n4. Ingresa el código que te enviamos por SMS para poder verificar tu teléfono.\n5. Crea tu clave de autorización de 6 dígitos.\nA continuación, si tienes ScotiaPass, te solicitaremos que lo escribas. En caso de que no tengas ScotiaPass, te pediremos los 8 últimos números de tu Tarjeta de Débito.\n¡Listo! Ya puedes autorizar tus transacciones y/o pagos con tu App Scotiabank KeyPass.\n'}, 'entityValue': {'entityValue': 'Activar por primera vez'}, 'forgetParameter': False}, {'text': 'Activar en un nuevo equipo', 'location': {'text': '¿Dispones de tu teléfono antiguo para activar tu Keypass?', 'chips': [{'text': 'Sí', 'location': {'text': 'A continuación detallamos cómo enrolarte en KeyPass si tienes un nuevo dispositivo móvil, y también el dispositivo antiguo en tu poder. Para este proceso deberás tener ambos dispositivos móviles a mano:\n\n1. Al abrir tu App Scotiabank KeyPass en tu nuevo dispositivo móvil, aparecerá una pantalla de bienvenida donde te solicitaremos tu clave de cajero automático de tu Tarjeta de Débito o Crédito, además tendrás que escribir tu RUT y la clave que usas en tu sitio privado.\n2. Como ya te has enrolado previamente en Scotiabank KeyPass, te aparecerá un mensaje reconociéndote como usuario e indicando que tu clave quedará actualizada. Desde ese momento solo podrás usar la aplicación en ese dispositivo móvil. Deberás confirmar que deseas continuar con el flujo.\n3. Se te indicará un mensaje preguntando si tienes tu dispositivo anterior contigo. Si es así, deberás presionar la opción “Si”.\n4. Te aparecerá un código QR, el cual deberás escanear con tu dispositivo móvil antiguo desde la App KeyPass.\n5. Toma tu dispositivo antiguo y abre tu App KeyPass. Te aprecerán en la pantalla distintas opciones disponibles, deberás presionar aquella que indica “Cambio de Dispositivo”\n6. Un vez presionada la opción “Cambio de teléfono”, se abrirá el escáner que permite capturar el código QR que nos entrega la aplicación KeyPass en el dispositivo móvil nuevo.\n7. Al escanear correctamente el código QR, la aplicación en el dispositivo móvil antiguo te solicitará introducir la clave de KeyPass para autorizar el cambio.\n8. Por otro lado, en el dispositivo móvil nuevo, una vez escaneado el código, podrás crear tu nueva clave de autenticación, la cual debe contener 6 dígitos. Con esta contraseña ya podrás autorizar tus transacciones.\n¡Listo! Has completado todo el proceso y puedes empezar a autorizar tus transacciones como siempre.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['Si']}, 'forgetParameter': False}, {'text': 'No', 'location': {'text': 'A continuación detallamos cómo enrolarte en KeyPass si tienes un nuevo dispositivo móvil, pero no tu dispositivo antiguo:\n\n1. Al abrir tu App Scotiabank KeyPass en tu nuevo dispositivo móvil, aparecerá una pantalla de bienvenida donde te solicitaremos tu clave de cajero automático de tu Tarjeta de Débito o Crédito, además tendrás que escribir tu RUT y la clave que usas en tu sitio privado.\n2. Como ya te has enrolado previamente en Scotiabank KeyPass, te aparecerá un mensaje reconociéndote como usuario e indicando que tu clave quedará actualizada. Desde ese momento solo podrás usar la aplicación en este nuevo disposito móvil. Deberás confirmar que desea continuar con el flujo.\n3. Te aparecerá un mensaje preguntando si tienes tu dispositivo anterior contigo. En este caso, como no tienes tu dispositivo móvil antiguo, deberás elegir la opción “No”.\n4. Se te indicará en la pantalla tu e-mail registrado, al cual se te hará llegar un código QR con el cual podrás activar la aplicación en tu nuevo dispositivo móvil. Deberás presionar el botón “Continuar” para que el e-mail se genere. Si tienes más de un correo registrado, podrás elegir a cuál correo recibir la comunicación.\n5. Se confirmará en pantalla el envío del e-mail y tendrás pocos minutos para revisar tu buzón de correo desde un computador.\n6. Deberás escanear con tu dispositivo móvil desde la App KeyPass el código QR que llegó a tu correo.\n7. Al escanear correctamente el código QR, te solicitará introducir la clave de KeyPass para autorizar el cambio.\n8. El último paso varía dependiendo de tu caso. Indicamos ambos escenarios:\n8.A Opción A: Si tienes tu ScotiaPass, la aplicación te solicitará las coordenadas de tu token o dispositivo de seguridad.\n8.B Opción B: Si no tienes tu ScotiaPass, la aplicación te solicitará ingresar los 8 últimos dígitos de tu Tarjeta de Crédito o Débito.\n¡Listo! Ya puedes usar tu App KeyPass cómo lo haces siempre.\n'}, 'entityValue': {'entityValue': 'No'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Activar en un nuevo equipo'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Scotia Pass', 'synonyms': ['keypass', 'scotiapass', 'pin pass']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}</t>
   </si>
   <si>
+    <t>flow.pagos.info</t>
+  </si>
+  <si>
+    <t>flow.anularpagos.info</t>
+  </si>
+  <si>
     <t>faq.eliminarpat.info</t>
   </si>
   <si>
@@ -140,9 +158,30 @@
     <t>flow.activacion.info</t>
   </si>
   <si>
+    <t>[{'entityType': 'Información de pagos automáticos', 'entityValue': [{'entityValue': 'Información Pagos Automáticos', 'synonyms': ['Información PAC', 'Información PAT']}, {'entityValue': 'Generar pago', 'synonyms': ['pagar', 'cómo pagar', 'quiero pagar']}, {'entityValue': 'Anular pago', 'synonyms': ['Eliminar pago', 'cancelar pago', 'reversar pago']}, {'entityValue': 'Problema con un pago', 'synonyms': ['Problema con pago', 'incidencia pago']}]}]</t>
+  </si>
+  <si>
+    <t>[{'entityType': 'tipo-información-anular-pago', 'entityValue': [{'entityValue': 'Eliminar pago automático', 'synonyms': ['Finalizar pago automático', 'Desvincular pago automático', 'Terminar pago automático.']}, {'entityValue': 'Reversar pago', 'synonyms': ['Retroceder un pago', 'Deshacer un pago', 'Cancelar un pago', 'retroceder pago', 'deshacer pago', 'cancelar pago', 'anular pago']}]}, {'entityType': 'pagosautomaticos', 'entityValue': [{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}]}, {'entityType': 'producto-pago', 'entityValue': [{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}, {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, {'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, {'entityValue': 'Seguro'}, {'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}, {'entityValue': 'Línea de Crédito'}]}]</t>
+  </si>
+  <si>
+    <t>[{'entityType': 'pagosautomaticos', 'entityValue': [{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}]}, {'entityType': 'informacion-pagosautomaticos-PAC', 'entityValue': [{'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, {'entityValue': 'Administrar PAC', 'synonyms': ['Gestionar PAC.']}, {'entityValue': 'Consulta Mandatos Banco'}, {'entityValue': 'Consulta Pagos Banco'}, {'entityValue': 'Eliminar PAC', 'synonyms': ['Cancelar PAC', 'Desvincular PAC', 'Finalizar PAC']}, {'entityValue': 'PAC en 1 Clic'}]}, {'entityType': 'informacion-pagosautomaticos-PAT', 'entityValue': [{'entityValue': 'Inscribir un nuevo PAT', 'synonyms': ['Inscribir pago automático de tarjeta de crédito']}, {'entityValue': 'Consultar cuentas inscritas'}, {'entityValue': 'Eliminar PAT inscritos', 'synonyms': ['Cancelar PAT', 'Finalizar PAT', 'Desvincular PAT']}, {'entityValue': 'Consultar histórico de movimientos'}]}, {'entityType': 'informacion-pagosautomaticos-PAC- En1clic', 'entityValue': [{'entityValue': 'Inscripción desde oferta'}, {'entityValue': '¿Cómo inscribir?'}, {'entityValue': 'Configurar monto máximo'}, {'entityValue': 'Configurar fecha de término'}, {'entityValue': 'Configurar información adicional'}, {'entityValue': 'Inscripción múltiple'}, {'entityValue': '¿Qué es PAC en un clic?'}]}]</t>
+  </si>
+  <si>
+    <t>[{'entityType': 'tipo-informacion-pagos-generar', 'entityValue': [{'entityValue': 'Pagar Tarjeta de Crédito', 'synonyms': ['Pagar TC']}, {'entityValue': 'Pagar Crédito'}, {'entityValue': 'Línea de Crédito'}, {'entityValue': 'Pagar Servicios', 'synonyms': ['PAC', 'PAT', 'Pago automático']}]}, {'entityType': 'informacion-pagos-generar-tarjetacredito', 'entityValue': [{'entityValue': 'Pago deuda total', 'synonyms': ['Pago total deuda']}, {'entityValue': 'Pago parcial de tarjeta'}, {'entityValue': 'Pago mínimo'}, {'entityValue': 'Pago sin cuenta corriente', 'synonyms': ['Pago sin cta cte']}, {'entityValue': 'Deuda en dólares'}]}, {'entityType': 'informacion-pagos-generar-creditos', 'entityValue': [{'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, {'entityValue': 'Pago crédito automotriz'}]}, {'entityType': 'informacion-pagos-tarjetacredito-deuda-nacional', 'entityValue': [{'entityValue': 'Pagar deuda nacional'}, {'entityValue': 'Pagar deuda internacional'}]}, {'entityType': 'tipo-respuesta-sino', 'entityValue': [{'entityValue': 'Sí', 'synonyms': ['si']}, {'entityValue': 'No', 'synonyms': ['nop']}]}]</t>
+  </si>
+  <si>
+    <t>[{'entityType': 'tipo-activacion', 'entityValue': [{'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}, {'entityValue': 'Tarjeta de Débito', 'synonyms': ['tarjeta debito', 'td', 'tdd', 'tdb']}, {'entityValue': 'Scotia Pass', 'synonyms': ['keypass', 'scotiapass', 'pin pass']}]}, {'entityType': 'tipo-activacion-tarjeta-credito', 'entityValue': [{'entityValue': 'Activar Tarjeta Crédito', 'synonyms': ['activar tc', 'activar tarjeta credito']}, {'entityValue': 'Activar Clave', 'synonyms': ['Activación Clave']}, {'entityValue': 'Habilitar compras online', 'synonyms': ['habilitar compras web']}]}, {'entityType': 'tipo-activacion-tarjeta-debito', 'entityValue': [{'entityValue': 'Activar tarjeta débito', 'synonyms': ['activar TD']}, {'entityValue': 'Activar clave Tarjeta Débito', 'synonyms': ['activación clave td']}, {'entityValue': 'Habilitar tarjeta débito', 'synonyms': ['habilitar td']}, {'entityValue': 'Habilitar tarjeta de débito para uso internacional', 'synonyms': ['habilitar uso internacional', 'habilitar TD en el extranjero']}]}]</t>
+  </si>
+  <si>
     <t>es</t>
   </si>
   <si>
+    <t>6WdDdrxdywkJgpTGy0qorr</t>
+  </si>
+  <si>
+    <t>4L5WlnW0JhgtdRkQK6feLj</t>
+  </si>
+  <si>
     <t>rJdNXYL58FnjEaMGRwHGZ</t>
   </si>
   <si>
@@ -176,37 +215,40 @@
     <t>flow</t>
   </si>
   <si>
+    <t>['startNode', 'flowEntityTypes']</t>
+  </si>
+  <si>
     <t>['startNode']</t>
   </si>
   <si>
-    <t>['startNode', 'flowEntityTypes']</t>
-  </si>
-  <si>
-    <t>[{'entityType': 'informacion-pagosautomaticos', 'entityValue': [{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}]}, {'entityType': 'informacion-pagosautomaticos-PAC', 'entityValue': [{'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, {'entityValue': 'Administrar PAC', 'synonyms': ['Gestionar PAC.']}, {'entityValue': 'Consulta Mandatos Banco'}, {'entityValue': 'Consulta Pagos Banco'}, {'entityValue': 'Eliminar PAC', 'synonyms': ['Cancelar PAC', 'Desvincular PAC', 'Finalizar PAC']}, {'entityValue': 'PAC en 1 Clic'}]}, {'entityType': 'informacion-pagosautomaticos-PAT', 'entityValue': [{'entityValue': 'Inscribir un nuevo PAT', 'synonyms': ['Inscribir pago automático de tarjeta de crédito']}, {'entityValue': 'Consultar cuentas inscritas'}, {'entityValue': 'Eliminar PAT inscritos', 'synonyms': ['Cancelar PAT', 'Finalizar PAT', 'Desvincular PAT']}, {'entityValue': 'Consultar histórico de movimientos'}]}, {'entityType': 'informacion-pagosautomaticos-PAC- En1clic', 'entityValue': [{'entityValue': 'Inscripción desde oferta'}, {'entityValue': '¿Cómo inscribir?'}, {'entityValue': 'Configurar monto máximo'}, {'entityValue': 'Configurar fecha de término'}, {'entityValue': 'Configurar información adicional'}, {'entityValue': 'Inscripción múltiple'}, {'entityValue': '¿Qué es PAC en un clic?'}]}]</t>
-  </si>
-  <si>
-    <t>[{'entityType': 'tipo-informacion-pagos-generar', 'entityValue': [{'entityValue': 'Pagar Tarjeta de Crédito', 'synonyms': ['Pagar TC']}, {'entityValue': 'Pagar Crédito'}, {'entityValue': 'Pagar Línea de Crédito'}, {'entityValue': 'Pagar Servicios', 'synonyms': ['PAC', 'PAT', 'Pago automático']}]}, {'entityType': 'informacion-pagos-generar-tarjetacredito', 'entityValue': [{'entityValue': 'Pago deuda total', 'synonyms': ['Pago total deuda']}, {'entityValue': 'Pago parcial de tarjeta'}, {'entityValue': 'Pago mínimo'}, {'entityValue': 'Pago sin cuenta corriente', 'synonyms': ['Pago sin cta cte']}, {'entityValue': 'Deuda en dólares'}]}, {'entityType': 'informacion-pagos-generar-creditos', 'entityValue': [{'entityValue': 'Pago CAE', 'synonyms': ['Pagar Crédito con aval del estado', 'Pagar crédito con aval', 'pagar cae']}, {'entityValue': 'Pago crédito de consumo', 'synonyms': ['pagar consumo', 'pago consumo']}, {'entityValue': 'Pago crédito hipotecario', 'synonyms': ['Pago chip', 'pagar hipotecario', 'pagar dividendo']}, {'entityValue': 'Pago crédito automotriz'}]}, {'entityType': 'informacion-pagos-tarjetacredito-deuda-nacional', 'entityValue': [{'entityValue': 'Pagar deuda nacional'}, {'entityValue': 'Pagar deuda internacional'}]}, {'entityType': 'tipo-respuesta-sino', 'entityValue': [{'entityValue': 'Sí', 'synonyms': ['si']}, {'entityValue': 'No', 'synonyms': ['nop']}]}]</t>
-  </si>
-  <si>
-    <t>[{'entityType': 'tipo-activacion', 'entityValue': [{'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}, {'entityValue': 'Tarjeta de Débito', 'synonyms': ['tarjeta debito', 'td', 'tdd', 'tdb']}, {'entityValue': 'Scotia Pass', 'synonyms': ['keypass', 'scotiapass', 'pin pass']}]}, {'entityType': 'tipo-activacion-tarjeta-credito', 'entityValue': [{'entityValue': 'Activar Tarjeta Crédito', 'synonyms': ['activar tc', 'activar tarjeta credito']}, {'entityValue': 'Activar Clave', 'synonyms': ['Activación Clave']}, {'entityValue': 'Habilitar compras online', 'synonyms': ['habilitar compras web']}]}, {'entityType': 'tipo-activacion-tarjeta-debito', 'entityValue': [{'entityValue': 'Activar tarjeta débito', 'synonyms': ['activar TD']}, {'entityValue': 'Activar clave Tarjeta Débito', 'synonyms': ['activación clave td']}, {'entityValue': 'Habilitar tarjeta débito', 'synonyms': ['habilitar td']}, {'entityValue': 'Habilitar tarjeta de débito para uso internacional', 'synonyms': ['habilitar uso internacional', 'habilitar TD en el extranjero']}]}]</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
+    <t>chips</t>
+  </si>
+  <si>
+    <t>fallbacks</t>
+  </si>
+  <si>
     <t>entityType</t>
   </si>
   <si>
-    <t>chips</t>
-  </si>
-  <si>
-    <t>fallbacks</t>
-  </si>
-  <si>
     <t>buttons</t>
   </si>
   <si>
     <t>list</t>
+  </si>
+  <si>
+    <t>¡Hola! Soy Scoty, tu asistente virtual. Cuéntame, ¿Qué opción relacionada a pagos deseas revisar?</t>
+  </si>
+  <si>
+    <t>Cuéntame, ¿Qué tipo de pago quieres reversar?</t>
+  </si>
+  <si>
+    <t>¿Que tipo de pago de servicio deseas eliminar?</t>
+  </si>
+  <si>
+    <t>Cuéntame, ¿Qué tipo de anulación quieres hacer?</t>
   </si>
   <si>
     <t xml:space="preserve">Para eliminar un pago automático asociado a tu tarjeta de crédito (PAT) realiza los siguientes pasos:
@@ -542,6 +584,84 @@
     <t>Puedes canjear productos o servicios en los establecimientos afiliados, acumulando puntos por el uso de tus tarjetas de débito y crédito Scotiabank.</t>
   </si>
   <si>
+    <t>[{'text': 'Información de pagos automáticos', 'url': 'intent://flow.infopagosautom.info', 'entityValue': {'entityValue': 'Información Pagos Automáticos', 'synonyms': ['Información PAC', 'Información PAT']}, 'forgetParameter': False}, {'text': 'Generar un Pago', 'url': 'intent://flow.generarpagos.info', 'entityValue': {'entityValue': 'Generar pago', 'synonyms': ['pagar', 'cómo pagar', 'quiero pagar']}, 'forgetParameter': False}, {'text': 'Anular un pago', 'url': 'intent://flow.anularpagos.info', 'entityValue': {'entityValue': 'Anular pago', 'synonyms': ['Eliminar pago', 'cancelar pago', 'reversar pago']}, 'forgetParameter': False}, {'text': 'Problema con un pago', 'url': 'intent://flow.incidenciapagos.info', 'entityValue': {'entityValue': 'Problema con un pago', 'synonyms': ['Problema con pago', 'incidencia pago']}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Crédito de consumo', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, 'forgetParameter': False}, {'text': 'Crédito Hipotecario', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, 'forgetParameter': False}, {'text': 'CAE', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, 'forgetParameter': False}, {'text': 'Seguro', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Seguro'}, 'forgetParameter': False}, {'text': 'Línea de Crédito', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Línea de Crédito'}, 'forgetParameter': False}, {'text': 'Tarjeta de Crédito', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'PAC', 'url': 'intent://faq.eliminarpac.info', 'entityValue': {'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, 'forgetParameter': False}, {'text': 'PAT', 'url': 'intent://faq.eliminarpat.info', 'entityValue': {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Eliminar pago automático', 'location': {'text': '¿Que tipo de pago de servicio deseas eliminar?', 'entityType': {'entityType': 'pagosautomaticos', 'entityValue': [{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}]}, 'chips': [{'text': 'PAC', 'url': 'intent://faq.eliminarpac.info', 'entityValue': {'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, 'forgetParameter': False}, {'text': 'PAT', 'url': 'intent://faq.eliminarpat.info', 'entityValue': {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Eliminar pago automático', 'synonyms': ['Finalizar pago automático', 'Desvincular pago automático', 'Terminar pago automático.']}, 'forgetParameter': False}, {'text': 'Reversar pago', 'location': {'text': 'Cuéntame, ¿Qué tipo de pago quieres reversar?', 'entityType': {'entityType': 'producto-pago', 'entityValue': [{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}, {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, {'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, {'entityValue': 'Seguro'}, {'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}, {'entityValue': 'Línea de Crédito'}]}, 'chips': [{'text': 'Crédito de consumo', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, 'forgetParameter': False}, {'text': 'Crédito Hipotecario', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, 'forgetParameter': False}, {'text': 'CAE', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, 'forgetParameter': False}, {'text': 'Seguro', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Seguro'}, 'forgetParameter': False}, {'text': 'Línea de Crédito', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Línea de Crédito'}, 'forgetParameter': False}, {'text': 'Tarjeta de Crédito', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Reversar pago', 'synonyms': ['Retroceder un pago', 'Deshacer un pago', 'Cancelar un pago', 'retroceder pago', 'deshacer pago', 'cancelar pago', 'anular pago']}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Pagar Tarjeta de Crédito', 'location': {'text': '¿Que opción de pago deseas consultar?', 'entityType': {'entityType': 'informacion-pagos-generar-tarjetacredito', 'entityValue': [{'entityValue': 'Pago deuda total', 'synonyms': ['Pago total deuda']}, {'entityValue': 'Pago parcial de tarjeta'}, {'entityValue': 'Pago mínimo'}, {'entityValue': 'Pago sin cuenta corriente', 'synonyms': ['Pago sin cta cte']}, {'entityValue': 'Deuda en dólares'}]}, 'chips': [{'text': 'Pago Deuda Total', 'location': {'text': 'Para pagar el total de la deuda de tu tarjeta, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjeta".\n2. Dirígete en el submenú ”Pagos".\n3. Elige la opción “Prepago de tarjeta de crédito”\n4. Luego selecciona tu tarjeta y tu cuenta de cargo.\n5. Te figurará la deuda total a pagar de tu tarjeta. \n6. Presiona el botón continuar para confirmar el pago total de tu deuda, de este modo se pagará la deuda total en pesos de tu tarjeta de crédito con cargo tu cuenta corriente.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pago deuda total', 'synonyms': ['Pago total deuda']}, 'forgetParameter': False}, {'text': 'Prepago parcial de tarjeta', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Pago parcial de tarjeta'}, 'forgetParameter': False}, {'text': 'Pago mínimo', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Pago mínimo'}, 'forgetParameter': False}, {'text': 'Pago sin cuenta corriente', 'location': {'text': 'Si no posees una cuenta corriente o cuenta vista de Scotiabank, puedes hacer el pago ingresando en www.scotiabankchile.cl siguiendo los siguientes pasos:\n\n1. En el menú de navegación haz click en la sección "Botón de Pago".\n2. Ahí encontrarás el botón “Paga tu Tarjeta de Crédito”.\n3. Al hacer click sobre el botón anterior, éste te llevará a "Pago Fácil Tarjeta de Crédito".\n4. Aquí deberás realizar los siguientes pasos:\n  - Ingresa tus datos: Coloca tu rut, los últimos cuatro dígitos de tu tarjeta y el tipo de deuda que deseas pagar.\n  - Selecciona el monto: Deberás señalar el monto que deseas pagar, revisa que la información proporcionada sea correcta y luego seleccionas continuar.\n  - Luego, podrás elegir pagar con tu tarjeta de crédito o débito de otro banco, con el mecanismo normal de pago vía WebPay.\n  - Por último tendrás tu comprobante de pago.\n¡Y listo! En simples pasos podrás pagar tu tarjeta de crédito sin necesidad de acudir a una sucursal.\n'}, 'entityValue': {'entityValue': 'Pago sin cuenta corriente', 'synonyms': ['Pago sin cta cte']}, 'forgetParameter': False}, {'text': 'Pagar deuda facturada', 'location': {'text': ' ¿Qué tipo de deuda deseas pagar?', 'entityType': {'entityType': 'informacion-pagos-tarjetacredito-deuda-nacional', 'entityValue': [{'entityValue': 'Pagar deuda nacional'}, {'entityValue': 'Pagar deuda internacional'}]}, 'chips': [{'text': 'Pagar deuda nacional', 'location': {'text': 'Para pagar tu Tarjeta de Crédito en moneda nacional, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjeta".\n2. Dirígete en el submenú ”Pagos".\n3. Elige la opción “Pagar monto nacional”\n4. Donde te figurará el total facturado a pagar.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pagar deuda nacional'}, 'forgetParameter': False}, {'text': 'Pagar deuda internacional', 'location': {'text': 'Para pagar tu deuda internacional en dólares deberás hacer lo siguiente:\n\n1. Selecciona la opción “Tarjetas” en el menú superior.\n2. Selecciona en la columna “Pagos” la opción “Pagar monto internacional”.\n3. Selecciona la cuenta de origen de donde se sacara el dinero para pagar la deuda.\n4. Selecciona la tarjeta de destino (la tarjeta en la que pagaremos el monto en dólares).\n5. Haz clic en “Aceptar”. Esto te llevará a la página con el detalle de la deuda.\n6. Deberás agregar el monto a pagar en dólares.\n7. Si ya se había realizado antes un abono a su deuda en dólares, sólo deberás ingresar como monto el saldo que le queda por pagar, el cual puede ser menor al monto facturado que se informa.\n8. Por último, debes hacer clic al botón para confirmar, se pagará la deuda en dólares y se cargará el monto equivalente en pesos en su cuenta corriente.\n\nTendrás que tener en cuenta lo siguiente:\nLa deuda en dólares sólo se puede pagar por esta vía hasta la fecha de vencimiento del Estado de Cuenta (EECC), posterior a esa fecha, la deuda en dólares se convierte en pesos y pasa a ser parte de la deuda en moneda nacional.\nLos pagos que se efectúen fuera de horario bancario (hasta las 14:00 de lunes a viernes) se contabilizarán y aplicarán al día siguiente.\nPor lo anterior, hasta las 14:00 horas del día de vencimiento de tu Estado de Cuenta, podrás cancelar la última deuda facturada en dólares.\nEl monto a pagar no debe superar los USD 10.000, sobre este monto deberás realizar tu pago a través de caja.\n'}, 'entityValue': {'entityValue': 'Pagar deuda internacional'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Deuda en dólares'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Pagar Tarjeta de Crédito', 'synonyms': ['Pagar TC']}, 'forgetParameter': False}, {'text': 'Pagar Línea de Crédito', 'location': {'text': 'Para realizar el pago de tu Línea de crédito, sigue éstos pasos:\n\n1.Selecciona en el menú principal la opción "Transferencias y Pagos".\n2.Dirígete a la lista “Pagos de productos”.\n3. Elige la opción “Pagar Línea de Crédito”.\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Línea de Crédito'}, 'forgetParameter': False}, {'text': 'Pagar Créditos', 'location': {'text': 'OK, y ¿cuál crédito quieres pagar?', 'entityType': {'entityType': 'informacion-pagos-generar-creditos', 'entityValue': [{'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, {'entityValue': 'Pago crédito automotriz'}]}, 'chips': [{'text': 'Crédito de consumo', 'location': {'text': '¿Quieres pagar desde tu cuenta Scotia?', 'entityType': {'entityType': 'tipo-respuesta-sino', 'entityValue': [{'entityValue': 'Sí', 'synonyms': ['si']}, {'entityValue': 'No', 'synonyms': ['nop']}]}, 'chips': [{'text': 'Sí', 'location': {'text': 'Para transferir el pago de tu crédito de consumo, sigue estas indicaciones:\n\n1. Selecciona en el menú "Créditos".\n2. En el submenú "Crédito de consumo" selecciona la opción "Pagar cuota de crédito".\n3. Selecciona el crédito que deseas pagar.\n4. Luego haz clic en botón "Pago Cuota"\n5. Selecciona la cuenta de cargo y la cuota que deseas pagar.\n6. Para finalizar haz clic en el botón "Pagar".\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['si']}, 'forgetParameter': False}, {'text': 'No', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'No', 'synonyms': ['nop']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, 'forgetParameter': False}, {'text': 'CAE (Crédito con Aval del Estado)', 'url': 'intent://faq.pagocae.info', 'entityValue': {'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, 'forgetParameter': False}, {'text': 'Crédito Automotriz', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'Pago crédito automotriz'}, 'forgetParameter': False}, {'text': 'Crédito Hipotecario', 'location': {'text': 'Puedes pagar los dividendos de tu crédito hipotecario, siguiendo estos pasos:\n\n1. Selecciona en el menú principal la opción "Crédito".\n2. Dirígete a la lista "Crédito Hipotecario".\n3. Elige la opción “Pagar dividendos”.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Pagar Crédito'}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Crédito de consumo', 'location': {'text': '¿Quieres pagar desde tu cuenta Scotia?', 'entityType': {'entityType': 'tipo-respuesta-sino', 'entityValue': [{'entityValue': 'Sí', 'synonyms': ['si']}, {'entityValue': 'No', 'synonyms': ['nop']}]}, 'chips': [{'text': 'Sí', 'location': {'text': 'Para transferir el pago de tu crédito de consumo, sigue estas indicaciones:\n\n1. Selecciona en el menú "Créditos".\n2. En el submenú "Crédito de consumo" selecciona la opción "Pagar cuota de crédito".\n3. Selecciona el crédito que deseas pagar.\n4. Luego haz clic en botón "Pago Cuota"\n5. Selecciona la cuenta de cargo y la cuota que deseas pagar.\n6. Para finalizar haz clic en el botón "Pagar".\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['si']}, 'forgetParameter': False}, {'text': 'No', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'No', 'synonyms': ['nop']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, 'forgetParameter': False}, {'text': 'CAE (Crédito con Aval del Estado)', 'url': 'intent://faq.pagocae.info', 'entityValue': {'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, 'forgetParameter': False}, {'text': 'Crédito Automotriz', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'Pago crédito automotriz'}, 'forgetParameter': False}, {'text': 'Crédito Hipotecario', 'location': {'text': 'Puedes pagar los dividendos de tu crédito hipotecario, siguiendo estos pasos:\n\n1. Selecciona en el menú principal la opción "Crédito".\n2. Dirígete a la lista "Crédito Hipotecario".\n3. Elige la opción “Pagar dividendos”.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Sí', 'location': {'text': 'Para transferir el pago de tu crédito de consumo, sigue estas indicaciones:\n\n1. Selecciona en el menú "Créditos".\n2. En el submenú "Crédito de consumo" selecciona la opción "Pagar cuota de crédito".\n3. Selecciona el crédito que deseas pagar.\n4. Luego haz clic en botón "Pago Cuota"\n5. Selecciona la cuenta de cargo y la cuota que deseas pagar.\n6. Para finalizar haz clic en el botón "Pagar".\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['si']}, 'forgetParameter': False}, {'text': 'No', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'No', 'synonyms': ['nop']}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Pago Deuda Total', 'location': {'text': 'Para pagar el total de la deuda de tu tarjeta, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjeta".\n2. Dirígete en el submenú ”Pagos".\n3. Elige la opción “Prepago de tarjeta de crédito”\n4. Luego selecciona tu tarjeta y tu cuenta de cargo.\n5. Te figurará la deuda total a pagar de tu tarjeta. \n6. Presiona el botón continuar para confirmar el pago total de tu deuda, de este modo se pagará la deuda total en pesos de tu tarjeta de crédito con cargo tu cuenta corriente.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pago deuda total', 'synonyms': ['Pago total deuda']}, 'forgetParameter': False}, {'text': 'Prepago parcial de tarjeta', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Pago parcial de tarjeta'}, 'forgetParameter': False}, {'text': 'Pago mínimo', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Pago mínimo'}, 'forgetParameter': False}, {'text': 'Pago sin cuenta corriente', 'location': {'text': 'Si no posees una cuenta corriente o cuenta vista de Scotiabank, puedes hacer el pago ingresando en www.scotiabankchile.cl siguiendo los siguientes pasos:\n\n1. En el menú de navegación haz click en la sección "Botón de Pago".\n2. Ahí encontrarás el botón “Paga tu Tarjeta de Crédito”.\n3. Al hacer click sobre el botón anterior, éste te llevará a "Pago Fácil Tarjeta de Crédito".\n4. Aquí deberás realizar los siguientes pasos:\n  - Ingresa tus datos: Coloca tu rut, los últimos cuatro dígitos de tu tarjeta y el tipo de deuda que deseas pagar.\n  - Selecciona el monto: Deberás señalar el monto que deseas pagar, revisa que la información proporcionada sea correcta y luego seleccionas continuar.\n  - Luego, podrás elegir pagar con tu tarjeta de crédito o débito de otro banco, con el mecanismo normal de pago vía WebPay.\n  - Por último tendrás tu comprobante de pago.\n¡Y listo! En simples pasos podrás pagar tu tarjeta de crédito sin necesidad de acudir a una sucursal.\n'}, 'entityValue': {'entityValue': 'Pago sin cuenta corriente', 'synonyms': ['Pago sin cta cte']}, 'forgetParameter': False}, {'text': 'Pagar deuda facturada', 'location': {'text': ' ¿Qué tipo de deuda deseas pagar?', 'entityType': {'entityType': 'informacion-pagos-tarjetacredito-deuda-nacional', 'entityValue': [{'entityValue': 'Pagar deuda nacional'}, {'entityValue': 'Pagar deuda internacional'}]}, 'chips': [{'text': 'Pagar deuda nacional', 'location': {'text': 'Para pagar tu Tarjeta de Crédito en moneda nacional, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjeta".\n2. Dirígete en el submenú ”Pagos".\n3. Elige la opción “Pagar monto nacional”\n4. Donde te figurará el total facturado a pagar.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pagar deuda nacional'}, 'forgetParameter': False}, {'text': 'Pagar deuda internacional', 'location': {'text': 'Para pagar tu deuda internacional en dólares deberás hacer lo siguiente:\n\n1. Selecciona la opción “Tarjetas” en el menú superior.\n2. Selecciona en la columna “Pagos” la opción “Pagar monto internacional”.\n3. Selecciona la cuenta de origen de donde se sacara el dinero para pagar la deuda.\n4. Selecciona la tarjeta de destino (la tarjeta en la que pagaremos el monto en dólares).\n5. Haz clic en “Aceptar”. Esto te llevará a la página con el detalle de la deuda.\n6. Deberás agregar el monto a pagar en dólares.\n7. Si ya se había realizado antes un abono a su deuda en dólares, sólo deberás ingresar como monto el saldo que le queda por pagar, el cual puede ser menor al monto facturado que se informa.\n8. Por último, debes hacer clic al botón para confirmar, se pagará la deuda en dólares y se cargará el monto equivalente en pesos en su cuenta corriente.\n\nTendrás que tener en cuenta lo siguiente:\nLa deuda en dólares sólo se puede pagar por esta vía hasta la fecha de vencimiento del Estado de Cuenta (EECC), posterior a esa fecha, la deuda en dólares se convierte en pesos y pasa a ser parte de la deuda en moneda nacional.\nLos pagos que se efectúen fuera de horario bancario (hasta las 14:00 de lunes a viernes) se contabilizarán y aplicarán al día siguiente.\nPor lo anterior, hasta las 14:00 horas del día de vencimiento de tu Estado de Cuenta, podrás cancelar la última deuda facturada en dólares.\nEl monto a pagar no debe superar los USD 10.000, sobre este monto deberás realizar tu pago a través de caja.\n'}, 'entityValue': {'entityValue': 'Pagar deuda internacional'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Deuda en dólares'}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Pagar deuda nacional', 'location': {'text': 'Para pagar tu Tarjeta de Crédito en moneda nacional, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjeta".\n2. Dirígete en el submenú ”Pagos".\n3. Elige la opción “Pagar monto nacional”\n4. Donde te figurará el total facturado a pagar.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pagar deuda nacional'}, 'forgetParameter': False}, {'text': 'Pagar deuda internacional', 'location': {'text': 'Para pagar tu deuda internacional en dólares deberás hacer lo siguiente:\n\n1. Selecciona la opción “Tarjetas” en el menú superior.\n2. Selecciona en la columna “Pagos” la opción “Pagar monto internacional”.\n3. Selecciona la cuenta de origen de donde se sacara el dinero para pagar la deuda.\n4. Selecciona la tarjeta de destino (la tarjeta en la que pagaremos el monto en dólares).\n5. Haz clic en “Aceptar”. Esto te llevará a la página con el detalle de la deuda.\n6. Deberás agregar el monto a pagar en dólares.\n7. Si ya se había realizado antes un abono a su deuda en dólares, sólo deberás ingresar como monto el saldo que le queda por pagar, el cual puede ser menor al monto facturado que se informa.\n8. Por último, debes hacer clic al botón para confirmar, se pagará la deuda en dólares y se cargará el monto equivalente en pesos en su cuenta corriente.\n\nTendrás que tener en cuenta lo siguiente:\nLa deuda en dólares sólo se puede pagar por esta vía hasta la fecha de vencimiento del Estado de Cuenta (EECC), posterior a esa fecha, la deuda en dólares se convierte en pesos y pasa a ser parte de la deuda en moneda nacional.\nLos pagos que se efectúen fuera de horario bancario (hasta las 14:00 de lunes a viernes) se contabilizarán y aplicarán al día siguiente.\nPor lo anterior, hasta las 14:00 horas del día de vencimiento de tu Estado de Cuenta, podrás cancelar la última deuda facturada en dólares.\nEl monto a pagar no debe superar los USD 10.000, sobre este monto deberás realizar tu pago a través de caja.\n'}, 'entityValue': {'entityValue': 'Pagar deuda internacional'}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Pago automático en cuenta (PAC)', 'location': {'text': '¿Qué información sobre PAC deseas conocer?', 'entityType': {'entityType': 'informacion-pagosautomaticos-PAC', 'entityValue': [{'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, {'entityValue': 'Administrar PAC', 'synonyms': ['Gestionar PAC.']}, {'entityValue': 'Consulta Mandatos Banco'}, {'entityValue': 'Consulta Pagos Banco'}, {'entityValue': 'Eliminar PAC', 'synonyms': ['Cancelar PAC', 'Desvincular PAC', 'Finalizar PAC']}, {'entityValue': 'PAC en 1 Clic'}]}, 'chips': [{'text': 'Eliminar PAC', 'url': 'intent://faq.eliminarPAC.info', 'entityValue': {'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, 'forgetParameter': False}, {'text': 'Inscribir PAC', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, 'forgetParameter': False}, {'text': 'Administrar PAC', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Administrar PAC', 'synonyms': ['Gestionar PAC.']}, 'forgetParameter': False}, {'text': 'Consulta Mandatos Banco', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Consulta Mandatos Banco'}, 'forgetParameter': False}, {'text': 'Consulta Pagos Banco', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Consulta Pagos Banco'}, 'forgetParameter': False}, {'text': 'PAC en 1 Clic', 'location': {'text': '¿Qué opción de PAC en 1 clic deseas consultar?', 'entityType': {'entityType': 'informacion-pagosautomaticos-PAC- En1clic', 'entityValue': [{'entityValue': 'Inscripción desde oferta'}, {'entityValue': '¿Cómo inscribir?'}, {'entityValue': 'Configurar monto máximo'}, {'entityValue': 'Configurar fecha de término'}, {'entityValue': 'Configurar información adicional'}, {'entityValue': 'Inscripción múltiple'}, {'entityValue': '¿Qué es PAC en un clic?'}]}, 'chips': [{'text': 'Inscripción desde Oferta', 'location': {'text': 'Para visualizar una oferta de inscripción de PAC en 1 clic debes ingresar a Scotia GO, aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, por lo que debes ingresar a Scotia GO con tu Rut y clave secreta, una vez hecho el ingreso debes ubicar la sección de ofertas que aparece en el home. Próximamente estará disponible para el sitio privado.'}, 'entityValue': {'entityValue': 'Inscripción desde oferta'}, 'forgetParameter': False}, {'text': '¿Cómo inscribir?', 'location': {'text': 'Para inscribir PAC en 1 clic debes realizarlo a través de Scotia Go, ya que aún no hemos disponibilizado esta funcionalidad ScotiaWeb.\nPara realizar la inscripción de PAC en 1 Clic, ingresa a Scotia GO y realiza los siguientes pasos:\n1.- Presiona la oferta para inscripción de PAC\n2.- Selecciona el servicio que deseas inscribir marcando la casilla ubicada a la izquierda del mismo\n3.- Presiona el botón continuar\n4.- Si no deseas configurar el servicio debes presionar nuevamente el botón continuar\n5.- Verifica la información en pantalla y selecciona una cuenta de cargo (de esta cuenta serán debitados los próximos pagos asociados al PAC)\n6.- Acepta los términos y condiciones\n7.- Presiona el botón confirmar\n8.- Al finalizar visualizarás una pantalla con el resumen de la operación\n'}, 'entityValue': {'entityValue': '¿Cómo inscribir?'}, 'forgetParameter': False}, {'text': 'Configurar monto máximo', 'location': {'text': 'Efectivamente puedes establecer un monto máximo para el PAC en 1 clic, no obstante, debes asegurarte de que los cobros en el servicio a inscribir no excedan dicho monto, sin embargo, aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, por lo que debes ingresar a Scotia GO con tu Rut y clave secreta, para realizar la configuración. '}, 'entityValue': {'entityValue': 'Configurar monto máximo'}, 'forgetParameter': False}, {'text': 'Configurar fecha de término', 'location': {'text': 'Aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, sin embargo, lo puedes realizar la configuración en Scotia GO ingresando con tu Rut y clave secreta y realizar los siguientes pasos:\n1.- Una vez que hayas seleccionado el servicio que deseas inscribir debes presionar el botón continuar\n2.- En la próxima pantalla debes presionar el link “Configurar pagos”\n3.- Ingresa la información que deseas configurar: monto máximo, fecha de término y/o alias.\n4.- Presiona el botón guardar'}, 'entityValue': {'entityValue': 'Configurar fecha de término'}, 'forgetParameter': False}, {'text': 'Configurar información adicional', 'location': {'text': 'Efectivamente puedes establecer una fecha de término para el PAC, de ser así, los pagos automáticos se realizarán hasta la fecha indicada. Sin embargo, la funcionalidad de PAC en 1 clic actualmente se encuentra disponible sólo a través de Scotia GO, por lo que te puedes ingresar a Scotia GO con tu Rut y clave para realizar la configuración que desees. '}, 'entityValue': {'entityValue': 'Configurar información adicional'}, 'forgetParameter': False}, {'text': 'Inscripción Múltiple', 'location': {'text': 'Efectivamente puedes inscribir más de un servicio, pero aún no hemos disponibilizado la funcionalidad de PAC en 1 clic en el sitio ScotiaWeb, sin embargo, puedes contratar PAC en 1 clic a través de Scotia Go ingresando con tu Rut y clave secreta, una vez hecho el ingreso debes ubicar la sección de ofertas que aparece en el home.'}, 'entityValue': {'entityValue': 'Inscripción múltiple'}, 'forgetParameter': False}, {'text': '¿Qué es PAC en un Clic?', 'location': {'text': 'PAC en 1 clic, es una funcionalidad mediante la cual podrás seleccionar de forma simple y rápida los servicios que quieras inscribir para Pago Automático Mensual desde tu cuenta corriente . Podrás configurar montos máximos, fechas y cuenta de cargo. Para utilizar PAC en un clic selecciona la opción en ScotiaGO, ya que aún no hemos disponibilizado esta funcionalidad en ScotiaWeb.'}, 'entityValue': {'entityValue': '¿Qué es PAC en un clic?'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'PAC en 1 Clic'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, 'forgetParameter': False}, {'text': 'Pago automático en tarjeta de crédito (PAT)', 'location': {'text': '¿Qué información sobre PAT deseas conocer?', 'entityType': {'entityType': 'informacion-pagosautomaticos-PAT', 'entityValue': [{'entityValue': 'Inscribir un nuevo PAT', 'synonyms': ['Inscribir pago automático de tarjeta de crédito']}, {'entityValue': 'Consultar cuentas inscritas'}, {'entityValue': 'Eliminar PAT inscritos', 'synonyms': ['Cancelar PAT', 'Finalizar PAT', 'Desvincular PAT']}, {'entityValue': 'Consultar histórico de movimientos'}]}, 'chips': [{'text': 'Inscribir un nuevo PAT', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Agregar nueva cuenta"\n5. Ingresa los datos solicitado para realizar correctamente la inscripción del PAT.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Inscribir un nuevo PAT', 'synonyms': ['Inscribir pago automático de tarjeta de crédito']}, 'forgetParameter': False}, {'text': 'Consultar Cuentas Inscritas', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Cuentas inscritas"\n5. Aparecerá el listado de tus PAT inscritos, si quieres más información sobre algún en particular, haz clic en la acción "Ver Detalles".\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Consultar cuentas inscritas'}, 'forgetParameter': False}, {'text': 'Eliminar PAT Inscritos', 'url': 'intent://faq.eliminarpat.info', 'entityValue': {'entityValue': 'Eliminar PAT inscritos', 'synonyms': ['Cancelar PAT', 'Finalizar PAT', 'Desvincular PAT']}, 'forgetParameter': False}, {'text': 'Consultar Histórico de Movimientos', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Histórico de pagos"\n5. Aquí podrás seleccionar los filtros que necesitas para mostrar la información histórica que quieres consultar.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Consultar histórico de movimientos'}, 'forgetParameter': False}]}, 'entityValue': {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Eliminar PAC', 'url': 'intent://faq.eliminarPAC.info', 'entityValue': {'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, 'forgetParameter': False}, {'text': 'Inscribir PAC', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, 'forgetParameter': False}, {'text': 'Administrar PAC', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Administrar PAC', 'synonyms': ['Gestionar PAC.']}, 'forgetParameter': False}, {'text': 'Consulta Mandatos Banco', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Consulta Mandatos Banco'}, 'forgetParameter': False}, {'text': 'Consulta Pagos Banco', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Consulta Pagos Banco'}, 'forgetParameter': False}, {'text': 'PAC en 1 Clic', 'location': {'text': '¿Qué opción de PAC en 1 clic deseas consultar?', 'entityType': {'entityType': 'informacion-pagosautomaticos-PAC- En1clic', 'entityValue': [{'entityValue': 'Inscripción desde oferta'}, {'entityValue': '¿Cómo inscribir?'}, {'entityValue': 'Configurar monto máximo'}, {'entityValue': 'Configurar fecha de término'}, {'entityValue': 'Configurar información adicional'}, {'entityValue': 'Inscripción múltiple'}, {'entityValue': '¿Qué es PAC en un clic?'}]}, 'chips': [{'text': 'Inscripción desde Oferta', 'location': {'text': 'Para visualizar una oferta de inscripción de PAC en 1 clic debes ingresar a Scotia GO, aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, por lo que debes ingresar a Scotia GO con tu Rut y clave secreta, una vez hecho el ingreso debes ubicar la sección de ofertas que aparece en el home. Próximamente estará disponible para el sitio privado.'}, 'entityValue': {'entityValue': 'Inscripción desde oferta'}, 'forgetParameter': False}, {'text': '¿Cómo inscribir?', 'location': {'text': 'Para inscribir PAC en 1 clic debes realizarlo a través de Scotia Go, ya que aún no hemos disponibilizado esta funcionalidad ScotiaWeb.\nPara realizar la inscripción de PAC en 1 Clic, ingresa a Scotia GO y realiza los siguientes pasos:\n1.- Presiona la oferta para inscripción de PAC\n2.- Selecciona el servicio que deseas inscribir marcando la casilla ubicada a la izquierda del mismo\n3.- Presiona el botón continuar\n4.- Si no deseas configurar el servicio debes presionar nuevamente el botón continuar\n5.- Verifica la información en pantalla y selecciona una cuenta de cargo (de esta cuenta serán debitados los próximos pagos asociados al PAC)\n6.- Acepta los términos y condiciones\n7.- Presiona el botón confirmar\n8.- Al finalizar visualizarás una pantalla con el resumen de la operación\n'}, 'entityValue': {'entityValue': '¿Cómo inscribir?'}, 'forgetParameter': False}, {'text': 'Configurar monto máximo', 'location': {'text': 'Efectivamente puedes establecer un monto máximo para el PAC en 1 clic, no obstante, debes asegurarte de que los cobros en el servicio a inscribir no excedan dicho monto, sin embargo, aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, por lo que debes ingresar a Scotia GO con tu Rut y clave secreta, para realizar la configuración. '}, 'entityValue': {'entityValue': 'Configurar monto máximo'}, 'forgetParameter': False}, {'text': 'Configurar fecha de término', 'location': {'text': 'Aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, sin embargo, lo puedes realizar la configuración en Scotia GO ingresando con tu Rut y clave secreta y realizar los siguientes pasos:\n1.- Una vez que hayas seleccionado el servicio que deseas inscribir debes presionar el botón continuar\n2.- En la próxima pantalla debes presionar el link “Configurar pagos”\n3.- Ingresa la información que deseas configurar: monto máximo, fecha de término y/o alias.\n4.- Presiona el botón guardar'}, 'entityValue': {'entityValue': 'Configurar fecha de término'}, 'forgetParameter': False}, {'text': 'Configurar información adicional', 'location': {'text': 'Efectivamente puedes establecer una fecha de término para el PAC, de ser así, los pagos automáticos se realizarán hasta la fecha indicada. Sin embargo, la funcionalidad de PAC en 1 clic actualmente se encuentra disponible sólo a través de Scotia GO, por lo que te puedes ingresar a Scotia GO con tu Rut y clave para realizar la configuración que desees. '}, 'entityValue': {'entityValue': 'Configurar información adicional'}, 'forgetParameter': False}, {'text': 'Inscripción Múltiple', 'location': {'text': 'Efectivamente puedes inscribir más de un servicio, pero aún no hemos disponibilizado la funcionalidad de PAC en 1 clic en el sitio ScotiaWeb, sin embargo, puedes contratar PAC en 1 clic a través de Scotia Go ingresando con tu Rut y clave secreta, una vez hecho el ingreso debes ubicar la sección de ofertas que aparece en el home.'}, 'entityValue': {'entityValue': 'Inscripción múltiple'}, 'forgetParameter': False}, {'text': '¿Qué es PAC en un Clic?', 'location': {'text': 'PAC en 1 clic, es una funcionalidad mediante la cual podrás seleccionar de forma simple y rápida los servicios que quieras inscribir para Pago Automático Mensual desde tu cuenta corriente . Podrás configurar montos máximos, fechas y cuenta de cargo. Para utilizar PAC en un clic selecciona la opción en ScotiaGO, ya que aún no hemos disponibilizado esta funcionalidad en ScotiaWeb.'}, 'entityValue': {'entityValue': '¿Qué es PAC en un clic?'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'PAC en 1 Clic'}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Inscripción desde Oferta', 'location': {'text': 'Para visualizar una oferta de inscripción de PAC en 1 clic debes ingresar a Scotia GO, aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, por lo que debes ingresar a Scotia GO con tu Rut y clave secreta, una vez hecho el ingreso debes ubicar la sección de ofertas que aparece en el home. Próximamente estará disponible para el sitio privado.'}, 'entityValue': {'entityValue': 'Inscripción desde oferta'}, 'forgetParameter': False}, {'text': '¿Cómo inscribir?', 'location': {'text': 'Para inscribir PAC en 1 clic debes realizarlo a través de Scotia Go, ya que aún no hemos disponibilizado esta funcionalidad ScotiaWeb.\nPara realizar la inscripción de PAC en 1 Clic, ingresa a Scotia GO y realiza los siguientes pasos:\n1.- Presiona la oferta para inscripción de PAC\n2.- Selecciona el servicio que deseas inscribir marcando la casilla ubicada a la izquierda del mismo\n3.- Presiona el botón continuar\n4.- Si no deseas configurar el servicio debes presionar nuevamente el botón continuar\n5.- Verifica la información en pantalla y selecciona una cuenta de cargo (de esta cuenta serán debitados los próximos pagos asociados al PAC)\n6.- Acepta los términos y condiciones\n7.- Presiona el botón confirmar\n8.- Al finalizar visualizarás una pantalla con el resumen de la operación\n'}, 'entityValue': {'entityValue': '¿Cómo inscribir?'}, 'forgetParameter': False}, {'text': 'Configurar monto máximo', 'location': {'text': 'Efectivamente puedes establecer un monto máximo para el PAC en 1 clic, no obstante, debes asegurarte de que los cobros en el servicio a inscribir no excedan dicho monto, sin embargo, aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, por lo que debes ingresar a Scotia GO con tu Rut y clave secreta, para realizar la configuración. '}, 'entityValue': {'entityValue': 'Configurar monto máximo'}, 'forgetParameter': False}, {'text': 'Configurar fecha de término', 'location': {'text': 'Aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, sin embargo, lo puedes realizar la configuración en Scotia GO ingresando con tu Rut y clave secreta y realizar los siguientes pasos:\n1.- Una vez que hayas seleccionado el servicio que deseas inscribir debes presionar el botón continuar\n2.- En la próxima pantalla debes presionar el link “Configurar pagos”\n3.- Ingresa la información que deseas configurar: monto máximo, fecha de término y/o alias.\n4.- Presiona el botón guardar'}, 'entityValue': {'entityValue': 'Configurar fecha de término'}, 'forgetParameter': False}, {'text': 'Configurar información adicional', 'location': {'text': 'Efectivamente puedes establecer una fecha de término para el PAC, de ser así, los pagos automáticos se realizarán hasta la fecha indicada. Sin embargo, la funcionalidad de PAC en 1 clic actualmente se encuentra disponible sólo a través de Scotia GO, por lo que te puedes ingresar a Scotia GO con tu Rut y clave para realizar la configuración que desees. '}, 'entityValue': {'entityValue': 'Configurar información adicional'}, 'forgetParameter': False}, {'text': 'Inscripción Múltiple', 'location': {'text': 'Efectivamente puedes inscribir más de un servicio, pero aún no hemos disponibilizado la funcionalidad de PAC en 1 clic en el sitio ScotiaWeb, sin embargo, puedes contratar PAC en 1 clic a través de Scotia Go ingresando con tu Rut y clave secreta, una vez hecho el ingreso debes ubicar la sección de ofertas que aparece en el home.'}, 'entityValue': {'entityValue': 'Inscripción múltiple'}, 'forgetParameter': False}, {'text': '¿Qué es PAC en un Clic?', 'location': {'text': 'PAC en 1 clic, es una funcionalidad mediante la cual podrás seleccionar de forma simple y rápida los servicios que quieras inscribir para Pago Automático Mensual desde tu cuenta corriente . Podrás configurar montos máximos, fechas y cuenta de cargo. Para utilizar PAC en un clic selecciona la opción en ScotiaGO, ya que aún no hemos disponibilizado esta funcionalidad en ScotiaWeb.'}, 'entityValue': {'entityValue': '¿Qué es PAC en un clic?'}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Inscribir un nuevo PAT', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Agregar nueva cuenta"\n5. Ingresa los datos solicitado para realizar correctamente la inscripción del PAT.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Inscribir un nuevo PAT', 'synonyms': ['Inscribir pago automático de tarjeta de crédito']}, 'forgetParameter': False}, {'text': 'Consultar Cuentas Inscritas', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Cuentas inscritas"\n5. Aparecerá el listado de tus PAT inscritos, si quieres más información sobre algún en particular, haz clic en la acción "Ver Detalles".\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Consultar cuentas inscritas'}, 'forgetParameter': False}, {'text': 'Eliminar PAT Inscritos', 'url': 'intent://faq.eliminarpat.info', 'entityValue': {'entityValue': 'Eliminar PAT inscritos', 'synonyms': ['Cancelar PAT', 'Finalizar PAT', 'Desvincular PAT']}, 'forgetParameter': False}, {'text': 'Consultar Histórico de Movimientos', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Histórico de pagos"\n5. Aquí podrás seleccionar los filtros que necesitas para mostrar la información histórica que quieres consultar.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Consultar histórico de movimientos'}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Sí', 'location': {'text': 'A continuación detallamos cómo enrolarte en KeyPass si tienes un nuevo dispositivo móvil, y también el dispositivo antiguo en tu poder. Para este proceso deberás tener ambos dispositivos móviles a mano:\n\n1. Al abrir tu App Scotiabank KeyPass en tu nuevo dispositivo móvil, aparecerá una pantalla de bienvenida donde te solicitaremos tu clave de cajero automático de tu Tarjeta de Débito o Crédito, además tendrás que escribir tu RUT y la clave que usas en tu sitio privado.\n2. Como ya te has enrolado previamente en Scotiabank KeyPass, te aparecerá un mensaje reconociéndote como usuario e indicando que tu clave quedará actualizada. Desde ese momento solo podrás usar la aplicación en ese dispositivo móvil. Deberás confirmar que deseas continuar con el flujo.\n3. Se te indicará un mensaje preguntando si tienes tu dispositivo anterior contigo. Si es así, deberás presionar la opción “Si”.\n4. Te aparecerá un código QR, el cual deberás escanear con tu dispositivo móvil antiguo desde la App KeyPass.\n5. Toma tu dispositivo antiguo y abre tu App KeyPass. Te aprecerán en la pantalla distintas opciones disponibles, deberás presionar aquella que indica “Cambio de Dispositivo”\n6. Un vez presionada la opción “Cambio de teléfono”, se abrirá el escáner que permite capturar el código QR que nos entrega la aplicación KeyPass en el dispositivo móvil nuevo.\n7. Al escanear correctamente el código QR, la aplicación en el dispositivo móvil antiguo te solicitará introducir la clave de KeyPass para autorizar el cambio.\n8. Por otro lado, en el dispositivo móvil nuevo, una vez escaneado el código, podrás crear tu nueva clave de autenticación, la cual debe contener 6 dígitos. Con esta contraseña ya podrás autorizar tus transacciones.\n¡Listo! Has completado todo el proceso y puedes empezar a autorizar tus transacciones como siempre.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['Si']}, 'forgetParameter': False}, {'text': 'No', 'location': {'text': 'A continuación detallamos cómo enrolarte en KeyPass si tienes un nuevo dispositivo móvil, pero no tu dispositivo antiguo:\n\n1. Al abrir tu App Scotiabank KeyPass en tu nuevo dispositivo móvil, aparecerá una pantalla de bienvenida donde te solicitaremos tu clave de cajero automático de tu Tarjeta de Débito o Crédito, además tendrás que escribir tu RUT y la clave que usas en tu sitio privado.\n2. Como ya te has enrolado previamente en Scotiabank KeyPass, te aparecerá un mensaje reconociéndote como usuario e indicando que tu clave quedará actualizada. Desde ese momento solo podrás usar la aplicación en este nuevo disposito móvil. Deberás confirmar que desea continuar con el flujo.\n3. Te aparecerá un mensaje preguntando si tienes tu dispositivo anterior contigo. En este caso, como no tienes tu dispositivo móvil antiguo, deberás elegir la opción “No”.\n4. Se te indicará en la pantalla tu e-mail registrado, al cual se te hará llegar un código QR con el cual podrás activar la aplicación en tu nuevo dispositivo móvil. Deberás presionar el botón “Continuar” para que el e-mail se genere. Si tienes más de un correo registrado, podrás elegir a cuál correo recibir la comunicación.\n5. Se confirmará en pantalla el envío del e-mail y tendrás pocos minutos para revisar tu buzón de correo desde un computador.\n6. Deberás escanear con tu dispositivo móvil desde la App KeyPass el código QR que llegó a tu correo.\n7. Al escanear correctamente el código QR, te solicitará introducir la clave de KeyPass para autorizar el cambio.\n8. El último paso varía dependiendo de tu caso. Indicamos ambos escenarios:\n8.A Opción A: Si tienes tu ScotiaPass, la aplicación te solicitará las coordenadas de tu token o dispositivo de seguridad.\n8.B Opción B: Si no tienes tu ScotiaPass, la aplicación te solicitará ingresar los 8 últimos dígitos de tu Tarjeta de Crédito o Débito.\n¡Listo! Ya puedes usar tu App KeyPass cómo lo haces siempre.\n'}, 'entityValue': {'entityValue': 'No'}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Activar por primera vez', 'location': {'text': 'Para activar por primera vez en Scotiabank KeyPass, solo deberás seguir los siguientes pasos que se muestran a continuación:\n\n1. Ingresa a la aplicación.\n2. Ingresa tu RUT, tu Clave de Internet y tu Clave de Cajero Automático (Tarjeta de Débito).\n3. Para continuar, necesitamos comprobar que el teléfono que usas coincide con el teléfono seguro que registraste en el banco, para ello te enviaremos un SMS con un Código de Validación.\n4. Ingresa el código que te enviamos por SMS para poder verificar tu teléfono.\n5. Crea tu clave de autorización de 6 dígitos.\nA continuación, si tienes ScotiaPass, te solicitaremos que lo escribas. En caso de que no tengas ScotiaPass, te pediremos los 8 últimos números de tu Tarjeta de Débito.\n¡Listo! Ya puedes autorizar tus transacciones y/o pagos con tu App Scotiabank KeyPass.\n'}, 'entityValue': {'entityValue': 'Activar por primera vez'}, 'forgetParameter': False}, {'text': 'Activar en un nuevo equipo', 'location': {'text': '¿Dispones de tu teléfono antiguo para activar tu Keypass?', 'chips': [{'text': 'Sí', 'location': {'text': 'A continuación detallamos cómo enrolarte en KeyPass si tienes un nuevo dispositivo móvil, y también el dispositivo antiguo en tu poder. Para este proceso deberás tener ambos dispositivos móviles a mano:\n\n1. Al abrir tu App Scotiabank KeyPass en tu nuevo dispositivo móvil, aparecerá una pantalla de bienvenida donde te solicitaremos tu clave de cajero automático de tu Tarjeta de Débito o Crédito, además tendrás que escribir tu RUT y la clave que usas en tu sitio privado.\n2. Como ya te has enrolado previamente en Scotiabank KeyPass, te aparecerá un mensaje reconociéndote como usuario e indicando que tu clave quedará actualizada. Desde ese momento solo podrás usar la aplicación en ese dispositivo móvil. Deberás confirmar que deseas continuar con el flujo.\n3. Se te indicará un mensaje preguntando si tienes tu dispositivo anterior contigo. Si es así, deberás presionar la opción “Si”.\n4. Te aparecerá un código QR, el cual deberás escanear con tu dispositivo móvil antiguo desde la App KeyPass.\n5. Toma tu dispositivo antiguo y abre tu App KeyPass. Te aprecerán en la pantalla distintas opciones disponibles, deberás presionar aquella que indica “Cambio de Dispositivo”\n6. Un vez presionada la opción “Cambio de teléfono”, se abrirá el escáner que permite capturar el código QR que nos entrega la aplicación KeyPass en el dispositivo móvil nuevo.\n7. Al escanear correctamente el código QR, la aplicación en el dispositivo móvil antiguo te solicitará introducir la clave de KeyPass para autorizar el cambio.\n8. Por otro lado, en el dispositivo móvil nuevo, una vez escaneado el código, podrás crear tu nueva clave de autenticación, la cual debe contener 6 dígitos. Con esta contraseña ya podrás autorizar tus transacciones.\n¡Listo! Has completado todo el proceso y puedes empezar a autorizar tus transacciones como siempre.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['Si']}, 'forgetParameter': False}, {'text': 'No', 'location': {'text': 'A continuación detallamos cómo enrolarte en KeyPass si tienes un nuevo dispositivo móvil, pero no tu dispositivo antiguo:\n\n1. Al abrir tu App Scotiabank KeyPass en tu nuevo dispositivo móvil, aparecerá una pantalla de bienvenida donde te solicitaremos tu clave de cajero automático de tu Tarjeta de Débito o Crédito, además tendrás que escribir tu RUT y la clave que usas en tu sitio privado.\n2. Como ya te has enrolado previamente en Scotiabank KeyPass, te aparecerá un mensaje reconociéndote como usuario e indicando que tu clave quedará actualizada. Desde ese momento solo podrás usar la aplicación en este nuevo disposito móvil. Deberás confirmar que desea continuar con el flujo.\n3. Te aparecerá un mensaje preguntando si tienes tu dispositivo anterior contigo. En este caso, como no tienes tu dispositivo móvil antiguo, deberás elegir la opción “No”.\n4. Se te indicará en la pantalla tu e-mail registrado, al cual se te hará llegar un código QR con el cual podrás activar la aplicación en tu nuevo dispositivo móvil. Deberás presionar el botón “Continuar” para que el e-mail se genere. Si tienes más de un correo registrado, podrás elegir a cuál correo recibir la comunicación.\n5. Se confirmará en pantalla el envío del e-mail y tendrás pocos minutos para revisar tu buzón de correo desde un computador.\n6. Deberás escanear con tu dispositivo móvil desde la App KeyPass el código QR que llegó a tu correo.\n7. Al escanear correctamente el código QR, te solicitará introducir la clave de KeyPass para autorizar el cambio.\n8. El último paso varía dependiendo de tu caso. Indicamos ambos escenarios:\n8.A Opción A: Si tienes tu ScotiaPass, la aplicación te solicitará las coordenadas de tu token o dispositivo de seguridad.\n8.B Opción B: Si no tienes tu ScotiaPass, la aplicación te solicitará ingresar los 8 últimos dígitos de tu Tarjeta de Crédito o Débito.\n¡Listo! Ya puedes usar tu App KeyPass cómo lo haces siempre.\n'}, 'entityValue': {'entityValue': 'No'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Activar en un nuevo equipo'}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Activar Tarjeta', 'url': 'intent://faq.tarjetasdebitoactivar.link', 'entityValue': {'entityValue': 'Activar tarjeta débito', 'synonyms': ['activar TD']}, 'forgetParameter': False}, {'text': 'Activar Clave', 'url': 'intent://faq.tarjetasdebitoactivar.link', 'entityValue': {'entityValue': 'Activar clave Tarjeta Débito', 'synonyms': ['activación clave td']}, 'forgetParameter': False}, {'text': 'Activar para uso Internacional', 'url': 'intent://faq.tarjetadebactivainternacional.link', 'entityValue': {'entityValue': 'Habilitar tarjeta de débito para uso internacional', 'synonyms': ['habilitar uso internacional', 'habilitar TD en el extranjero']}, 'forgetParameter': False}, {'text': 'Habilitar compras online tarjeta adicional', 'location': {'text': 'Si quieres habilitar las compras online para Tarjetas adicionales, sigue estos pasos:\n\n1. Revisa si el estado de tus Tarjetas adicionales dice “Habilitado”. En caso contrario presiona el botón “Habilitar Servicio”.\n2. Activa el botón “Cambiar Clave Adicional”.\n3. Genera una clave para el cliente adicional.\nIMPORTANTE\n- Esta clave solo servirá para el cliente adicional en el flujo de compras online vía WEBPAY.\n- La clave no permite al cliente adicional acceder al sitio web.\n- El cliente titular debe entregar esta clave a su adicional.\n'}, 'entityValue': {'entityValue': 'Habilitar tarjeta débito', 'synonyms': ['habilitar td']}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Habilitar Titular', 'location': {'text': 'Para habilitar las compras online con Tarjetas de Crédito Scotiabank, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjetas".\n2. Dirígete a la lista “Configuración”.\n3. Elige la opción “Habilitar compras online”.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n1. Ingresa a la aplicación.\n2. Ingresa tu RUT, tu Clave de Internet y tu Clave de Cajero Automático (Tarjeta de Débito).\n3. Para continuar, necesitamos comprobar que el teléfono que usas coincide con el teléfono seguro que registraste en el banco, para ello te enviaremos un SMS con un Código de Validación.\n4. Ingresa el código que te enviamos por SMS para poder verificar tu teléfono.\n5. Crea tu clave de autorización de 6 dígitos.\nA continuación, si tienes ScotiaPass, te solicitaremos que lo escribas. En caso de que no tengas ScotiaPass, te pediremos los 8 últimos números de tu Tarjeta de Débito.\n¡Listo! Ya puedes autorizar tus transacciones y/o pagos con tu App Scotiabank KeyPass.\n'}, 'entityValue': {'entityValue': 'Titular'}, 'forgetParameter': False}, {'text': 'Habilitar Adicional', 'location': {'text': 'Si quieres habilitar las compras online para Tarjetas adicionales, sigue estos pasos:\n\n1. Revisa si el estado de tus Tarjetas adicionales dice “Habilitado”. En caso contrario presiona el botón “Habilitar Servicio”.\n2. Activa el botón “Cambiar Clave Adicional”.\n3. Genera una clave para el cliente adicional.\nIMPORTANTE\n- Esta clave solo servirá para el cliente adicional en el flujo de compras online vía WEBPAY.\n- La clave no permite al cliente adicional acceder al sitio web.\n- El cliente titular debe entregar esta clave a su adicional.\n'}, 'entityValue': {'entityValue': 'Habilitar Adicional'}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Activar tarjeta', 'url': 'intent://faq.tarjetascreditoactivar.link', 'entityValue': {'entityValue': 'Activar Tarjeta Crédito', 'synonyms': ['activar tc', 'activar tarjeta credito']}, 'forgetParameter': False}, {'text': 'Activar clave', 'url': 'intent://faq.tarjetascreditoactivar.link', 'entityValue': {'entityValue': 'Activar Clave', 'synonyms': ['Activación Clave']}, 'forgetParameter': False}, {'text': 'Habilitar compras online', 'location': {'text': '¿Qué quieres conocer sobre habilitación de compras Online?', 'chips': [{'text': 'Habilitar Titular', 'location': {'text': 'Para habilitar las compras online con Tarjetas de Crédito Scotiabank, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjetas".\n2. Dirígete a la lista “Configuración”.\n3. Elige la opción “Habilitar compras online”.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n1. Ingresa a la aplicación.\n2. Ingresa tu RUT, tu Clave de Internet y tu Clave de Cajero Automático (Tarjeta de Débito).\n3. Para continuar, necesitamos comprobar que el teléfono que usas coincide con el teléfono seguro que registraste en el banco, para ello te enviaremos un SMS con un Código de Validación.\n4. Ingresa el código que te enviamos por SMS para poder verificar tu teléfono.\n5. Crea tu clave de autorización de 6 dígitos.\nA continuación, si tienes ScotiaPass, te solicitaremos que lo escribas. En caso de que no tengas ScotiaPass, te pediremos los 8 últimos números de tu Tarjeta de Débito.\n¡Listo! Ya puedes autorizar tus transacciones y/o pagos con tu App Scotiabank KeyPass.\n'}, 'entityValue': {'entityValue': 'Titular'}, 'forgetParameter': False}, {'text': 'Habilitar Adicional', 'location': {'text': 'Si quieres habilitar las compras online para Tarjetas adicionales, sigue estos pasos:\n\n1. Revisa si el estado de tus Tarjetas adicionales dice “Habilitado”. En caso contrario presiona el botón “Habilitar Servicio”.\n2. Activa el botón “Cambiar Clave Adicional”.\n3. Genera una clave para el cliente adicional.\nIMPORTANTE\n- Esta clave solo servirá para el cliente adicional en el flujo de compras online vía WEBPAY.\n- La clave no permite al cliente adicional acceder al sitio web.\n- El cliente titular debe entregar esta clave a su adicional.\n'}, 'entityValue': {'entityValue': 'Habilitar Adicional'}, 'forgetParameter': False}], 'buttons': [{'text': 'Habilitar titular', 'url': 'pl.habilitarcomprasonlinehabilitartitular.link'}, {'text': 'Habilitar adicional', 'url': 'pl.habilitarcomprasonlinehabilitaradicional.info'}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Habilitar compras online', 'synonyms': ['habilitar compras web']}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Tarjeta de Crédito', 'location': {'text': 'Respecto a la activación de las tarjetas de crédito, ¿Qué opción necesitas activar?', 'entityType': {'entityType': 'tipo-activacion-tarjeta-credito', 'entityValue': [{'entityValue': 'Activar Tarjeta Crédito', 'synonyms': ['activar tc', 'activar tarjeta credito']}, {'entityValue': 'Activar Clave', 'synonyms': ['Activación Clave']}, {'entityValue': 'Habilitar compras online', 'synonyms': ['habilitar compras web']}]}, 'chips': [{'text': 'Activar tarjeta', 'url': 'intent://faq.tarjetascreditoactivar.link', 'entityValue': {'entityValue': 'Activar Tarjeta Crédito', 'synonyms': ['activar tc', 'activar tarjeta credito']}, 'forgetParameter': False}, {'text': 'Activar clave', 'url': 'intent://faq.tarjetascreditoactivar.link', 'entityValue': {'entityValue': 'Activar Clave', 'synonyms': ['Activación Clave']}, 'forgetParameter': False}, {'text': 'Habilitar compras online', 'location': {'text': '¿Qué quieres conocer sobre habilitación de compras Online?', 'chips': [{'text': 'Habilitar Titular', 'location': {'text': 'Para habilitar las compras online con Tarjetas de Crédito Scotiabank, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjetas".\n2. Dirígete a la lista “Configuración”.\n3. Elige la opción “Habilitar compras online”.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n1. Ingresa a la aplicación.\n2. Ingresa tu RUT, tu Clave de Internet y tu Clave de Cajero Automático (Tarjeta de Débito).\n3. Para continuar, necesitamos comprobar que el teléfono que usas coincide con el teléfono seguro que registraste en el banco, para ello te enviaremos un SMS con un Código de Validación.\n4. Ingresa el código que te enviamos por SMS para poder verificar tu teléfono.\n5. Crea tu clave de autorización de 6 dígitos.\nA continuación, si tienes ScotiaPass, te solicitaremos que lo escribas. En caso de que no tengas ScotiaPass, te pediremos los 8 últimos números de tu Tarjeta de Débito.\n¡Listo! Ya puedes autorizar tus transacciones y/o pagos con tu App Scotiabank KeyPass.\n'}, 'entityValue': {'entityValue': 'Titular'}, 'forgetParameter': False}, {'text': 'Habilitar Adicional', 'location': {'text': 'Si quieres habilitar las compras online para Tarjetas adicionales, sigue estos pasos:\n\n1. Revisa si el estado de tus Tarjetas adicionales dice “Habilitado”. En caso contrario presiona el botón “Habilitar Servicio”.\n2. Activa el botón “Cambiar Clave Adicional”.\n3. Genera una clave para el cliente adicional.\nIMPORTANTE\n- Esta clave solo servirá para el cliente adicional en el flujo de compras online vía WEBPAY.\n- La clave no permite al cliente adicional acceder al sitio web.\n- El cliente titular debe entregar esta clave a su adicional.\n'}, 'entityValue': {'entityValue': 'Habilitar Adicional'}, 'forgetParameter': False}], 'buttons': [{'text': 'Habilitar titular', 'url': 'pl.habilitarcomprasonlinehabilitartitular.link'}, {'text': 'Habilitar adicional', 'url': 'pl.habilitarcomprasonlinehabilitaradicional.info'}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Habilitar compras online', 'synonyms': ['habilitar compras web']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}, 'forgetParameter': False}, {'text': 'Tarjeta de Débito', 'location': {'text': 'Respecto a la activación de las tarjetas de crédito, ¿Qué opción necesitas activar?', 'entityType': {'entityType': 'tipo-activacion-tarjeta-debito', 'entityValue': [{'entityValue': 'Activar tarjeta débito', 'synonyms': ['activar TD']}, {'entityValue': 'Activar clave Tarjeta Débito', 'synonyms': ['activación clave td']}, {'entityValue': 'Habilitar tarjeta débito', 'synonyms': ['habilitar td']}, {'entityValue': 'Habilitar tarjeta de débito para uso internacional', 'synonyms': ['habilitar uso internacional', 'habilitar TD en el extranjero']}]}, 'chips': [{'text': 'Activar Tarjeta', 'url': 'intent://faq.tarjetasdebitoactivar.link', 'entityValue': {'entityValue': 'Activar tarjeta débito', 'synonyms': ['activar TD']}, 'forgetParameter': False}, {'text': 'Activar Clave', 'url': 'intent://faq.tarjetasdebitoactivar.link', 'entityValue': {'entityValue': 'Activar clave Tarjeta Débito', 'synonyms': ['activación clave td']}, 'forgetParameter': False}, {'text': 'Activar para uso Internacional', 'url': 'intent://faq.tarjetadebactivainternacional.link', 'entityValue': {'entityValue': 'Habilitar tarjeta de débito para uso internacional', 'synonyms': ['habilitar uso internacional', 'habilitar TD en el extranjero']}, 'forgetParameter': False}, {'text': 'Habilitar compras online tarjeta adicional', 'location': {'text': 'Si quieres habilitar las compras online para Tarjetas adicionales, sigue estos pasos:\n\n1. Revisa si el estado de tus Tarjetas adicionales dice “Habilitado”. En caso contrario presiona el botón “Habilitar Servicio”.\n2. Activa el botón “Cambiar Clave Adicional”.\n3. Genera una clave para el cliente adicional.\nIMPORTANTE\n- Esta clave solo servirá para el cliente adicional en el flujo de compras online vía WEBPAY.\n- La clave no permite al cliente adicional acceder al sitio web.\n- El cliente titular debe entregar esta clave a su adicional.\n'}, 'entityValue': {'entityValue': 'Habilitar tarjeta débito', 'synonyms': ['habilitar td']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Tarjeta de Débito', 'synonyms': ['tarjeta debito', 'td', 'tdd', 'tdb']}, 'forgetParameter': False}, {'text': 'Scotia Pass', 'location': {'text': 'Puedo ayudarte con tu Keypass! ¿Quieres activar en un nuevo dispositivo o activar por primera vez?', 'chips': [{'text': 'Activar por primera vez', 'location': {'text': 'Para activar por primera vez en Scotiabank KeyPass, solo deberás seguir los siguientes pasos que se muestran a continuación:\n\n1. Ingresa a la aplicación.\n2. Ingresa tu RUT, tu Clave de Internet y tu Clave de Cajero Automático (Tarjeta de Débito).\n3. Para continuar, necesitamos comprobar que el teléfono que usas coincide con el teléfono seguro que registraste en el banco, para ello te enviaremos un SMS con un Código de Validación.\n4. Ingresa el código que te enviamos por SMS para poder verificar tu teléfono.\n5. Crea tu clave de autorización de 6 dígitos.\nA continuación, si tienes ScotiaPass, te solicitaremos que lo escribas. En caso de que no tengas ScotiaPass, te pediremos los 8 últimos números de tu Tarjeta de Débito.\n¡Listo! Ya puedes autorizar tus transacciones y/o pagos con tu App Scotiabank KeyPass.\n'}, 'entityValue': {'entityValue': 'Activar por primera vez'}, 'forgetParameter': False}, {'text': 'Activar en un nuevo equipo', 'location': {'text': '¿Dispones de tu teléfono antiguo para activar tu Keypass?', 'chips': [{'text': 'Sí', 'location': {'text': 'A continuación detallamos cómo enrolarte en KeyPass si tienes un nuevo dispositivo móvil, y también el dispositivo antiguo en tu poder. Para este proceso deberás tener ambos dispositivos móviles a mano:\n\n1. Al abrir tu App Scotiabank KeyPass en tu nuevo dispositivo móvil, aparecerá una pantalla de bienvenida donde te solicitaremos tu clave de cajero automático de tu Tarjeta de Débito o Crédito, además tendrás que escribir tu RUT y la clave que usas en tu sitio privado.\n2. Como ya te has enrolado previamente en Scotiabank KeyPass, te aparecerá un mensaje reconociéndote como usuario e indicando que tu clave quedará actualizada. Desde ese momento solo podrás usar la aplicación en ese dispositivo móvil. Deberás confirmar que deseas continuar con el flujo.\n3. Se te indicará un mensaje preguntando si tienes tu dispositivo anterior contigo. Si es así, deberás presionar la opción “Si”.\n4. Te aparecerá un código QR, el cual deberás escanear con tu dispositivo móvil antiguo desde la App KeyPass.\n5. Toma tu dispositivo antiguo y abre tu App KeyPass. Te aprecerán en la pantalla distintas opciones disponibles, deberás presionar aquella que indica “Cambio de Dispositivo”\n6. Un vez presionada la opción “Cambio de teléfono”, se abrirá el escáner que permite capturar el código QR que nos entrega la aplicación KeyPass en el dispositivo móvil nuevo.\n7. Al escanear correctamente el código QR, la aplicación en el dispositivo móvil antiguo te solicitará introducir la clave de KeyPass para autorizar el cambio.\n8. Por otro lado, en el dispositivo móvil nuevo, una vez escaneado el código, podrás crear tu nueva clave de autenticación, la cual debe contener 6 dígitos. Con esta contraseña ya podrás autorizar tus transacciones.\n¡Listo! Has completado todo el proceso y puedes empezar a autorizar tus transacciones como siempre.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['Si']}, 'forgetParameter': False}, {'text': 'No', 'location': {'text': 'A continuación detallamos cómo enrolarte en KeyPass si tienes un nuevo dispositivo móvil, pero no tu dispositivo antiguo:\n\n1. Al abrir tu App Scotiabank KeyPass en tu nuevo dispositivo móvil, aparecerá una pantalla de bienvenida donde te solicitaremos tu clave de cajero automático de tu Tarjeta de Débito o Crédito, además tendrás que escribir tu RUT y la clave que usas en tu sitio privado.\n2. Como ya te has enrolado previamente en Scotiabank KeyPass, te aparecerá un mensaje reconociéndote como usuario e indicando que tu clave quedará actualizada. Desde ese momento solo podrás usar la aplicación en este nuevo disposito móvil. Deberás confirmar que desea continuar con el flujo.\n3. Te aparecerá un mensaje preguntando si tienes tu dispositivo anterior contigo. En este caso, como no tienes tu dispositivo móvil antiguo, deberás elegir la opción “No”.\n4. Se te indicará en la pantalla tu e-mail registrado, al cual se te hará llegar un código QR con el cual podrás activar la aplicación en tu nuevo dispositivo móvil. Deberás presionar el botón “Continuar” para que el e-mail se genere. Si tienes más de un correo registrado, podrás elegir a cuál correo recibir la comunicación.\n5. Se confirmará en pantalla el envío del e-mail y tendrás pocos minutos para revisar tu buzón de correo desde un computador.\n6. Deberás escanear con tu dispositivo móvil desde la App KeyPass el código QR que llegó a tu correo.\n7. Al escanear correctamente el código QR, te solicitará introducir la clave de KeyPass para autorizar el cambio.\n8. El último paso varía dependiendo de tu caso. Indicamos ambos escenarios:\n8.A Opción A: Si tienes tu ScotiaPass, la aplicación te solicitará las coordenadas de tu token o dispositivo de seguridad.\n8.B Opción B: Si no tienes tu ScotiaPass, la aplicación te solicitará ingresar los 8 últimos dígitos de tu Tarjeta de Crédito o Débito.\n¡Listo! Ya puedes usar tu App KeyPass cómo lo haces siempre.\n'}, 'entityValue': {'entityValue': 'No'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Activar en un nuevo equipo'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Scotia Pass', 'synonyms': ['keypass', 'scotiapass', 'pin pass']}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'sys': {'type': 'Link', 'linkType': 'Entry', 'id': '1RiwNrldGt14HwmHvjyUSV'}}, {'sys': {'type': 'Link', 'linkType': 'Entry', 'id': 'BRxpBDkUWnS3qpczJ3Sia'}}, {'sys': {'type': 'Link', 'linkType': 'Entry', 'id': '2YwbXdW8fus7BA2afbRTCM'}}, {'sys': {'type': 'Link', 'linkType': 'Entry', 'id': '1KqbSQVDayxBT0v0cMXx1a'}}, {'sys': {'type': 'Link', 'linkType': 'Entry', 'id': '1IJtK0c91tV4kH1dxJHOKH'}}, {'sys': {'type': 'Link', 'linkType': 'Entry', 'id': '6QFnvwgp704D21QC7qIJpM'}}, {'sys': {'type': 'Link', 'linkType': 'Entry', 'id': '3Ga3uOL3etPd6x7Dr6QvRv'}}, {'sys': {'type': 'Link', 'linkType': 'Entry', 'id': '1ntoUUlnQ6Rr0P4rEHE2Rn'}}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'Scotia Puntos', 'location': {'text': 'Puedes canjear productos o servicios en los establecimientos afiliados, acumulando puntos por el uso de tus tarjetas de débito y crédito Scotiabank.', 'list': [{'text': 'Acumulo Puntos', 'url': 'intent://flow.lealtad.acumular'}, {'text': 'Canjea Puntos', 'url': 'intent://flow.lealtad.canjear'}]}, 'entityValue': {'entityValue': 'Scotia Puntos'}, 'forgetParameter': False}, {'text': 'Millas', 'location': {'text': 'Acumula millas por el uso de tus Tarjetas de Crédito Scotiabank AAdvantage®, las cuales puedes canjear en viajes, upgrades, etc.', 'list': [{'text': 'Acumulo Puntos', 'url': 'intent://flow.lealtad.acumular'}, {'text': 'Canjea Millas', 'url': 'intent://flow.lealtad.canjear'}]}, 'entityValue': {'entityValue': 'Millas'}, 'forgetParameter': False}]</t>
+  </si>
+  <si>
+    <t>[{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]</t>
+  </si>
+  <si>
+    <t>6DE7CDAfrhh2kIuxoGjmIB</t>
+  </si>
+  <si>
+    <t>28K6oMfS7QRVUJ4p0V3pyY</t>
+  </si>
+  <si>
+    <t>ZnXcdwZ4eK4kQEBXha96S</t>
+  </si>
+  <si>
+    <t>27Pu39XAullEZjiJlsOChv</t>
+  </si>
+  <si>
     <t>8tDZeUddHbxySmy5JEUI4</t>
   </si>
   <si>
@@ -695,18 +815,18 @@
     <t>markdownResponse</t>
   </si>
   <si>
+    <t>['chips', 'fallbacks']</t>
+  </si>
+  <si>
+    <t>['entityType', 'chips', 'fallbacks']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['entityType', 'chips', 'fallbacks']</t>
-  </si>
-  <si>
     <t>['entityType', 'chips']</t>
   </si>
   <si>
-    <t>['chips', 'fallbacks']</t>
-  </si>
-  <si>
     <t>['chips', 'buttons', 'fallbacks']</t>
   </si>
   <si>
@@ -716,10 +836,19 @@
     <t>['list']</t>
   </si>
   <si>
-    <t>{'entityType': 'tipo-informacion-pagos-generar', 'entityValue': [{'entityValue': 'Pagar Tarjeta de Crédito', 'synonyms': ['Pagar TC']}, {'entityValue': 'Pagar Crédito'}, {'entityValue': 'Pagar Línea de Crédito'}, {'entityValue': 'Pagar Servicios', 'synonyms': ['PAC', 'PAT', 'Pago automático']}]}</t>
-  </si>
-  <si>
-    <t>{'entityType': 'informacion-pagos-generar-creditos', 'entityValue': [{'entityValue': 'Pago CAE', 'synonyms': ['Pagar Crédito con aval del estado', 'Pagar crédito con aval', 'pagar cae']}, {'entityValue': 'Pago crédito de consumo', 'synonyms': ['pagar consumo', 'pago consumo']}, {'entityValue': 'Pago crédito hipotecario', 'synonyms': ['Pago chip', 'pagar hipotecario', 'pagar dividendo']}, {'entityValue': 'Pago crédito automotriz'}]}</t>
+    <t>{'entityType': 'producto-pago', 'entityValue': [{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}, {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, {'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, {'entityValue': 'Seguro'}, {'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}, {'entityValue': 'Línea de Crédito'}]}</t>
+  </si>
+  <si>
+    <t>{'entityType': 'pagosautomaticos', 'entityValue': [{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}]}</t>
+  </si>
+  <si>
+    <t>{'entityType': 'tipo-información-anular-pago', 'entityValue': [{'entityValue': 'Eliminar pago automático', 'synonyms': ['Finalizar pago automático', 'Desvincular pago automático', 'Terminar pago automático.']}, {'entityValue': 'Reversar pago', 'synonyms': ['Retroceder un pago', 'Deshacer un pago', 'Cancelar un pago', 'retroceder pago', 'deshacer pago', 'cancelar pago', 'anular pago']}]}</t>
+  </si>
+  <si>
+    <t>{'entityType': 'tipo-informacion-pagos-generar', 'entityValue': [{'entityValue': 'Pagar Tarjeta de Crédito', 'synonyms': ['Pagar TC']}, {'entityValue': 'Pagar Crédito'}, {'entityValue': 'Línea de Crédito'}, {'entityValue': 'Pagar Servicios', 'synonyms': ['PAC', 'PAT', 'Pago automático']}]}</t>
+  </si>
+  <si>
+    <t>{'entityType': 'informacion-pagos-generar-creditos', 'entityValue': [{'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, {'entityValue': 'Pago crédito automotriz'}]}</t>
   </si>
   <si>
     <t>{'entityType': 'tipo-respuesta-sino', 'entityValue': [{'entityValue': 'Sí', 'synonyms': ['si']}, {'entityValue': 'No', 'synonyms': ['nop']}]}</t>
@@ -731,9 +860,6 @@
     <t>{'entityType': 'informacion-pagos-tarjetacredito-deuda-nacional', 'entityValue': [{'entityValue': 'Pagar deuda nacional'}, {'entityValue': 'Pagar deuda internacional'}]}</t>
   </si>
   <si>
-    <t>{'entityType': 'informacion-pagosautomaticos', 'entityValue': [{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}]}</t>
-  </si>
-  <si>
     <t>{'entityType': 'informacion-pagosautomaticos-PAC', 'entityValue': [{'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, {'entityValue': 'Administrar PAC', 'synonyms': ['Gestionar PAC.']}, {'entityValue': 'Consulta Mandatos Banco'}, {'entityValue': 'Consulta Pagos Banco'}, {'entityValue': 'Eliminar PAC', 'synonyms': ['Cancelar PAC', 'Desvincular PAC', 'Finalizar PAC']}, {'entityValue': 'PAC en 1 Clic'}]}</t>
   </si>
   <si>
@@ -758,60 +884,6 @@
     <t>{'entityType': 'programas-lealtad-tipos', 'entityValue': [{'entityValue': 'Scotia Puntos'}, {'entityValue': 'Millas'}]}</t>
   </si>
   <si>
-    <t>[{'text': 'Pagar Tarjeta de Crédito', 'location': {'text': '¿Que opción de pago deseas consultar?', 'entityType': {'entityType': 'informacion-pagos-generar-tarjetacredito', 'entityValue': [{'entityValue': 'Pago deuda total', 'synonyms': ['Pago total deuda']}, {'entityValue': 'Pago parcial de tarjeta'}, {'entityValue': 'Pago mínimo'}, {'entityValue': 'Pago sin cuenta corriente', 'synonyms': ['Pago sin cta cte']}, {'entityValue': 'Deuda en dólares'}]}, 'chips': [{'text': 'Pago Deuda Total', 'location': {'text': 'Para pagar el total de la deuda de tu tarjeta, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjeta".\n2. Dirígete en el submenú ”Pagos".\n3. Elige la opción “Prepago de tarjeta de crédito”\n4. Luego selecciona tu tarjeta y tu cuenta de cargo.\n5. Te figurará la deuda total a pagar de tu tarjeta. \n6. Presiona el botón continuar para confirmar el pago total de tu deuda, de este modo se pagará la deuda total en pesos de tu tarjeta de crédito con cargo tu cuenta corriente.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pago deuda total', 'synonyms': ['Pago total deuda']}, 'forgetParameter': False}, {'text': 'Prepago parcial de tarjeta', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Pago parcial de tarjeta'}, 'forgetParameter': False}, {'text': 'Pago mínimo', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Pago mínimo'}, 'forgetParameter': False}, {'text': 'Pago sin cuenta corriente', 'location': {'text': 'Si no posees una cuenta corriente o cuenta vista de Scotiabank, puedes hacer el pago ingresando en www.scotiabankchile.cl siguiendo los siguientes pasos:\n\n1. En el menú de navegación haz click en la sección "Botón de Pago".\n2. Ahí encontrarás el botón “Paga tu Tarjeta de Crédito”.\n3. Al hacer click sobre el botón anterior, éste te llevará a "Pago Fácil Tarjeta de Crédito".\n4. Aquí deberás realizar los siguientes pasos:\n  - Ingresa tus datos: Coloca tu rut, los últimos cuatro dígitos de tu tarjeta y el tipo de deuda que deseas pagar.\n  - Selecciona el monto: Deberás señalar el monto que deseas pagar, revisa que la información proporcionada sea correcta y luego seleccionas continuar.\n  - Luego, podrás elegir pagar con tu tarjeta de crédito o débito de otro banco, con el mecanismo normal de pago vía WebPay.\n  - Por último tendrás tu comprobante de pago.\n¡Y listo! En simples pasos podrás pagar tu tarjeta de crédito sin necesidad de acudir a una sucursal.\n'}, 'entityValue': {'entityValue': 'Pago sin cuenta corriente', 'synonyms': ['Pago sin cta cte']}, 'forgetParameter': False}, {'text': 'Pagar deuda facturada', 'location': {'text': ' ¿Qué tipo de deuda deseas pagar?', 'entityType': {'entityType': 'informacion-pagos-tarjetacredito-deuda-nacional', 'entityValue': [{'entityValue': 'Pagar deuda nacional'}, {'entityValue': 'Pagar deuda internacional'}]}, 'chips': [{'text': 'Pagar deuda nacional', 'location': {'text': 'Para pagar tu Tarjeta de Crédito en moneda nacional, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjeta".\n2. Dirígete en el submenú ”Pagos".\n3. Elige la opción “Pagar monto nacional”\n4. Donde te figurará el total facturado a pagar.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pagar deuda nacional'}, 'forgetParameter': False}, {'text': 'Pagar deuda internacional', 'location': {'text': 'Para pagar tu deuda internacional en dólares deberás hacer lo siguiente:\n\n1. Selecciona la opción “Tarjetas” en el menú superior.\n2. Selecciona en la columna “Pagos” la opción “Pagar monto internacional”.\n3. Selecciona la cuenta de origen de donde se sacara el dinero para pagar la deuda.\n4. Selecciona la tarjeta de destino (la tarjeta en la que pagaremos el monto en dólares).\n5. Haz clic en “Aceptar”. Esto te llevará a la página con el detalle de la deuda.\n6. Deberás agregar el monto a pagar en dólares.\n7. Si ya se había realizado antes un abono a su deuda en dólares, sólo deberás ingresar como monto el saldo que le queda por pagar, el cual puede ser menor al monto facturado que se informa.\n8. Por último, debes hacer clic al botón para confirmar, se pagará la deuda en dólares y se cargará el monto equivalente en pesos en su cuenta corriente.\n\nTendrás que tener en cuenta lo siguiente:\nLa deuda en dólares sólo se puede pagar por esta vía hasta la fecha de vencimiento del Estado de Cuenta (EECC), posterior a esa fecha, la deuda en dólares se convierte en pesos y pasa a ser parte de la deuda en moneda nacional.\nLos pagos que se efectúen fuera de horario bancario (hasta las 14:00 de lunes a viernes) se contabilizarán y aplicarán al día siguiente.\nPor lo anterior, hasta las 14:00 horas del día de vencimiento de tu Estado de Cuenta, podrás cancelar la última deuda facturada en dólares.\nEl monto a pagar no debe superar los USD 10.000, sobre este monto deberás realizar tu pago a través de caja.\n'}, 'entityValue': {'entityValue': 'Pagar deuda internacional'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Deuda en dólares'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Pagar Tarjeta de Crédito', 'synonyms': ['Pagar TC']}, 'forgetParameter': False}, {'text': 'Pagar Línea de Crédito', 'location': {'text': 'Para realizar el pago de tu Línea de crédito, sigue éstos pasos:\n\n1.Selecciona en el menú principal la opción "Transferencias y Pagos".\n2.Dirígete a la lista “Pagos de productos”.\n3. Elige la opción “Pagar Línea de Crédito”.\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pagar Línea de Crédito'}, 'forgetParameter': False}, {'text': 'Pagar Créditos', 'location': {'text': 'OK, y ¿cuál crédito quieres pagar?', 'entityType': {'entityType': 'informacion-pagos-generar-creditos', 'entityValue': [{'entityValue': 'Pago CAE', 'synonyms': ['Pagar Crédito con aval del estado', 'Pagar crédito con aval', 'pagar cae']}, {'entityValue': 'Pago crédito de consumo', 'synonyms': ['pagar consumo', 'pago consumo']}, {'entityValue': 'Pago crédito hipotecario', 'synonyms': ['Pago chip', 'pagar hipotecario', 'pagar dividendo']}, {'entityValue': 'Pago crédito automotriz'}]}, 'chips': [{'text': 'Crédito de consumo', 'location': {'text': '¿Quieres pagar desde tu cuenta Scotia?', 'entityType': {'entityType': 'tipo-respuesta-sino', 'entityValue': [{'entityValue': 'Sí', 'synonyms': ['si']}, {'entityValue': 'No', 'synonyms': ['nop']}]}, 'chips': [{'text': 'Sí', 'location': {'text': 'Para transferir el pago de tu crédito de consumo, sigue estas indicaciones:\n\n1. Selecciona en el menú "Créditos".\n2. En el submenú "Crédito de consumo" selecciona la opción "Pagar cuota de crédito".\n3. Selecciona el crédito que deseas pagar.\n4. Luego haz clic en botón "Pago Cuota"\n5. Selecciona la cuenta de cargo y la cuota que deseas pagar.\n6. Para finalizar haz clic en el botón "Pagar".\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['si']}, 'forgetParameter': False}, {'text': 'No', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'No', 'synonyms': ['nop']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Pago crédito de consumo', 'synonyms': ['pagar consumo', 'pago consumo']}, 'forgetParameter': False}, {'text': 'CAE (Crédito con Aval del Estado)', 'url': 'intent://faq.pagocae.info', 'entityValue': {'entityValue': 'Pago CAE', 'synonyms': ['Pagar Crédito con aval del estado', 'Pagar crédito con aval', 'pagar cae']}, 'forgetParameter': False}, {'text': 'Crédito Automotriz', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'Pago crédito automotriz'}, 'forgetParameter': False}, {'text': 'Crédito Hipotecario', 'location': {'text': 'Puedes pagar los dividendos de tu crédito hipotecario, siguiendo estos pasos:\n\n1. Selecciona en el menú principal la opción "Crédito".\n2. Dirígete a la lista "Crédito Hipotecario".\n3. Elige la opción “Pagar dividendos”.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pago crédito hipotecario', 'synonyms': ['Pago chip', 'pagar hipotecario', 'pagar dividendo']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Pagar Crédito'}, 'forgetParameter': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Crédito de consumo', 'location': {'text': '¿Quieres pagar desde tu cuenta Scotia?', 'entityType': {'entityType': 'tipo-respuesta-sino', 'entityValue': [{'entityValue': 'Sí', 'synonyms': ['si']}, {'entityValue': 'No', 'synonyms': ['nop']}]}, 'chips': [{'text': 'Sí', 'location': {'text': 'Para transferir el pago de tu crédito de consumo, sigue estas indicaciones:\n\n1. Selecciona en el menú "Créditos".\n2. En el submenú "Crédito de consumo" selecciona la opción "Pagar cuota de crédito".\n3. Selecciona el crédito que deseas pagar.\n4. Luego haz clic en botón "Pago Cuota"\n5. Selecciona la cuenta de cargo y la cuota que deseas pagar.\n6. Para finalizar haz clic en el botón "Pagar".\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['si']}, 'forgetParameter': False}, {'text': 'No', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'No', 'synonyms': ['nop']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Pago crédito de consumo', 'synonyms': ['pagar consumo', 'pago consumo']}, 'forgetParameter': False}, {'text': 'CAE (Crédito con Aval del Estado)', 'url': 'intent://faq.pagocae.info', 'entityValue': {'entityValue': 'Pago CAE', 'synonyms': ['Pagar Crédito con aval del estado', 'Pagar crédito con aval', 'pagar cae']}, 'forgetParameter': False}, {'text': 'Crédito Automotriz', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'Pago crédito automotriz'}, 'forgetParameter': False}, {'text': 'Crédito Hipotecario', 'location': {'text': 'Puedes pagar los dividendos de tu crédito hipotecario, siguiendo estos pasos:\n\n1. Selecciona en el menú principal la opción "Crédito".\n2. Dirígete a la lista "Crédito Hipotecario".\n3. Elige la opción “Pagar dividendos”.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pago crédito hipotecario', 'synonyms': ['Pago chip', 'pagar hipotecario', 'pagar dividendo']}, 'forgetParameter': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Sí', 'location': {'text': 'Para transferir el pago de tu crédito de consumo, sigue estas indicaciones:\n\n1. Selecciona en el menú "Créditos".\n2. En el submenú "Crédito de consumo" selecciona la opción "Pagar cuota de crédito".\n3. Selecciona el crédito que deseas pagar.\n4. Luego haz clic en botón "Pago Cuota"\n5. Selecciona la cuenta de cargo y la cuota que deseas pagar.\n6. Para finalizar haz clic en el botón "Pagar".\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['si']}, 'forgetParameter': False}, {'text': 'No', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'No', 'synonyms': ['nop']}, 'forgetParameter': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Pago Deuda Total', 'location': {'text': 'Para pagar el total de la deuda de tu tarjeta, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjeta".\n2. Dirígete en el submenú ”Pagos".\n3. Elige la opción “Prepago de tarjeta de crédito”\n4. Luego selecciona tu tarjeta y tu cuenta de cargo.\n5. Te figurará la deuda total a pagar de tu tarjeta. \n6. Presiona el botón continuar para confirmar el pago total de tu deuda, de este modo se pagará la deuda total en pesos de tu tarjeta de crédito con cargo tu cuenta corriente.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pago deuda total', 'synonyms': ['Pago total deuda']}, 'forgetParameter': False}, {'text': 'Prepago parcial de tarjeta', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Pago parcial de tarjeta'}, 'forgetParameter': False}, {'text': 'Pago mínimo', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Pago mínimo'}, 'forgetParameter': False}, {'text': 'Pago sin cuenta corriente', 'location': {'text': 'Si no posees una cuenta corriente o cuenta vista de Scotiabank, puedes hacer el pago ingresando en www.scotiabankchile.cl siguiendo los siguientes pasos:\n\n1. En el menú de navegación haz click en la sección "Botón de Pago".\n2. Ahí encontrarás el botón “Paga tu Tarjeta de Crédito”.\n3. Al hacer click sobre el botón anterior, éste te llevará a "Pago Fácil Tarjeta de Crédito".\n4. Aquí deberás realizar los siguientes pasos:\n  - Ingresa tus datos: Coloca tu rut, los últimos cuatro dígitos de tu tarjeta y el tipo de deuda que deseas pagar.\n  - Selecciona el monto: Deberás señalar el monto que deseas pagar, revisa que la información proporcionada sea correcta y luego seleccionas continuar.\n  - Luego, podrás elegir pagar con tu tarjeta de crédito o débito de otro banco, con el mecanismo normal de pago vía WebPay.\n  - Por último tendrás tu comprobante de pago.\n¡Y listo! En simples pasos podrás pagar tu tarjeta de crédito sin necesidad de acudir a una sucursal.\n'}, 'entityValue': {'entityValue': 'Pago sin cuenta corriente', 'synonyms': ['Pago sin cta cte']}, 'forgetParameter': False}, {'text': 'Pagar deuda facturada', 'location': {'text': ' ¿Qué tipo de deuda deseas pagar?', 'entityType': {'entityType': 'informacion-pagos-tarjetacredito-deuda-nacional', 'entityValue': [{'entityValue': 'Pagar deuda nacional'}, {'entityValue': 'Pagar deuda internacional'}]}, 'chips': [{'text': 'Pagar deuda nacional', 'location': {'text': 'Para pagar tu Tarjeta de Crédito en moneda nacional, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjeta".\n2. Dirígete en el submenú ”Pagos".\n3. Elige la opción “Pagar monto nacional”\n4. Donde te figurará el total facturado a pagar.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pagar deuda nacional'}, 'forgetParameter': False}, {'text': 'Pagar deuda internacional', 'location': {'text': 'Para pagar tu deuda internacional en dólares deberás hacer lo siguiente:\n\n1. Selecciona la opción “Tarjetas” en el menú superior.\n2. Selecciona en la columna “Pagos” la opción “Pagar monto internacional”.\n3. Selecciona la cuenta de origen de donde se sacara el dinero para pagar la deuda.\n4. Selecciona la tarjeta de destino (la tarjeta en la que pagaremos el monto en dólares).\n5. Haz clic en “Aceptar”. Esto te llevará a la página con el detalle de la deuda.\n6. Deberás agregar el monto a pagar en dólares.\n7. Si ya se había realizado antes un abono a su deuda en dólares, sólo deberás ingresar como monto el saldo que le queda por pagar, el cual puede ser menor al monto facturado que se informa.\n8. Por último, debes hacer clic al botón para confirmar, se pagará la deuda en dólares y se cargará el monto equivalente en pesos en su cuenta corriente.\n\nTendrás que tener en cuenta lo siguiente:\nLa deuda en dólares sólo se puede pagar por esta vía hasta la fecha de vencimiento del Estado de Cuenta (EECC), posterior a esa fecha, la deuda en dólares se convierte en pesos y pasa a ser parte de la deuda en moneda nacional.\nLos pagos que se efectúen fuera de horario bancario (hasta las 14:00 de lunes a viernes) se contabilizarán y aplicarán al día siguiente.\nPor lo anterior, hasta las 14:00 horas del día de vencimiento de tu Estado de Cuenta, podrás cancelar la última deuda facturada en dólares.\nEl monto a pagar no debe superar los USD 10.000, sobre este monto deberás realizar tu pago a través de caja.\n'}, 'entityValue': {'entityValue': 'Pagar deuda internacional'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Deuda en dólares'}, 'forgetParameter': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Pagar deuda nacional', 'location': {'text': 'Para pagar tu Tarjeta de Crédito en moneda nacional, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjeta".\n2. Dirígete en el submenú ”Pagos".\n3. Elige la opción “Pagar monto nacional”\n4. Donde te figurará el total facturado a pagar.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pagar deuda nacional'}, 'forgetParameter': False}, {'text': 'Pagar deuda internacional', 'location': {'text': 'Para pagar tu deuda internacional en dólares deberás hacer lo siguiente:\n\n1. Selecciona la opción “Tarjetas” en el menú superior.\n2. Selecciona en la columna “Pagos” la opción “Pagar monto internacional”.\n3. Selecciona la cuenta de origen de donde se sacara el dinero para pagar la deuda.\n4. Selecciona la tarjeta de destino (la tarjeta en la que pagaremos el monto en dólares).\n5. Haz clic en “Aceptar”. Esto te llevará a la página con el detalle de la deuda.\n6. Deberás agregar el monto a pagar en dólares.\n7. Si ya se había realizado antes un abono a su deuda en dólares, sólo deberás ingresar como monto el saldo que le queda por pagar, el cual puede ser menor al monto facturado que se informa.\n8. Por último, debes hacer clic al botón para confirmar, se pagará la deuda en dólares y se cargará el monto equivalente en pesos en su cuenta corriente.\n\nTendrás que tener en cuenta lo siguiente:\nLa deuda en dólares sólo se puede pagar por esta vía hasta la fecha de vencimiento del Estado de Cuenta (EECC), posterior a esa fecha, la deuda en dólares se convierte en pesos y pasa a ser parte de la deuda en moneda nacional.\nLos pagos que se efectúen fuera de horario bancario (hasta las 14:00 de lunes a viernes) se contabilizarán y aplicarán al día siguiente.\nPor lo anterior, hasta las 14:00 horas del día de vencimiento de tu Estado de Cuenta, podrás cancelar la última deuda facturada en dólares.\nEl monto a pagar no debe superar los USD 10.000, sobre este monto deberás realizar tu pago a través de caja.\n'}, 'entityValue': {'entityValue': 'Pagar deuda internacional'}, 'forgetParameter': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Pago automático en cuenta (PAC)', 'location': {'text': '¿Qué información sobre PAC deseas conocer?', 'entityType': {'entityType': 'informacion-pagosautomaticos-PAC', 'entityValue': [{'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, {'entityValue': 'Administrar PAC', 'synonyms': ['Gestionar PAC.']}, {'entityValue': 'Consulta Mandatos Banco'}, {'entityValue': 'Consulta Pagos Banco'}, {'entityValue': 'Eliminar PAC', 'synonyms': ['Cancelar PAC', 'Desvincular PAC', 'Finalizar PAC']}, {'entityValue': 'PAC en 1 Clic'}]}, 'chips': [{'text': 'Eliminar PAC', 'url': 'intent://faq.eliminarPAC.info', 'entityValue': {'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, 'forgetParameter': False}, {'text': 'Inscribir PAC', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, 'forgetParameter': False}, {'text': 'Administrar PAC', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Administrar PAC', 'synonyms': ['Gestionar PAC.']}, 'forgetParameter': False}, {'text': 'Consulta Mandatos Banco', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Consulta Mandatos Banco'}, 'forgetParameter': False}, {'text': 'Consulta Pagos Banco', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Consulta Pagos Banco'}, 'forgetParameter': False}, {'text': 'PAC en 1 Clic', 'location': {'text': '¿Qué opción de PAC en 1 clic deseas consultar?', 'entityType': {'entityType': 'informacion-pagosautomaticos-PAC- En1clic', 'entityValue': [{'entityValue': 'Inscripción desde oferta'}, {'entityValue': '¿Cómo inscribir?'}, {'entityValue': 'Configurar monto máximo'}, {'entityValue': 'Configurar fecha de término'}, {'entityValue': 'Configurar información adicional'}, {'entityValue': 'Inscripción múltiple'}, {'entityValue': '¿Qué es PAC en un clic?'}]}, 'chips': [{'text': 'Inscripción desde Oferta', 'location': {'text': 'Para visualizar una oferta de inscripción de PAC en 1 clic debes ingresar a Scotia GO, aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, por lo que debes ingresar a Scotia GO con tu Rut y clave secreta, una vez hecho el ingreso debes ubicar la sección de ofertas que aparece en el home. Próximamente estará disponible para el sitio privado.'}, 'entityValue': {'entityValue': 'Inscripción desde oferta'}, 'forgetParameter': False}, {'text': '¿Cómo inscribir?', 'location': {'text': 'Para inscribir PAC en 1 clic debes realizarlo a través de Scotia Go, ya que aún no hemos disponibilizado esta funcionalidad ScotiaWeb.\nPara realizar la inscripción de PAC en 1 Clic, ingresa a Scotia GO y realiza los siguientes pasos:\n1.- Presiona la oferta para inscripción de PAC\n2.- Selecciona el servicio que deseas inscribir marcando la casilla ubicada a la izquierda del mismo\n3.- Presiona el botón continuar\n4.- Si no deseas configurar el servicio debes presionar nuevamente el botón continuar\n5.- Verifica la información en pantalla y selecciona una cuenta de cargo (de esta cuenta serán debitados los próximos pagos asociados al PAC)\n6.- Acepta los términos y condiciones\n7.- Presiona el botón confirmar\n8.- Al finalizar visualizarás una pantalla con el resumen de la operación\n'}, 'entityValue': {'entityValue': '¿Cómo inscribir?'}, 'forgetParameter': False}, {'text': 'Configurar monto máximo', 'location': {'text': 'Efectivamente puedes establecer un monto máximo para el PAC en 1 clic, no obstante, debes asegurarte de que los cobros en el servicio a inscribir no excedan dicho monto, sin embargo, aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, por lo que debes ingresar a Scotia GO con tu Rut y clave secreta, para realizar la configuración. '}, 'entityValue': {'entityValue': 'Configurar monto máximo'}, 'forgetParameter': False}, {'text': 'Configurar fecha de término', 'location': {'text': 'Aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, sin embargo, lo puedes realizar la configuración en Scotia GO ingresando con tu Rut y clave secreta y realizar los siguientes pasos:\n1.- Una vez que hayas seleccionado el servicio que deseas inscribir debes presionar el botón continuar\n2.- En la próxima pantalla debes presionar el link “Configurar pagos”\n3.- Ingresa la información que deseas configurar: monto máximo, fecha de término y/o alias.\n4.- Presiona el botón guardar'}, 'entityValue': {'entityValue': 'Configurar fecha de término'}, 'forgetParameter': False}, {'text': 'Configurar información adicional', 'location': {'text': 'Efectivamente puedes establecer una fecha de término para el PAC, de ser así, los pagos automáticos se realizarán hasta la fecha indicada. Sin embargo, la funcionalidad de PAC en 1 clic actualmente se encuentra disponible sólo a través de Scotia GO, por lo que te puedes ingresar a Scotia GO con tu Rut y clave para realizar la configuración que desees. '}, 'entityValue': {'entityValue': 'Configurar información adicional'}, 'forgetParameter': False}, {'text': 'Inscripción Múltiple', 'location': {'text': 'Efectivamente puedes inscribir más de un servicio, pero aún no hemos disponibilizado la funcionalidad de PAC en 1 clic en el sitio ScotiaWeb, sin embargo, puedes contratar PAC en 1 clic a través de Scotia Go ingresando con tu Rut y clave secreta, una vez hecho el ingreso debes ubicar la sección de ofertas que aparece en el home.'}, 'entityValue': {'entityValue': 'Inscripción múltiple'}, 'forgetParameter': False}, {'text': '¿Qué es PAC en un Clic?', 'location': {'text': 'PAC en 1 clic, es una funcionalidad mediante la cual podrás seleccionar de forma simple y rápida los servicios que quieras inscribir para Pago Automático Mensual desde tu cuenta corriente . Podrás configurar montos máximos, fechas y cuenta de cargo. Para utilizar PAC en un clic selecciona la opción en ScotiaGO, ya que aún no hemos disponibilizado esta funcionalidad en ScotiaWeb.'}, 'entityValue': {'entityValue': '¿Qué es PAC en un clic?'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'PAC en 1 Clic'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, 'forgetParameter': False}, {'text': 'Pago automático en tarjeta de crédito (PAT)', 'location': {'text': '¿Qué información sobre PAT deseas conocer?', 'entityType': {'entityType': 'informacion-pagosautomaticos-PAT', 'entityValue': [{'entityValue': 'Inscribir un nuevo PAT', 'synonyms': ['Inscribir pago automático de tarjeta de crédito']}, {'entityValue': 'Consultar cuentas inscritas'}, {'entityValue': 'Eliminar PAT inscritos', 'synonyms': ['Cancelar PAT', 'Finalizar PAT', 'Desvincular PAT']}, {'entityValue': 'Consultar histórico de movimientos'}]}, 'chips': [{'text': 'Inscribir un nuevo PAT', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Agregar nueva cuenta"\n5. Ingresa los datos solicitado para realizar correctamente la inscripción del PAT.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Inscribir un nuevo PAT', 'synonyms': ['Inscribir pago automático de tarjeta de crédito']}, 'forgetParameter': False}, {'text': 'Consultar Cuentas Inscritas', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Cuentas inscritas"\n5. Aparecerá el listado de tus PAT inscritos, si quieres más información sobre algún en particular, haz clic en la acción "Ver Detalles".\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Consultar cuentas inscritas'}, 'forgetParameter': False}, {'text': 'Eliminar PAT Inscritos', 'url': 'intent://faq.eliminarpat.info', 'entityValue': {'entityValue': 'Eliminar PAT inscritos', 'synonyms': ['Cancelar PAT', 'Finalizar PAT', 'Desvincular PAT']}, 'forgetParameter': False}, {'text': 'Consultar Histórico de Movimientos', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Histórico de pagos"\n5. Aquí podrás seleccionar los filtros que necesitas para mostrar la información histórica que quieres consultar.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Consultar histórico de movimientos'}, 'forgetParameter': False}]}, 'entityValue': {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}, 'forgetParameter': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Eliminar PAC', 'url': 'intent://faq.eliminarPAC.info', 'entityValue': {'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, 'forgetParameter': False}, {'text': 'Inscribir PAC', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, 'forgetParameter': False}, {'text': 'Administrar PAC', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Administrar PAC', 'synonyms': ['Gestionar PAC.']}, 'forgetParameter': False}, {'text': 'Consulta Mandatos Banco', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Consulta Mandatos Banco'}, 'forgetParameter': False}, {'text': 'Consulta Pagos Banco', 'url': 'intent://faq.infogralpac.info', 'entityValue': {'entityValue': 'Consulta Pagos Banco'}, 'forgetParameter': False}, {'text': 'PAC en 1 Clic', 'location': {'text': '¿Qué opción de PAC en 1 clic deseas consultar?', 'entityType': {'entityType': 'informacion-pagosautomaticos-PAC- En1clic', 'entityValue': [{'entityValue': 'Inscripción desde oferta'}, {'entityValue': '¿Cómo inscribir?'}, {'entityValue': 'Configurar monto máximo'}, {'entityValue': 'Configurar fecha de término'}, {'entityValue': 'Configurar información adicional'}, {'entityValue': 'Inscripción múltiple'}, {'entityValue': '¿Qué es PAC en un clic?'}]}, 'chips': [{'text': 'Inscripción desde Oferta', 'location': {'text': 'Para visualizar una oferta de inscripción de PAC en 1 clic debes ingresar a Scotia GO, aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, por lo que debes ingresar a Scotia GO con tu Rut y clave secreta, una vez hecho el ingreso debes ubicar la sección de ofertas que aparece en el home. Próximamente estará disponible para el sitio privado.'}, 'entityValue': {'entityValue': 'Inscripción desde oferta'}, 'forgetParameter': False}, {'text': '¿Cómo inscribir?', 'location': {'text': 'Para inscribir PAC en 1 clic debes realizarlo a través de Scotia Go, ya que aún no hemos disponibilizado esta funcionalidad ScotiaWeb.\nPara realizar la inscripción de PAC en 1 Clic, ingresa a Scotia GO y realiza los siguientes pasos:\n1.- Presiona la oferta para inscripción de PAC\n2.- Selecciona el servicio que deseas inscribir marcando la casilla ubicada a la izquierda del mismo\n3.- Presiona el botón continuar\n4.- Si no deseas configurar el servicio debes presionar nuevamente el botón continuar\n5.- Verifica la información en pantalla y selecciona una cuenta de cargo (de esta cuenta serán debitados los próximos pagos asociados al PAC)\n6.- Acepta los términos y condiciones\n7.- Presiona el botón confirmar\n8.- Al finalizar visualizarás una pantalla con el resumen de la operación\n'}, 'entityValue': {'entityValue': '¿Cómo inscribir?'}, 'forgetParameter': False}, {'text': 'Configurar monto máximo', 'location': {'text': 'Efectivamente puedes establecer un monto máximo para el PAC en 1 clic, no obstante, debes asegurarte de que los cobros en el servicio a inscribir no excedan dicho monto, sin embargo, aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, por lo que debes ingresar a Scotia GO con tu Rut y clave secreta, para realizar la configuración. '}, 'entityValue': {'entityValue': 'Configurar monto máximo'}, 'forgetParameter': False}, {'text': 'Configurar fecha de término', 'location': {'text': 'Aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, sin embargo, lo puedes realizar la configuración en Scotia GO ingresando con tu Rut y clave secreta y realizar los siguientes pasos:\n1.- Una vez que hayas seleccionado el servicio que deseas inscribir debes presionar el botón continuar\n2.- En la próxima pantalla debes presionar el link “Configurar pagos”\n3.- Ingresa la información que deseas configurar: monto máximo, fecha de término y/o alias.\n4.- Presiona el botón guardar'}, 'entityValue': {'entityValue': 'Configurar fecha de término'}, 'forgetParameter': False}, {'text': 'Configurar información adicional', 'location': {'text': 'Efectivamente puedes establecer una fecha de término para el PAC, de ser así, los pagos automáticos se realizarán hasta la fecha indicada. Sin embargo, la funcionalidad de PAC en 1 clic actualmente se encuentra disponible sólo a través de Scotia GO, por lo que te puedes ingresar a Scotia GO con tu Rut y clave para realizar la configuración que desees. '}, 'entityValue': {'entityValue': 'Configurar información adicional'}, 'forgetParameter': False}, {'text': 'Inscripción Múltiple', 'location': {'text': 'Efectivamente puedes inscribir más de un servicio, pero aún no hemos disponibilizado la funcionalidad de PAC en 1 clic en el sitio ScotiaWeb, sin embargo, puedes contratar PAC en 1 clic a través de Scotia Go ingresando con tu Rut y clave secreta, una vez hecho el ingreso debes ubicar la sección de ofertas que aparece en el home.'}, 'entityValue': {'entityValue': 'Inscripción múltiple'}, 'forgetParameter': False}, {'text': '¿Qué es PAC en un Clic?', 'location': {'text': 'PAC en 1 clic, es una funcionalidad mediante la cual podrás seleccionar de forma simple y rápida los servicios que quieras inscribir para Pago Automático Mensual desde tu cuenta corriente . Podrás configurar montos máximos, fechas y cuenta de cargo. Para utilizar PAC en un clic selecciona la opción en ScotiaGO, ya que aún no hemos disponibilizado esta funcionalidad en ScotiaWeb.'}, 'entityValue': {'entityValue': '¿Qué es PAC en un clic?'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'PAC en 1 Clic'}, 'forgetParameter': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Inscripción desde Oferta', 'location': {'text': 'Para visualizar una oferta de inscripción de PAC en 1 clic debes ingresar a Scotia GO, aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, por lo que debes ingresar a Scotia GO con tu Rut y clave secreta, una vez hecho el ingreso debes ubicar la sección de ofertas que aparece en el home. Próximamente estará disponible para el sitio privado.'}, 'entityValue': {'entityValue': 'Inscripción desde oferta'}, 'forgetParameter': False}, {'text': '¿Cómo inscribir?', 'location': {'text': 'Para inscribir PAC en 1 clic debes realizarlo a través de Scotia Go, ya que aún no hemos disponibilizado esta funcionalidad ScotiaWeb.\nPara realizar la inscripción de PAC en 1 Clic, ingresa a Scotia GO y realiza los siguientes pasos:\n1.- Presiona la oferta para inscripción de PAC\n2.- Selecciona el servicio que deseas inscribir marcando la casilla ubicada a la izquierda del mismo\n3.- Presiona el botón continuar\n4.- Si no deseas configurar el servicio debes presionar nuevamente el botón continuar\n5.- Verifica la información en pantalla y selecciona una cuenta de cargo (de esta cuenta serán debitados los próximos pagos asociados al PAC)\n6.- Acepta los términos y condiciones\n7.- Presiona el botón confirmar\n8.- Al finalizar visualizarás una pantalla con el resumen de la operación\n'}, 'entityValue': {'entityValue': '¿Cómo inscribir?'}, 'forgetParameter': False}, {'text': 'Configurar monto máximo', 'location': {'text': 'Efectivamente puedes establecer un monto máximo para el PAC en 1 clic, no obstante, debes asegurarte de que los cobros en el servicio a inscribir no excedan dicho monto, sin embargo, aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, por lo que debes ingresar a Scotia GO con tu Rut y clave secreta, para realizar la configuración. '}, 'entityValue': {'entityValue': 'Configurar monto máximo'}, 'forgetParameter': False}, {'text': 'Configurar fecha de término', 'location': {'text': 'Aún no hemos disponibilizado esta funcionalidad de PAC en 1 clic en ScotiaWeb, sin embargo, lo puedes realizar la configuración en Scotia GO ingresando con tu Rut y clave secreta y realizar los siguientes pasos:\n1.- Una vez que hayas seleccionado el servicio que deseas inscribir debes presionar el botón continuar\n2.- En la próxima pantalla debes presionar el link “Configurar pagos”\n3.- Ingresa la información que deseas configurar: monto máximo, fecha de término y/o alias.\n4.- Presiona el botón guardar'}, 'entityValue': {'entityValue': 'Configurar fecha de término'}, 'forgetParameter': False}, {'text': 'Configurar información adicional', 'location': {'text': 'Efectivamente puedes establecer una fecha de término para el PAC, de ser así, los pagos automáticos se realizarán hasta la fecha indicada. Sin embargo, la funcionalidad de PAC en 1 clic actualmente se encuentra disponible sólo a través de Scotia GO, por lo que te puedes ingresar a Scotia GO con tu Rut y clave para realizar la configuración que desees. '}, 'entityValue': {'entityValue': 'Configurar información adicional'}, 'forgetParameter': False}, {'text': 'Inscripción Múltiple', 'location': {'text': 'Efectivamente puedes inscribir más de un servicio, pero aún no hemos disponibilizado la funcionalidad de PAC en 1 clic en el sitio ScotiaWeb, sin embargo, puedes contratar PAC en 1 clic a través de Scotia Go ingresando con tu Rut y clave secreta, una vez hecho el ingreso debes ubicar la sección de ofertas que aparece en el home.'}, 'entityValue': {'entityValue': 'Inscripción múltiple'}, 'forgetParameter': False}, {'text': '¿Qué es PAC en un Clic?', 'location': {'text': 'PAC en 1 clic, es una funcionalidad mediante la cual podrás seleccionar de forma simple y rápida los servicios que quieras inscribir para Pago Automático Mensual desde tu cuenta corriente . Podrás configurar montos máximos, fechas y cuenta de cargo. Para utilizar PAC en un clic selecciona la opción en ScotiaGO, ya que aún no hemos disponibilizado esta funcionalidad en ScotiaWeb.'}, 'entityValue': {'entityValue': '¿Qué es PAC en un clic?'}, 'forgetParameter': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Inscribir un nuevo PAT', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Agregar nueva cuenta"\n5. Ingresa los datos solicitado para realizar correctamente la inscripción del PAT.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Inscribir un nuevo PAT', 'synonyms': ['Inscribir pago automático de tarjeta de crédito']}, 'forgetParameter': False}, {'text': 'Consultar Cuentas Inscritas', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Cuentas inscritas"\n5. Aparecerá el listado de tus PAT inscritos, si quieres más información sobre algún en particular, haz clic en la acción "Ver Detalles".\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Consultar cuentas inscritas'}, 'forgetParameter': False}, {'text': 'Eliminar PAT Inscritos', 'url': 'intent://faq.eliminarpat.info', 'entityValue': {'entityValue': 'Eliminar PAT inscritos', 'synonyms': ['Cancelar PAT', 'Finalizar PAT', 'Desvincular PAT']}, 'forgetParameter': False}, {'text': 'Consultar Histórico de Movimientos', 'location': {'text': 'Para gestionar tus pagos automáticos con tarjeta de crédito (PAT), sigue estos pasos:\n\n1. Selecciona en el menú principal la opción "Transferencias y Pagos".\n2. Dirígete a la lista “Pagos de servicios ”.\n3. Elige la opción “Pago Automático con Tarjeta de Crédito (PAT)”.\n4.  Y selecciona la opción "Histórico de pagos"\n5. Aquí podrás seleccionar los filtros que necesitas para mostrar la información histórica que quieres consultar.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.'}, 'entityValue': {'entityValue': 'Consultar histórico de movimientos'}, 'forgetParameter': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Sí', 'location': {'text': 'A continuación detallamos cómo enrolarte en KeyPass si tienes un nuevo dispositivo móvil, y también el dispositivo antiguo en tu poder. Para este proceso deberás tener ambos dispositivos móviles a mano:\n\n1. Al abrir tu App Scotiabank KeyPass en tu nuevo dispositivo móvil, aparecerá una pantalla de bienvenida donde te solicitaremos tu clave de cajero automático de tu Tarjeta de Débito o Crédito, además tendrás que escribir tu RUT y la clave que usas en tu sitio privado.\n2. Como ya te has enrolado previamente en Scotiabank KeyPass, te aparecerá un mensaje reconociéndote como usuario e indicando que tu clave quedará actualizada. Desde ese momento solo podrás usar la aplicación en ese dispositivo móvil. Deberás confirmar que deseas continuar con el flujo.\n3. Se te indicará un mensaje preguntando si tienes tu dispositivo anterior contigo. Si es así, deberás presionar la opción “Si”.\n4. Te aparecerá un código QR, el cual deberás escanear con tu dispositivo móvil antiguo desde la App KeyPass.\n5. Toma tu dispositivo antiguo y abre tu App KeyPass. Te aprecerán en la pantalla distintas opciones disponibles, deberás presionar aquella que indica “Cambio de Dispositivo”\n6. Un vez presionada la opción “Cambio de teléfono”, se abrirá el escáner que permite capturar el código QR que nos entrega la aplicación KeyPass en el dispositivo móvil nuevo.\n7. Al escanear correctamente el código QR, la aplicación en el dispositivo móvil antiguo te solicitará introducir la clave de KeyPass para autorizar el cambio.\n8. Por otro lado, en el dispositivo móvil nuevo, una vez escaneado el código, podrás crear tu nueva clave de autenticación, la cual debe contener 6 dígitos. Con esta contraseña ya podrás autorizar tus transacciones.\n¡Listo! Has completado todo el proceso y puedes empezar a autorizar tus transacciones como siempre.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['Si']}, 'forgetParameter': False}, {'text': 'No', 'location': {'text': 'A continuación detallamos cómo enrolarte en KeyPass si tienes un nuevo dispositivo móvil, pero no tu dispositivo antiguo:\n\n1. Al abrir tu App Scotiabank KeyPass en tu nuevo dispositivo móvil, aparecerá una pantalla de bienvenida donde te solicitaremos tu clave de cajero automático de tu Tarjeta de Débito o Crédito, además tendrás que escribir tu RUT y la clave que usas en tu sitio privado.\n2. Como ya te has enrolado previamente en Scotiabank KeyPass, te aparecerá un mensaje reconociéndote como usuario e indicando que tu clave quedará actualizada. Desde ese momento solo podrás usar la aplicación en este nuevo disposito móvil. Deberás confirmar que desea continuar con el flujo.\n3. Te aparecerá un mensaje preguntando si tienes tu dispositivo anterior contigo. En este caso, como no tienes tu dispositivo móvil antiguo, deberás elegir la opción “No”.\n4. Se te indicará en la pantalla tu e-mail registrado, al cual se te hará llegar un código QR con el cual podrás activar la aplicación en tu nuevo dispositivo móvil. Deberás presionar el botón “Continuar” para que el e-mail se genere. Si tienes más de un correo registrado, podrás elegir a cuál correo recibir la comunicación.\n5. Se confirmará en pantalla el envío del e-mail y tendrás pocos minutos para revisar tu buzón de correo desde un computador.\n6. Deberás escanear con tu dispositivo móvil desde la App KeyPass el código QR que llegó a tu correo.\n7. Al escanear correctamente el código QR, te solicitará introducir la clave de KeyPass para autorizar el cambio.\n8. El último paso varía dependiendo de tu caso. Indicamos ambos escenarios:\n8.A Opción A: Si tienes tu ScotiaPass, la aplicación te solicitará las coordenadas de tu token o dispositivo de seguridad.\n8.B Opción B: Si no tienes tu ScotiaPass, la aplicación te solicitará ingresar los 8 últimos dígitos de tu Tarjeta de Crédito o Débito.\n¡Listo! Ya puedes usar tu App KeyPass cómo lo haces siempre.\n'}, 'entityValue': {'entityValue': 'No'}, 'forgetParameter': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Activar por primera vez', 'location': {'text': 'Para activar por primera vez en Scotiabank KeyPass, solo deberás seguir los siguientes pasos que se muestran a continuación:\n\n1. Ingresa a la aplicación.\n2. Ingresa tu RUT, tu Clave de Internet y tu Clave de Cajero Automático (Tarjeta de Débito).\n3. Para continuar, necesitamos comprobar que el teléfono que usas coincide con el teléfono seguro que registraste en el banco, para ello te enviaremos un SMS con un Código de Validación.\n4. Ingresa el código que te enviamos por SMS para poder verificar tu teléfono.\n5. Crea tu clave de autorización de 6 dígitos.\nA continuación, si tienes ScotiaPass, te solicitaremos que lo escribas. En caso de que no tengas ScotiaPass, te pediremos los 8 últimos números de tu Tarjeta de Débito.\n¡Listo! Ya puedes autorizar tus transacciones y/o pagos con tu App Scotiabank KeyPass.\n'}, 'entityValue': {'entityValue': 'Activar por primera vez'}, 'forgetParameter': False}, {'text': 'Activar en un nuevo equipo', 'location': {'text': '¿Dispones de tu teléfono antiguo para activar tu Keypass?', 'chips': [{'text': 'Sí', 'location': {'text': 'A continuación detallamos cómo enrolarte en KeyPass si tienes un nuevo dispositivo móvil, y también el dispositivo antiguo en tu poder. Para este proceso deberás tener ambos dispositivos móviles a mano:\n\n1. Al abrir tu App Scotiabank KeyPass en tu nuevo dispositivo móvil, aparecerá una pantalla de bienvenida donde te solicitaremos tu clave de cajero automático de tu Tarjeta de Débito o Crédito, además tendrás que escribir tu RUT y la clave que usas en tu sitio privado.\n2. Como ya te has enrolado previamente en Scotiabank KeyPass, te aparecerá un mensaje reconociéndote como usuario e indicando que tu clave quedará actualizada. Desde ese momento solo podrás usar la aplicación en ese dispositivo móvil. Deberás confirmar que deseas continuar con el flujo.\n3. Se te indicará un mensaje preguntando si tienes tu dispositivo anterior contigo. Si es así, deberás presionar la opción “Si”.\n4. Te aparecerá un código QR, el cual deberás escanear con tu dispositivo móvil antiguo desde la App KeyPass.\n5. Toma tu dispositivo antiguo y abre tu App KeyPass. Te aprecerán en la pantalla distintas opciones disponibles, deberás presionar aquella que indica “Cambio de Dispositivo”\n6. Un vez presionada la opción “Cambio de teléfono”, se abrirá el escáner que permite capturar el código QR que nos entrega la aplicación KeyPass en el dispositivo móvil nuevo.\n7. Al escanear correctamente el código QR, la aplicación en el dispositivo móvil antiguo te solicitará introducir la clave de KeyPass para autorizar el cambio.\n8. Por otro lado, en el dispositivo móvil nuevo, una vez escaneado el código, podrás crear tu nueva clave de autenticación, la cual debe contener 6 dígitos. Con esta contraseña ya podrás autorizar tus transacciones.\n¡Listo! Has completado todo el proceso y puedes empezar a autorizar tus transacciones como siempre.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['Si']}, 'forgetParameter': False}, {'text': 'No', 'location': {'text': 'A continuación detallamos cómo enrolarte en KeyPass si tienes un nuevo dispositivo móvil, pero no tu dispositivo antiguo:\n\n1. Al abrir tu App Scotiabank KeyPass en tu nuevo dispositivo móvil, aparecerá una pantalla de bienvenida donde te solicitaremos tu clave de cajero automático de tu Tarjeta de Débito o Crédito, además tendrás que escribir tu RUT y la clave que usas en tu sitio privado.\n2. Como ya te has enrolado previamente en Scotiabank KeyPass, te aparecerá un mensaje reconociéndote como usuario e indicando que tu clave quedará actualizada. Desde ese momento solo podrás usar la aplicación en este nuevo disposito móvil. Deberás confirmar que desea continuar con el flujo.\n3. Te aparecerá un mensaje preguntando si tienes tu dispositivo anterior contigo. En este caso, como no tienes tu dispositivo móvil antiguo, deberás elegir la opción “No”.\n4. Se te indicará en la pantalla tu e-mail registrado, al cual se te hará llegar un código QR con el cual podrás activar la aplicación en tu nuevo dispositivo móvil. Deberás presionar el botón “Continuar” para que el e-mail se genere. Si tienes más de un correo registrado, podrás elegir a cuál correo recibir la comunicación.\n5. Se confirmará en pantalla el envío del e-mail y tendrás pocos minutos para revisar tu buzón de correo desde un computador.\n6. Deberás escanear con tu dispositivo móvil desde la App KeyPass el código QR que llegó a tu correo.\n7. Al escanear correctamente el código QR, te solicitará introducir la clave de KeyPass para autorizar el cambio.\n8. El último paso varía dependiendo de tu caso. Indicamos ambos escenarios:\n8.A Opción A: Si tienes tu ScotiaPass, la aplicación te solicitará las coordenadas de tu token o dispositivo de seguridad.\n8.B Opción B: Si no tienes tu ScotiaPass, la aplicación te solicitará ingresar los 8 últimos dígitos de tu Tarjeta de Crédito o Débito.\n¡Listo! Ya puedes usar tu App KeyPass cómo lo haces siempre.\n'}, 'entityValue': {'entityValue': 'No'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Activar en un nuevo equipo'}, 'forgetParameter': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Activar Tarjeta', 'url': 'intent://faq.tarjetasdebitoactivar.link', 'entityValue': {'entityValue': 'Activar tarjeta débito', 'synonyms': ['activar TD']}, 'forgetParameter': False}, {'text': 'Activar Clave', 'url': 'intent://faq.tarjetasdebitoactivar.link', 'entityValue': {'entityValue': 'Activar clave Tarjeta Débito', 'synonyms': ['activación clave td']}, 'forgetParameter': False}, {'text': 'Activar para uso Internacional', 'url': 'intent://faq.tarjetadebactivainternacional.link', 'entityValue': {'entityValue': 'Habilitar tarjeta de débito para uso internacional', 'synonyms': ['habilitar uso internacional', 'habilitar TD en el extranjero']}, 'forgetParameter': False}, {'text': 'Habilitar compras online tarjeta adicional', 'location': {'text': 'Si quieres habilitar las compras online para Tarjetas adicionales, sigue estos pasos:\n\n1. Revisa si el estado de tus Tarjetas adicionales dice “Habilitado”. En caso contrario presiona el botón “Habilitar Servicio”.\n2. Activa el botón “Cambiar Clave Adicional”.\n3. Genera una clave para el cliente adicional.\nIMPORTANTE\n- Esta clave solo servirá para el cliente adicional en el flujo de compras online vía WEBPAY.\n- La clave no permite al cliente adicional acceder al sitio web.\n- El cliente titular debe entregar esta clave a su adicional.\n'}, 'entityValue': {'entityValue': 'Habilitar tarjeta débito', 'synonyms': ['habilitar td']}, 'forgetParameter': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Habilitar Titular', 'location': {'text': 'Para habilitar las compras online con Tarjetas de Crédito Scotiabank, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjetas".\n2. Dirígete a la lista “Configuración”.\n3. Elige la opción “Habilitar compras online”.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n1. Ingresa a la aplicación.\n2. Ingresa tu RUT, tu Clave de Internet y tu Clave de Cajero Automático (Tarjeta de Débito).\n3. Para continuar, necesitamos comprobar que el teléfono que usas coincide con el teléfono seguro que registraste en el banco, para ello te enviaremos un SMS con un Código de Validación.\n4. Ingresa el código que te enviamos por SMS para poder verificar tu teléfono.\n5. Crea tu clave de autorización de 6 dígitos.\nA continuación, si tienes ScotiaPass, te solicitaremos que lo escribas. En caso de que no tengas ScotiaPass, te pediremos los 8 últimos números de tu Tarjeta de Débito.\n¡Listo! Ya puedes autorizar tus transacciones y/o pagos con tu App Scotiabank KeyPass.\n'}, 'entityValue': {'entityValue': 'Titular'}, 'forgetParameter': False}, {'text': 'Habilitar Adicional', 'location': {'text': 'Si quieres habilitar las compras online para Tarjetas adicionales, sigue estos pasos:\n\n1. Revisa si el estado de tus Tarjetas adicionales dice “Habilitado”. En caso contrario presiona el botón “Habilitar Servicio”.\n2. Activa el botón “Cambiar Clave Adicional”.\n3. Genera una clave para el cliente adicional.\nIMPORTANTE\n- Esta clave solo servirá para el cliente adicional en el flujo de compras online vía WEBPAY.\n- La clave no permite al cliente adicional acceder al sitio web.\n- El cliente titular debe entregar esta clave a su adicional.\n'}, 'entityValue': {'entityValue': 'Habilitar Adicional'}, 'forgetParameter': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Activar tarjeta', 'url': 'intent://faq.tarjetascreditoactivar.link', 'entityValue': {'entityValue': 'Activar Tarjeta Crédito', 'synonyms': ['activar tc', 'activar tarjeta credito']}, 'forgetParameter': False}, {'text': 'Activar clave', 'url': 'intent://faq.tarjetascreditoactivar.link', 'entityValue': {'entityValue': 'Activar Clave', 'synonyms': ['Activación Clave']}, 'forgetParameter': False}, {'text': 'Habilitar compras online', 'location': {'text': '¿Qué quieres conocer sobre habilitación de compras Online?', 'chips': [{'text': 'Habilitar Titular', 'location': {'text': 'Para habilitar las compras online con Tarjetas de Crédito Scotiabank, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjetas".\n2. Dirígete a la lista “Configuración”.\n3. Elige la opción “Habilitar compras online”.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n1. Ingresa a la aplicación.\n2. Ingresa tu RUT, tu Clave de Internet y tu Clave de Cajero Automático (Tarjeta de Débito).\n3. Para continuar, necesitamos comprobar que el teléfono que usas coincide con el teléfono seguro que registraste en el banco, para ello te enviaremos un SMS con un Código de Validación.\n4. Ingresa el código que te enviamos por SMS para poder verificar tu teléfono.\n5. Crea tu clave de autorización de 6 dígitos.\nA continuación, si tienes ScotiaPass, te solicitaremos que lo escribas. En caso de que no tengas ScotiaPass, te pediremos los 8 últimos números de tu Tarjeta de Débito.\n¡Listo! Ya puedes autorizar tus transacciones y/o pagos con tu App Scotiabank KeyPass.\n'}, 'entityValue': {'entityValue': 'Titular'}, 'forgetParameter': False}, {'text': 'Habilitar Adicional', 'location': {'text': 'Si quieres habilitar las compras online para Tarjetas adicionales, sigue estos pasos:\n\n1. Revisa si el estado de tus Tarjetas adicionales dice “Habilitado”. En caso contrario presiona el botón “Habilitar Servicio”.\n2. Activa el botón “Cambiar Clave Adicional”.\n3. Genera una clave para el cliente adicional.\nIMPORTANTE\n- Esta clave solo servirá para el cliente adicional en el flujo de compras online vía WEBPAY.\n- La clave no permite al cliente adicional acceder al sitio web.\n- El cliente titular debe entregar esta clave a su adicional.\n'}, 'entityValue': {'entityValue': 'Habilitar Adicional'}, 'forgetParameter': False}], 'buttons': [{'text': 'Habilitar titular', 'url': 'pl.habilitarcomprasonlinehabilitartitular.link'}, {'text': 'Habilitar adicional', 'url': 'pl.habilitarcomprasonlinehabilitaradicional.info'}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Habilitar compras online', 'synonyms': ['habilitar compras web']}, 'forgetParameter': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Tarjeta de Crédito', 'location': {'text': 'Respecto a la activación de las tarjetas de crédito, ¿Qué opción necesitas activar?', 'entityType': {'entityType': 'tipo-activacion-tarjeta-credito', 'entityValue': [{'entityValue': 'Activar Tarjeta Crédito', 'synonyms': ['activar tc', 'activar tarjeta credito']}, {'entityValue': 'Activar Clave', 'synonyms': ['Activación Clave']}, {'entityValue': 'Habilitar compras online', 'synonyms': ['habilitar compras web']}]}, 'chips': [{'text': 'Activar tarjeta', 'url': 'intent://faq.tarjetascreditoactivar.link', 'entityValue': {'entityValue': 'Activar Tarjeta Crédito', 'synonyms': ['activar tc', 'activar tarjeta credito']}, 'forgetParameter': False}, {'text': 'Activar clave', 'url': 'intent://faq.tarjetascreditoactivar.link', 'entityValue': {'entityValue': 'Activar Clave', 'synonyms': ['Activación Clave']}, 'forgetParameter': False}, {'text': 'Habilitar compras online', 'location': {'text': '¿Qué quieres conocer sobre habilitación de compras Online?', 'chips': [{'text': 'Habilitar Titular', 'location': {'text': 'Para habilitar las compras online con Tarjetas de Crédito Scotiabank, sigue éstas indicaciones:\n\n1. Selecciona en el menú principal la opción "Tarjetas".\n2. Dirígete a la lista “Configuración”.\n3. Elige la opción “Habilitar compras online”.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n1. Ingresa a la aplicación.\n2. Ingresa tu RUT, tu Clave de Internet y tu Clave de Cajero Automático (Tarjeta de Débito).\n3. Para continuar, necesitamos comprobar que el teléfono que usas coincide con el teléfono seguro que registraste en el banco, para ello te enviaremos un SMS con un Código de Validación.\n4. Ingresa el código que te enviamos por SMS para poder verificar tu teléfono.\n5. Crea tu clave de autorización de 6 dígitos.\nA continuación, si tienes ScotiaPass, te solicitaremos que lo escribas. En caso de que no tengas ScotiaPass, te pediremos los 8 últimos números de tu Tarjeta de Débito.\n¡Listo! Ya puedes autorizar tus transacciones y/o pagos con tu App Scotiabank KeyPass.\n'}, 'entityValue': {'entityValue': 'Titular'}, 'forgetParameter': False}, {'text': 'Habilitar Adicional', 'location': {'text': 'Si quieres habilitar las compras online para Tarjetas adicionales, sigue estos pasos:\n\n1. Revisa si el estado de tus Tarjetas adicionales dice “Habilitado”. En caso contrario presiona el botón “Habilitar Servicio”.\n2. Activa el botón “Cambiar Clave Adicional”.\n3. Genera una clave para el cliente adicional.\nIMPORTANTE\n- Esta clave solo servirá para el cliente adicional en el flujo de compras online vía WEBPAY.\n- La clave no permite al cliente adicional acceder al sitio web.\n- El cliente titular debe entregar esta clave a su adicional.\n'}, 'entityValue': {'entityValue': 'Habilitar Adicional'}, 'forgetParameter': False}], 'buttons': [{'text': 'Habilitar titular', 'url': 'pl.habilitarcomprasonlinehabilitartitular.link'}, {'text': 'Habilitar adicional', 'url': 'pl.habilitarcomprasonlinehabilitaradicional.info'}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Habilitar compras online', 'synonyms': ['habilitar compras web']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}, 'forgetParameter': False}, {'text': 'Tarjeta de Débito', 'location': {'text': 'Respecto a la activación de las tarjetas de crédito, ¿Qué opción necesitas activar?', 'entityType': {'entityType': 'tipo-activacion-tarjeta-debito', 'entityValue': [{'entityValue': 'Activar tarjeta débito', 'synonyms': ['activar TD']}, {'entityValue': 'Activar clave Tarjeta Débito', 'synonyms': ['activación clave td']}, {'entityValue': 'Habilitar tarjeta débito', 'synonyms': ['habilitar td']}, {'entityValue': 'Habilitar tarjeta de débito para uso internacional', 'synonyms': ['habilitar uso internacional', 'habilitar TD en el extranjero']}]}, 'chips': [{'text': 'Activar Tarjeta', 'url': 'intent://faq.tarjetasdebitoactivar.link', 'entityValue': {'entityValue': 'Activar tarjeta débito', 'synonyms': ['activar TD']}, 'forgetParameter': False}, {'text': 'Activar Clave', 'url': 'intent://faq.tarjetasdebitoactivar.link', 'entityValue': {'entityValue': 'Activar clave Tarjeta Débito', 'synonyms': ['activación clave td']}, 'forgetParameter': False}, {'text': 'Activar para uso Internacional', 'url': 'intent://faq.tarjetadebactivainternacional.link', 'entityValue': {'entityValue': 'Habilitar tarjeta de débito para uso internacional', 'synonyms': ['habilitar uso internacional', 'habilitar TD en el extranjero']}, 'forgetParameter': False}, {'text': 'Habilitar compras online tarjeta adicional', 'location': {'text': 'Si quieres habilitar las compras online para Tarjetas adicionales, sigue estos pasos:\n\n1. Revisa si el estado de tus Tarjetas adicionales dice “Habilitado”. En caso contrario presiona el botón “Habilitar Servicio”.\n2. Activa el botón “Cambiar Clave Adicional”.\n3. Genera una clave para el cliente adicional.\nIMPORTANTE\n- Esta clave solo servirá para el cliente adicional en el flujo de compras online vía WEBPAY.\n- La clave no permite al cliente adicional acceder al sitio web.\n- El cliente titular debe entregar esta clave a su adicional.\n'}, 'entityValue': {'entityValue': 'Habilitar tarjeta débito', 'synonyms': ['habilitar td']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Tarjeta de Débito', 'synonyms': ['tarjeta debito', 'td', 'tdd', 'tdb']}, 'forgetParameter': False}, {'text': 'Scotia Pass', 'location': {'text': 'Puedo ayudarte con tu Keypass! ¿Quieres activar en un nuevo dispositivo o activar por primera vez?', 'chips': [{'text': 'Activar por primera vez', 'location': {'text': 'Para activar por primera vez en Scotiabank KeyPass, solo deberás seguir los siguientes pasos que se muestran a continuación:\n\n1. Ingresa a la aplicación.\n2. Ingresa tu RUT, tu Clave de Internet y tu Clave de Cajero Automático (Tarjeta de Débito).\n3. Para continuar, necesitamos comprobar que el teléfono que usas coincide con el teléfono seguro que registraste en el banco, para ello te enviaremos un SMS con un Código de Validación.\n4. Ingresa el código que te enviamos por SMS para poder verificar tu teléfono.\n5. Crea tu clave de autorización de 6 dígitos.\nA continuación, si tienes ScotiaPass, te solicitaremos que lo escribas. En caso de que no tengas ScotiaPass, te pediremos los 8 últimos números de tu Tarjeta de Débito.\n¡Listo! Ya puedes autorizar tus transacciones y/o pagos con tu App Scotiabank KeyPass.\n'}, 'entityValue': {'entityValue': 'Activar por primera vez'}, 'forgetParameter': False}, {'text': 'Activar en un nuevo equipo', 'location': {'text': '¿Dispones de tu teléfono antiguo para activar tu Keypass?', 'chips': [{'text': 'Sí', 'location': {'text': 'A continuación detallamos cómo enrolarte en KeyPass si tienes un nuevo dispositivo móvil, y también el dispositivo antiguo en tu poder. Para este proceso deberás tener ambos dispositivos móviles a mano:\n\n1. Al abrir tu App Scotiabank KeyPass en tu nuevo dispositivo móvil, aparecerá una pantalla de bienvenida donde te solicitaremos tu clave de cajero automático de tu Tarjeta de Débito o Crédito, además tendrás que escribir tu RUT y la clave que usas en tu sitio privado.\n2. Como ya te has enrolado previamente en Scotiabank KeyPass, te aparecerá un mensaje reconociéndote como usuario e indicando que tu clave quedará actualizada. Desde ese momento solo podrás usar la aplicación en ese dispositivo móvil. Deberás confirmar que deseas continuar con el flujo.\n3. Se te indicará un mensaje preguntando si tienes tu dispositivo anterior contigo. Si es así, deberás presionar la opción “Si”.\n4. Te aparecerá un código QR, el cual deberás escanear con tu dispositivo móvil antiguo desde la App KeyPass.\n5. Toma tu dispositivo antiguo y abre tu App KeyPass. Te aprecerán en la pantalla distintas opciones disponibles, deberás presionar aquella que indica “Cambio de Dispositivo”\n6. Un vez presionada la opción “Cambio de teléfono”, se abrirá el escáner que permite capturar el código QR que nos entrega la aplicación KeyPass en el dispositivo móvil nuevo.\n7. Al escanear correctamente el código QR, la aplicación en el dispositivo móvil antiguo te solicitará introducir la clave de KeyPass para autorizar el cambio.\n8. Por otro lado, en el dispositivo móvil nuevo, una vez escaneado el código, podrás crear tu nueva clave de autenticación, la cual debe contener 6 dígitos. Con esta contraseña ya podrás autorizar tus transacciones.\n¡Listo! Has completado todo el proceso y puedes empezar a autorizar tus transacciones como siempre.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['Si']}, 'forgetParameter': False}, {'text': 'No', 'location': {'text': 'A continuación detallamos cómo enrolarte en KeyPass si tienes un nuevo dispositivo móvil, pero no tu dispositivo antiguo:\n\n1. Al abrir tu App Scotiabank KeyPass en tu nuevo dispositivo móvil, aparecerá una pantalla de bienvenida donde te solicitaremos tu clave de cajero automático de tu Tarjeta de Débito o Crédito, además tendrás que escribir tu RUT y la clave que usas en tu sitio privado.\n2. Como ya te has enrolado previamente en Scotiabank KeyPass, te aparecerá un mensaje reconociéndote como usuario e indicando que tu clave quedará actualizada. Desde ese momento solo podrás usar la aplicación en este nuevo disposito móvil. Deberás confirmar que desea continuar con el flujo.\n3. Te aparecerá un mensaje preguntando si tienes tu dispositivo anterior contigo. En este caso, como no tienes tu dispositivo móvil antiguo, deberás elegir la opción “No”.\n4. Se te indicará en la pantalla tu e-mail registrado, al cual se te hará llegar un código QR con el cual podrás activar la aplicación en tu nuevo dispositivo móvil. Deberás presionar el botón “Continuar” para que el e-mail se genere. Si tienes más de un correo registrado, podrás elegir a cuál correo recibir la comunicación.\n5. Se confirmará en pantalla el envío del e-mail y tendrás pocos minutos para revisar tu buzón de correo desde un computador.\n6. Deberás escanear con tu dispositivo móvil desde la App KeyPass el código QR que llegó a tu correo.\n7. Al escanear correctamente el código QR, te solicitará introducir la clave de KeyPass para autorizar el cambio.\n8. El último paso varía dependiendo de tu caso. Indicamos ambos escenarios:\n8.A Opción A: Si tienes tu ScotiaPass, la aplicación te solicitará las coordenadas de tu token o dispositivo de seguridad.\n8.B Opción B: Si no tienes tu ScotiaPass, la aplicación te solicitará ingresar los 8 últimos dígitos de tu Tarjeta de Crédito o Débito.\n¡Listo! Ya puedes usar tu App KeyPass cómo lo haces siempre.\n'}, 'entityValue': {'entityValue': 'No'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Activar en un nuevo equipo'}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Scotia Pass', 'synonyms': ['keypass', 'scotiapass', 'pin pass']}, 'forgetParameter': False}]</t>
-  </si>
-  <si>
-    <t>[{'sys': {'type': 'Link', 'linkType': 'Entry', 'id': '1RiwNrldGt14HwmHvjyUSV'}}, {'sys': {'type': 'Link', 'linkType': 'Entry', 'id': 'BRxpBDkUWnS3qpczJ3Sia'}}, {'sys': {'type': 'Link', 'linkType': 'Entry', 'id': '2YwbXdW8fus7BA2afbRTCM'}}, {'sys': {'type': 'Link', 'linkType': 'Entry', 'id': '1KqbSQVDayxBT0v0cMXx1a'}}, {'sys': {'type': 'Link', 'linkType': 'Entry', 'id': '1IJtK0c91tV4kH1dxJHOKH'}}, {'sys': {'type': 'Link', 'linkType': 'Entry', 'id': '6QFnvwgp704D21QC7qIJpM'}}, {'sys': {'type': 'Link', 'linkType': 'Entry', 'id': '3Ga3uOL3etPd6x7Dr6QvRv'}}, {'sys': {'type': 'Link', 'linkType': 'Entry', 'id': '1ntoUUlnQ6Rr0P4rEHE2Rn'}}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'Scotia Puntos', 'location': {'text': 'Puedes canjear productos o servicios en los establecimientos afiliados, acumulando puntos por el uso de tus tarjetas de débito y crédito Scotiabank.', 'list': [{'text': 'Acumulo Puntos', 'url': 'intent://flow.lealtad.acumular'}, {'text': 'Canjea Puntos', 'url': 'intent://flow.lealtad.canjear'}]}, 'entityValue': {'entityValue': 'Scotia Puntos'}, 'forgetParameter': False}, {'text': 'Millas', 'location': {'text': 'Acumula millas por el uso de tus Tarjetas de Crédito Scotiabank AAdvantage®, las cuales puedes canjear en viajes, upgrades, etc.', 'list': [{'text': 'Acumulo Puntos', 'url': 'intent://flow.lealtad.acumular'}, {'text': 'Canjea Millas', 'url': 'intent://flow.lealtad.canjear'}]}, 'entityValue': {'entityValue': 'Millas'}, 'forgetParameter': False}]</t>
-  </si>
-  <si>
-    <t>[{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]</t>
-  </si>
-  <si>
     <t>[{'text': 'Habilitar titular', 'url': 'pl.habilitarcomprasonlinehabilitartitular.link'}, {'text': 'Habilitar adicional', 'url': 'pl.habilitarcomprasonlinehabilitaradicional.info'}]</t>
   </si>
   <si>
@@ -824,16 +896,58 @@
     <t>[{'text': 'Acumulo Puntos', 'url': 'intent://flow.lealtad.acumular'}, {'text': 'Canjea Puntos', 'url': 'intent://flow.lealtad.canjear'}]</t>
   </si>
   <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>entityValue</t>
+  </si>
+  <si>
+    <t>forgetParameter</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
-    <t>entityValue</t>
-  </si>
-  <si>
-    <t>forgetParameter</t>
-  </si>
-  <si>
-    <t>url</t>
+    <t>Anular un pago</t>
+  </si>
+  <si>
+    <t>Problema con un pago</t>
+  </si>
+  <si>
+    <t>Generar un Pago</t>
+  </si>
+  <si>
+    <t>Información de pagos automáticos</t>
+  </si>
+  <si>
+    <t>Reversar pago</t>
+  </si>
+  <si>
+    <t>Eliminar pago automático</t>
+  </si>
+  <si>
+    <t>PAT</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>Tarjeta de Crédito</t>
+  </si>
+  <si>
+    <t>Línea de Crédito</t>
+  </si>
+  <si>
+    <t>Seguro</t>
+  </si>
+  <si>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>Crédito Hipotecario</t>
+  </si>
+  <si>
+    <t>Crédito de consumo</t>
   </si>
   <si>
     <t>Pagar Créditos</t>
@@ -842,15 +956,9 @@
     <t>CAE (Crédito con Aval del Estado)</t>
   </si>
   <si>
-    <t>Crédito Hipotecario</t>
-  </si>
-  <si>
     <t>Crédito Automotriz</t>
   </si>
   <si>
-    <t>Crédito de consumo</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -980,16 +1088,448 @@
     <t>Activar tarjeta</t>
   </si>
   <si>
-    <t>Tarjeta de Crédito</t>
-  </si>
-  <si>
     <t>Millas</t>
   </si>
   <si>
     <t>Scotia Puntos</t>
   </si>
   <si>
-    <t>{'text': 'OK, y ¿cuál crédito quieres pagar?', 'entityType': {'entityType': 'informacion-pagos-generar-creditos', 'entityValue': [{'entityValue': 'Pago CAE', 'synonyms': ['Pagar Crédito con aval del estado', 'Pagar crédito con aval', 'pagar cae']}, {'entityValue': 'Pago crédito de consumo', 'synonyms': ['pagar consumo', 'pago consumo']}, {'entityValue': 'Pago crédito hipotecario', 'synonyms': ['Pago chip', 'pagar hipotecario', 'pagar dividendo']}, {'entityValue': 'Pago crédito automotriz'}]}, 'chips': [{'text': 'Crédito de consumo', 'location': {'text': '¿Quieres pagar desde tu cuenta Scotia?', 'entityType': {'entityType': 'tipo-respuesta-sino', 'entityValue': [{'entityValue': 'Sí', 'synonyms': ['si']}, {'entityValue': 'No', 'synonyms': ['nop']}]}, 'chips': [{'text': 'Sí', 'location': {'text': 'Para transferir el pago de tu crédito de consumo, sigue estas indicaciones:\n\n1. Selecciona en el menú "Créditos".\n2. En el submenú "Crédito de consumo" selecciona la opción "Pagar cuota de crédito".\n3. Selecciona el crédito que deseas pagar.\n4. Luego haz clic en botón "Pago Cuota"\n5. Selecciona la cuenta de cargo y la cuota que deseas pagar.\n6. Para finalizar haz clic en el botón "Pagar".\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['si']}, 'forgetParameter': False}, {'text': 'No', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'No', 'synonyms': ['nop']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Pago crédito de consumo', 'synonyms': ['pagar consumo', 'pago consumo']}, 'forgetParameter': False}, {'text': 'CAE (Crédito con Aval del Estado)', 'url': 'intent://faq.pagocae.info', 'entityValue': {'entityValue': 'Pago CAE', 'synonyms': ['Pagar Crédito con aval del estado', 'Pagar crédito con aval', 'pagar cae']}, 'forgetParameter': False}, {'text': 'Crédito Automotriz', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'Pago crédito automotriz'}, 'forgetParameter': False}, {'text': 'Crédito Hipotecario', 'location': {'text': 'Puedes pagar los dividendos de tu crédito hipotecario, siguiendo estos pasos:\n\n1. Selecciona en el menú principal la opción "Crédito".\n2. Dirígete a la lista "Crédito Hipotecario".\n3. Elige la opción “Pagar dividendos”.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Pago crédito hipotecario', 'synonyms': ['Pago chip', 'pagar hipotecario', 'pagar dividendo']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}</t>
+    <t>intent://flow.anularpagos.info</t>
+  </si>
+  <si>
+    <t>intent://flow.incidenciapagos.info</t>
+  </si>
+  <si>
+    <t>intent://flow.generarpagos.info</t>
+  </si>
+  <si>
+    <t>intent://flow.infopagosautom.info</t>
+  </si>
+  <si>
+    <t>intent://faq.eliminarpat.info</t>
+  </si>
+  <si>
+    <t>intent://faq.eliminarpac.info</t>
+  </si>
+  <si>
+    <t>intent://faq.pasolineadigital.info</t>
+  </si>
+  <si>
+    <t>intent://faq.pagocae.info</t>
+  </si>
+  <si>
+    <t>intent://faq.pagocredconsincta.info</t>
+  </si>
+  <si>
+    <t>intent://faq.infogralpac.info</t>
+  </si>
+  <si>
+    <t>intent://faq.eliminarPAC.info</t>
+  </si>
+  <si>
+    <t>intent://faq.tarjetadebactivainternacional.link</t>
+  </si>
+  <si>
+    <t>intent://faq.tarjetasdebitoactivar.link</t>
+  </si>
+  <si>
+    <t>intent://faq.tarjetascreditoactivar.link</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Anular pago', 'synonyms': ['Eliminar pago', 'cancelar pago', 'reversar pago']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Problema con un pago', 'synonyms': ['Problema con pago', 'incidencia pago']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Generar pago', 'synonyms': ['pagar', 'cómo pagar', 'quiero pagar']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Información Pagos Automáticos', 'synonyms': ['Información PAC', 'Información PAT']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Reversar pago', 'synonyms': ['Retroceder un pago', 'Deshacer un pago', 'Cancelar un pago', 'retroceder pago', 'deshacer pago', 'cancelar pago', 'anular pago']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Eliminar pago automático', 'synonyms': ['Finalizar pago automático', 'Desvincular pago automático', 'Terminar pago automático.']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Línea de Crédito'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Seguro'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Pagar Crédito'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Pago crédito automotriz'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'No', 'synonyms': ['nop']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Sí', 'synonyms': ['si']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Pagar Tarjeta de Crédito', 'synonyms': ['Pagar TC']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Deuda en dólares'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Pagar deuda internacional'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Pagar deuda nacional'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Pago sin cuenta corriente', 'synonyms': ['Pago sin cta cte']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Pago mínimo'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Pago parcial de tarjeta'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Pago deuda total', 'synonyms': ['Pago total deuda']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'PAC en 1 Clic'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': '¿Qué es PAC en un clic?'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Inscripción múltiple'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Consultar histórico de movimientos'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Eliminar PAT inscritos', 'synonyms': ['Cancelar PAT', 'Finalizar PAT', 'Desvincular PAT']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Consultar cuentas inscritas'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Inscribir un nuevo PAT', 'synonyms': ['Inscribir pago automático de tarjeta de crédito']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Configurar información adicional'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Configurar fecha de término'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Configurar monto máximo'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': '¿Cómo inscribir?'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Consulta Pagos Banco'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Consulta Mandatos Banco'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Administrar PAC', 'synonyms': ['Gestionar PAC.']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Inscripción desde oferta'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'No'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Sí', 'synonyms': ['Si']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Activar en un nuevo equipo'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Activar por primera vez'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Scotia Pass', 'synonyms': ['keypass', 'scotiapass', 'pin pass']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Habilitar tarjeta débito', 'synonyms': ['habilitar td']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Habilitar tarjeta de débito para uso internacional', 'synonyms': ['habilitar uso internacional', 'habilitar TD en el extranjero']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Activar clave Tarjeta Débito', 'synonyms': ['activación clave td']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Activar tarjeta débito', 'synonyms': ['activar TD']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Tarjeta de Débito', 'synonyms': ['tarjeta debito', 'td', 'tdd', 'tdb']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Habilitar Adicional'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Titular'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Habilitar compras online', 'synonyms': ['habilitar compras web']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Activar Clave', 'synonyms': ['Activación Clave']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Activar Tarjeta Crédito', 'synonyms': ['activar tc', 'activar tarjeta credito']}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Millas'}</t>
+  </si>
+  <si>
+    <t>{'entityValue': 'Scotia Puntos'}</t>
+  </si>
+  <si>
+    <t>2MGFJwqMW869Ojm3zmiEUz</t>
+  </si>
+  <si>
+    <t>7x6b0zcLgF6ThRTqewfqPh</t>
+  </si>
+  <si>
+    <t>kQQ6LLFtskADBE7Cru359</t>
+  </si>
+  <si>
+    <t>cPCrqUeDKKQmDV61e3EQp</t>
+  </si>
+  <si>
+    <t>4bQ8IxEJqLL61UirbhZUpI</t>
+  </si>
+  <si>
+    <t>4IvsrAS9t0G8t2NJq54XRI</t>
+  </si>
+  <si>
+    <t>54fexWxLtOPrnQLrxLn2Z6</t>
+  </si>
+  <si>
+    <t>13wk1Vej8so66DihNN2D28</t>
+  </si>
+  <si>
+    <t>21Yid3e2gWuW3khi49pDnc</t>
+  </si>
+  <si>
+    <t>2OeFmZ25QezIv8yKPrhzvm</t>
+  </si>
+  <si>
+    <t>5fa0gvBHr3PAymBxMe94A9</t>
+  </si>
+  <si>
+    <t>74tcOxv5sOlQLzYEo2L3ei</t>
+  </si>
+  <si>
+    <t>4lIRqR3bkDEvE7GZXd9QKJ</t>
+  </si>
+  <si>
+    <t>6Ru2zcE5arWhtI2n4jkSFn</t>
+  </si>
+  <si>
+    <t>5ecTAuPgISNT2sQ54aMvtM</t>
+  </si>
+  <si>
+    <t>1vTokwMhfutliPwq7qmfTw</t>
+  </si>
+  <si>
+    <t>70lb2nniJPJOJagEyfjtlN</t>
+  </si>
+  <si>
+    <t>6ETrGXJnT3ePkPVyMo6sPu</t>
+  </si>
+  <si>
+    <t>26QNm8zqPljdO2LpsShExC</t>
+  </si>
+  <si>
+    <t>5r0qtimMJgm7isrTUdGDT0</t>
+  </si>
+  <si>
+    <t>7dicGLHm2X1MitPHiZC9AD</t>
+  </si>
+  <si>
+    <t>7JAwNsdUifgR0U09hvQfRb</t>
+  </si>
+  <si>
+    <t>1JKQowMy0VBhoAGMulbNaJ</t>
+  </si>
+  <si>
+    <t>50WjNlQ4hQAyPm8XbOZGwY</t>
+  </si>
+  <si>
+    <t>1dkzGtVLY7tAOWMHSb6hVX</t>
+  </si>
+  <si>
+    <t>Kc2kxTt8PSqy9ZP017JOr</t>
+  </si>
+  <si>
+    <t>5A4Spetk6jl56m5N0K0sj1</t>
+  </si>
+  <si>
+    <t>43ugl6rkOMZzJYr8rCJUj</t>
+  </si>
+  <si>
+    <t>6fS1Ht33VzUckCyxQPRljV</t>
+  </si>
+  <si>
+    <t>6t40YTiLlqX2Jx0H3SkUa8</t>
+  </si>
+  <si>
+    <t>1QG3hZgLB4stuTpw0xVGEe</t>
+  </si>
+  <si>
+    <t>1lmsEJk16iApfZDQGgkXZO</t>
+  </si>
+  <si>
+    <t>6pC4t2EwIFZz5q7oXsdMw9</t>
+  </si>
+  <si>
+    <t>4BhOWCd00Qk2SLKPErZW0A</t>
+  </si>
+  <si>
+    <t>6QEZX3io1V2BiyWC77s5jL</t>
+  </si>
+  <si>
+    <t>5IHbAvRkYiT2XqQBCe9zNo</t>
+  </si>
+  <si>
+    <t>72UczeA6EMrXzfnEFXWQAD</t>
+  </si>
+  <si>
+    <t>7aeR04PGP3DDwAy8UclFPe</t>
+  </si>
+  <si>
+    <t>ns5rIJIRPhr8chpii8BZ2</t>
+  </si>
+  <si>
+    <t>1A1bxJD4x8BQYuz0fPiPiD</t>
+  </si>
+  <si>
+    <t>2i3lhsA73gwcTKKW4yj083</t>
+  </si>
+  <si>
+    <t>7iNqNKO5Yl82BaSM3DzAPv</t>
+  </si>
+  <si>
+    <t>5ToWeHbOL4hoblSimY7ltO</t>
+  </si>
+  <si>
+    <t>42ww4qvge2cXkYLAVHzK4G</t>
+  </si>
+  <si>
+    <t>2CscQhHdXb9UlM7irRNgq2</t>
+  </si>
+  <si>
+    <t>GSrbaHTNJXboj9ez0Vu0Q</t>
+  </si>
+  <si>
+    <t>50bZxkJNAgLHt8XU691F7j</t>
+  </si>
+  <si>
+    <t>1KlOoquLSLG8ICdX9XxR98</t>
+  </si>
+  <si>
+    <t>1C1SugYUmhqXRGdjolekoN</t>
+  </si>
+  <si>
+    <t>21fFPz2WGsPj22TpE8EVkv</t>
+  </si>
+  <si>
+    <t>40Kfl2YtijFLOsp9nnPhmg</t>
+  </si>
+  <si>
+    <t>4BnCmrzqVjfeCEJ7N0KzZS</t>
+  </si>
+  <si>
+    <t>5WiQAzch6xRzgIDyojQPN0</t>
+  </si>
+  <si>
+    <t>Ad4nWZHhHaZm4TFkKlweJ</t>
+  </si>
+  <si>
+    <t>1OFdztlY0KSc6yJtiWrjEb</t>
+  </si>
+  <si>
+    <t>QTpNTz4tO1l342HUyv5G2</t>
+  </si>
+  <si>
+    <t>4YJjQvOXsrrYpgzWYTUzdo</t>
+  </si>
+  <si>
+    <t>6rpWBLd1RzYowTOZ1Ing7M</t>
+  </si>
+  <si>
+    <t>3bXcDL6LbY1xPIHx9qiswO</t>
+  </si>
+  <si>
+    <t>3jotgggM4f2T0oFwOE7041</t>
+  </si>
+  <si>
+    <t>7pcTuSAJiqf1fbTp8Mx21u</t>
+  </si>
+  <si>
+    <t>2qe4P8mLZLo3O32yPabWXB</t>
+  </si>
+  <si>
+    <t>4DTbKZIBry0ScJeYsW7RKf</t>
+  </si>
+  <si>
+    <t>7ztV5CfgbVhGGwr2NriHba</t>
+  </si>
+  <si>
+    <t>50dNCzmkzVmQXVn419Sqls</t>
+  </si>
+  <si>
+    <t>7AzNU9rFACvrGH2rUtgUJE</t>
+  </si>
+  <si>
+    <t>7pKESGM2SVXUXizGcQlsGq</t>
+  </si>
+  <si>
+    <t>chipResponse</t>
+  </si>
+  <si>
+    <t>['entityValue']</t>
+  </si>
+  <si>
+    <t>['location', 'entityValue']</t>
+  </si>
+  <si>
+    <t>{'text': 'Cuéntame, ¿Qué tipo de pago quieres reversar?', 'entityType': {'entityType': 'producto-pago', 'entityValue': [{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}, {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, {'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, {'entityValue': 'Seguro'}, {'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}, {'entityValue': 'Línea de Crédito'}]}, 'chips': [{'text': 'Crédito de consumo', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, 'forgetParameter': False}, {'text': 'Crédito Hipotecario', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, 'forgetParameter': False}, {'text': 'CAE', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, 'forgetParameter': False}, {'text': 'Seguro', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Seguro'}, 'forgetParameter': False}, {'text': 'Línea de Crédito', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Línea de Crédito'}, 'forgetParameter': False}, {'text': 'Tarjeta de Crédito', 'url': 'intent://faq.pasolineadigital.info', 'entityValue': {'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}</t>
+  </si>
+  <si>
+    <t>{'text': '¿Que tipo de pago de servicio deseas eliminar?', 'entityType': {'entityType': 'pagosautomaticos', 'entityValue': [{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}]}, 'chips': [{'text': 'PAC', 'url': 'intent://faq.eliminarpac.info', 'entityValue': {'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, 'forgetParameter': False}, {'text': 'PAT', 'url': 'intent://faq.eliminarpat.info', 'entityValue': {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}</t>
+  </si>
+  <si>
+    <t>{'text': 'OK, y ¿cuál crédito quieres pagar?', 'entityType': {'entityType': 'informacion-pagos-generar-creditos', 'entityValue': [{'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, {'entityValue': 'Pago crédito automotriz'}]}, 'chips': [{'text': 'Crédito de consumo', 'location': {'text': '¿Quieres pagar desde tu cuenta Scotia?', 'entityType': {'entityType': 'tipo-respuesta-sino', 'entityValue': [{'entityValue': 'Sí', 'synonyms': ['si']}, {'entityValue': 'No', 'synonyms': ['nop']}]}, 'chips': [{'text': 'Sí', 'location': {'text': 'Para transferir el pago de tu crédito de consumo, sigue estas indicaciones:\n\n1. Selecciona en el menú "Créditos".\n2. En el submenú "Crédito de consumo" selecciona la opción "Pagar cuota de crédito".\n3. Selecciona el crédito que deseas pagar.\n4. Luego haz clic en botón "Pago Cuota"\n5. Selecciona la cuenta de cargo y la cuota que deseas pagar.\n6. Para finalizar haz clic en el botón "Pagar".\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Sí', 'synonyms': ['si']}, 'forgetParameter': False}, {'text': 'No', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'No', 'synonyms': ['nop']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}, 'entityValue': {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, 'forgetParameter': False}, {'text': 'CAE (Crédito con Aval del Estado)', 'url': 'intent://faq.pagocae.info', 'entityValue': {'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, 'forgetParameter': False}, {'text': 'Crédito Automotriz', 'url': 'intent://faq.pagocredconsincta.info', 'entityValue': {'entityValue': 'Pago crédito automotriz'}, 'forgetParameter': False}, {'text': 'Crédito Hipotecario', 'location': {'text': 'Puedes pagar los dividendos de tu crédito hipotecario, siguiendo estos pasos:\n\n1. Selecciona en el menú principal la opción "Crédito".\n2. Dirígete a la lista "Crédito Hipotecario".\n3. Elige la opción “Pagar dividendos”.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}, 'entityValue': {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, 'forgetParameter': False}], 'fallbacks': [{'text': 'No entendí eso. Elige una de las opciones enumeradas o haz una nueva pregunta.'}]}</t>
   </si>
   <si>
     <t>{'text': 'Puedes pagar los dividendos de tu crédito hipotecario, siguiendo estos pasos:\n\n1. Selecciona en el menú principal la opción "Crédito".\n2. Dirígete a la lista "Crédito Hipotecario".\n3. Elige la opción “Pagar dividendos”.\n\n¡Listo! Disfruta de las excelentes opciones que tenemos para ti.\n'}</t>
@@ -1097,355 +1637,13 @@
     <t>{'text': 'Puedes canjear productos o servicios en los establecimientos afiliados, acumulando puntos por el uso de tus tarjetas de débito y crédito Scotiabank.', 'list': [{'text': 'Acumulo Puntos', 'url': 'intent://flow.lealtad.acumular'}, {'text': 'Canjea Puntos', 'url': 'intent://flow.lealtad.canjear'}]}</t>
   </si>
   <si>
-    <t>{'entityValue': 'Pagar Crédito'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Pago CAE', 'synonyms': ['Pagar Crédito con aval del estado', 'Pagar crédito con aval', 'pagar cae']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Pago crédito hipotecario', 'synonyms': ['Pago chip', 'pagar hipotecario', 'pagar dividendo']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Pago crédito automotriz'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Pago crédito de consumo', 'synonyms': ['pagar consumo', 'pago consumo']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'No', 'synonyms': ['nop']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Sí', 'synonyms': ['si']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Pagar Tarjeta de Crédito', 'synonyms': ['Pagar TC']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Deuda en dólares'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Pagar deuda internacional'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Pagar deuda nacional'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Pago sin cuenta corriente', 'synonyms': ['Pago sin cta cte']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Pago mínimo'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Pago parcial de tarjeta'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Pago deuda total', 'synonyms': ['Pago total deuda']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Pagar Línea de Crédito'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'PAC en 1 Clic'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': '¿Qué es PAC en un clic?'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Inscripción múltiple'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Consultar histórico de movimientos'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Eliminar PAT inscritos', 'synonyms': ['Cancelar PAT', 'Finalizar PAT', 'Desvincular PAT']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Consultar cuentas inscritas'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Inscribir un nuevo PAT', 'synonyms': ['Inscribir pago automático de tarjeta de crédito']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Configurar información adicional'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Configurar fecha de término'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Configurar monto máximo'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': '¿Cómo inscribir?'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Consulta Pagos Banco'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Consulta Mandatos Banco'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Administrar PAC', 'synonyms': ['Gestionar PAC.']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Inscripción desde oferta'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'No'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Sí', 'synonyms': ['Si']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Activar en un nuevo equipo'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Activar por primera vez'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Scotia Pass', 'synonyms': ['keypass', 'scotiapass', 'pin pass']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Habilitar tarjeta débito', 'synonyms': ['habilitar td']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Habilitar tarjeta de débito para uso internacional', 'synonyms': ['habilitar uso internacional', 'habilitar TD en el extranjero']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Activar clave Tarjeta Débito', 'synonyms': ['activación clave td']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Activar tarjeta débito', 'synonyms': ['activar TD']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Tarjeta de Débito', 'synonyms': ['tarjeta debito', 'td', 'tdd', 'tdb']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Habilitar Adicional'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Titular'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Habilitar compras online', 'synonyms': ['habilitar compras web']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Activar Clave', 'synonyms': ['Activación Clave']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Activar Tarjeta Crédito', 'synonyms': ['activar tc', 'activar tarjeta credito']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Millas'}</t>
-  </si>
-  <si>
-    <t>{'entityValue': 'Scotia Puntos'}</t>
-  </si>
-  <si>
-    <t>5ecTAuPgISNT2sQ54aMvtM</t>
-  </si>
-  <si>
-    <t>1vTokwMhfutliPwq7qmfTw</t>
-  </si>
-  <si>
-    <t>70lb2nniJPJOJagEyfjtlN</t>
-  </si>
-  <si>
-    <t>6ETrGXJnT3ePkPVyMo6sPu</t>
-  </si>
-  <si>
-    <t>26QNm8zqPljdO2LpsShExC</t>
-  </si>
-  <si>
-    <t>5r0qtimMJgm7isrTUdGDT0</t>
-  </si>
-  <si>
-    <t>7dicGLHm2X1MitPHiZC9AD</t>
-  </si>
-  <si>
-    <t>7JAwNsdUifgR0U09hvQfRb</t>
-  </si>
-  <si>
-    <t>1JKQowMy0VBhoAGMulbNaJ</t>
-  </si>
-  <si>
-    <t>50WjNlQ4hQAyPm8XbOZGwY</t>
-  </si>
-  <si>
-    <t>1dkzGtVLY7tAOWMHSb6hVX</t>
-  </si>
-  <si>
-    <t>Kc2kxTt8PSqy9ZP017JOr</t>
-  </si>
-  <si>
-    <t>5A4Spetk6jl56m5N0K0sj1</t>
-  </si>
-  <si>
-    <t>43ugl6rkOMZzJYr8rCJUj</t>
-  </si>
-  <si>
-    <t>6fS1Ht33VzUckCyxQPRljV</t>
-  </si>
-  <si>
-    <t>6t40YTiLlqX2Jx0H3SkUa8</t>
-  </si>
-  <si>
-    <t>1QG3hZgLB4stuTpw0xVGEe</t>
-  </si>
-  <si>
-    <t>1lmsEJk16iApfZDQGgkXZO</t>
-  </si>
-  <si>
-    <t>6pC4t2EwIFZz5q7oXsdMw9</t>
-  </si>
-  <si>
-    <t>4BhOWCd00Qk2SLKPErZW0A</t>
-  </si>
-  <si>
-    <t>6QEZX3io1V2BiyWC77s5jL</t>
-  </si>
-  <si>
-    <t>5IHbAvRkYiT2XqQBCe9zNo</t>
-  </si>
-  <si>
-    <t>72UczeA6EMrXzfnEFXWQAD</t>
-  </si>
-  <si>
-    <t>7aeR04PGP3DDwAy8UclFPe</t>
-  </si>
-  <si>
-    <t>ns5rIJIRPhr8chpii8BZ2</t>
-  </si>
-  <si>
-    <t>1A1bxJD4x8BQYuz0fPiPiD</t>
-  </si>
-  <si>
-    <t>2i3lhsA73gwcTKKW4yj083</t>
-  </si>
-  <si>
-    <t>7iNqNKO5Yl82BaSM3DzAPv</t>
-  </si>
-  <si>
-    <t>5ToWeHbOL4hoblSimY7ltO</t>
-  </si>
-  <si>
-    <t>42ww4qvge2cXkYLAVHzK4G</t>
-  </si>
-  <si>
-    <t>2CscQhHdXb9UlM7irRNgq2</t>
-  </si>
-  <si>
-    <t>GSrbaHTNJXboj9ez0Vu0Q</t>
-  </si>
-  <si>
-    <t>50bZxkJNAgLHt8XU691F7j</t>
-  </si>
-  <si>
-    <t>1KlOoquLSLG8ICdX9XxR98</t>
-  </si>
-  <si>
-    <t>1C1SugYUmhqXRGdjolekoN</t>
-  </si>
-  <si>
-    <t>21fFPz2WGsPj22TpE8EVkv</t>
-  </si>
-  <si>
-    <t>40Kfl2YtijFLOsp9nnPhmg</t>
-  </si>
-  <si>
-    <t>4BnCmrzqVjfeCEJ7N0KzZS</t>
-  </si>
-  <si>
-    <t>5WiQAzch6xRzgIDyojQPN0</t>
-  </si>
-  <si>
-    <t>Ad4nWZHhHaZm4TFkKlweJ</t>
-  </si>
-  <si>
-    <t>1OFdztlY0KSc6yJtiWrjEb</t>
-  </si>
-  <si>
-    <t>QTpNTz4tO1l342HUyv5G2</t>
-  </si>
-  <si>
-    <t>4YJjQvOXsrrYpgzWYTUzdo</t>
-  </si>
-  <si>
-    <t>6rpWBLd1RzYowTOZ1Ing7M</t>
-  </si>
-  <si>
-    <t>3bXcDL6LbY1xPIHx9qiswO</t>
-  </si>
-  <si>
-    <t>3jotgggM4f2T0oFwOE7041</t>
-  </si>
-  <si>
-    <t>7pcTuSAJiqf1fbTp8Mx21u</t>
-  </si>
-  <si>
-    <t>2qe4P8mLZLo3O32yPabWXB</t>
-  </si>
-  <si>
-    <t>4DTbKZIBry0ScJeYsW7RKf</t>
-  </si>
-  <si>
-    <t>7ztV5CfgbVhGGwr2NriHba</t>
-  </si>
-  <si>
-    <t>50dNCzmkzVmQXVn419Sqls</t>
-  </si>
-  <si>
-    <t>7AzNU9rFACvrGH2rUtgUJE</t>
-  </si>
-  <si>
-    <t>7pKESGM2SVXUXizGcQlsGq</t>
-  </si>
-  <si>
-    <t>chipResponse</t>
-  </si>
-  <si>
-    <t>['location', 'entityValue']</t>
-  </si>
-  <si>
-    <t>['entityValue']</t>
-  </si>
-  <si>
-    <t>intent://faq.pagocae.info</t>
-  </si>
-  <si>
-    <t>intent://faq.pagocredconsincta.info</t>
-  </si>
-  <si>
-    <t>intent://faq.pasolineadigital.info</t>
-  </si>
-  <si>
-    <t>intent://faq.eliminarpat.info</t>
-  </si>
-  <si>
-    <t>intent://faq.infogralpac.info</t>
-  </si>
-  <si>
-    <t>intent://faq.eliminarPAC.info</t>
-  </si>
-  <si>
-    <t>intent://faq.tarjetadebactivainternacional.link</t>
-  </si>
-  <si>
-    <t>intent://faq.tarjetasdebitoactivar.link</t>
-  </si>
-  <si>
-    <t>intent://faq.tarjetascreditoactivar.link</t>
+    <t>pagosautomaticos</t>
+  </si>
+  <si>
+    <t>producto-pago</t>
+  </si>
+  <si>
+    <t>tipo-información-anular-pago</t>
   </si>
   <si>
     <t>tipo-informacion-pagos-generar</t>
@@ -1472,9 +1670,6 @@
     <t>informacion-pagosautomaticos-PAC</t>
   </si>
   <si>
-    <t>informacion-pagosautomaticos</t>
-  </si>
-  <si>
     <t>tipo-activacion-tarjeta-debito</t>
   </si>
   <si>
@@ -1487,7 +1682,19 @@
     <t>programas-lealtad-tipos</t>
   </si>
   <si>
-    <t>[{'entityValue': 'Pagar Tarjeta de Crédito', 'synonyms': ['Pagar TC']}, {'entityValue': 'Pagar Crédito'}, {'entityValue': 'Pagar Línea de Crédito'}, {'entityValue': 'Pagar Servicios', 'synonyms': ['PAC', 'PAT', 'Pago automático']}]</t>
+    <t>[{'entityValue': 'Información Pagos Automáticos', 'synonyms': ['Información PAC', 'Información PAT']}, {'entityValue': 'Generar pago', 'synonyms': ['pagar', 'cómo pagar', 'quiero pagar']}, {'entityValue': 'Anular pago', 'synonyms': ['Eliminar pago', 'cancelar pago', 'reversar pago']}, {'entityValue': 'Problema con un pago', 'synonyms': ['Problema con pago', 'incidencia pago']}]</t>
+  </si>
+  <si>
+    <t>[{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}]</t>
+  </si>
+  <si>
+    <t>[{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}, {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, {'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, {'entityValue': 'Seguro'}, {'entityValue': 'Tarjeta de Crédito', 'synonyms': ['tarjeta de credito', 'tc', 'tdc', 'tarj crd']}, {'entityValue': 'Línea de Crédito'}]</t>
+  </si>
+  <si>
+    <t>[{'entityValue': 'Eliminar pago automático', 'synonyms': ['Finalizar pago automático', 'Desvincular pago automático', 'Terminar pago automático.']}, {'entityValue': 'Reversar pago', 'synonyms': ['Retroceder un pago', 'Deshacer un pago', 'Cancelar un pago', 'retroceder pago', 'deshacer pago', 'cancelar pago', 'anular pago']}]</t>
+  </si>
+  <si>
+    <t>[{'entityValue': 'Pagar Tarjeta de Crédito', 'synonyms': ['Pagar TC']}, {'entityValue': 'Pagar Crédito'}, {'entityValue': 'Línea de Crédito'}, {'entityValue': 'Pagar Servicios', 'synonyms': ['PAC', 'PAT', 'Pago automático']}]</t>
   </si>
   <si>
     <t>[{'entityValue': 'Sí', 'synonyms': ['si']}, {'entityValue': 'No', 'synonyms': ['nop']}]</t>
@@ -1496,7 +1703,7 @@
     <t>[{'entityValue': 'Pagar deuda nacional'}, {'entityValue': 'Pagar deuda internacional'}]</t>
   </si>
   <si>
-    <t>[{'entityValue': 'Pago CAE', 'synonyms': ['Pagar Crédito con aval del estado', 'Pagar crédito con aval', 'pagar cae']}, {'entityValue': 'Pago crédito de consumo', 'synonyms': ['pagar consumo', 'pago consumo']}, {'entityValue': 'Pago crédito hipotecario', 'synonyms': ['Pago chip', 'pagar hipotecario', 'pagar dividendo']}, {'entityValue': 'Pago crédito automotriz'}]</t>
+    <t>[{'entityValue': 'CAE', 'synonyms': ['crédito con aval', 'crédito con aval del estado']}, {'entityValue': 'Crédito de consumo', 'synonyms': ['consumo']}, {'entityValue': 'Crédito Hipotecario', 'synonyms': ['chip', 'hipotecario', 'dividendo']}, {'entityValue': 'Pago crédito automotriz'}]</t>
   </si>
   <si>
     <t>[{'entityValue': 'Pago deuda total', 'synonyms': ['Pago total deuda']}, {'entityValue': 'Pago parcial de tarjeta'}, {'entityValue': 'Pago mínimo'}, {'entityValue': 'Pago sin cuenta corriente', 'synonyms': ['Pago sin cta cte']}, {'entityValue': 'Deuda en dólares'}]</t>
@@ -1511,9 +1718,6 @@
     <t>[{'entityValue': 'Inscribir PAC', 'synonyms': ['Inscribir pago automático de cuenta ']}, {'entityValue': 'Administrar PAC', 'synonyms': ['Gestionar PAC.']}, {'entityValue': 'Consulta Mandatos Banco'}, {'entityValue': 'Consulta Pagos Banco'}, {'entityValue': 'Eliminar PAC', 'synonyms': ['Cancelar PAC', 'Desvincular PAC', 'Finalizar PAC']}, {'entityValue': 'PAC en 1 Clic'}]</t>
   </si>
   <si>
-    <t>[{'entityValue': 'PAC', 'synonyms': ['PAC', 'Pago automático con cuenta', 'Pago automático con cuenta corriente', 'Pago automático con cuenta: PAC', 'Pago automático en cuenta (PAC)']}, {'entityValue': 'PAT', 'synonyms': ['Pago automático en tarjeta de crédito: PAT', 'Pago automático en tarjeta de crédito (PAT)']}]</t>
-  </si>
-  <si>
     <t>[{'entityValue': 'Activar tarjeta débito', 'synonyms': ['activar TD']}, {'entityValue': 'Activar clave Tarjeta Débito', 'synonyms': ['activación clave td']}, {'entityValue': 'Habilitar tarjeta débito', 'synonyms': ['habilitar td']}, {'entityValue': 'Habilitar tarjeta de débito para uso internacional', 'synonyms': ['habilitar uso internacional', 'habilitar TD en el extranjero']}]</t>
   </si>
   <si>
@@ -1526,6 +1730,18 @@
     <t>[{'entityValue': 'Scotia Puntos'}, {'entityValue': 'Millas'}]</t>
   </si>
   <si>
+    <t>FBhLGyIFCpChd9Z9rQAom</t>
+  </si>
+  <si>
+    <t>4eFErnKNhjZ9kC0i40QGGc</t>
+  </si>
+  <si>
+    <t>6B8k0AAt0nJeKOLc2FSb4s</t>
+  </si>
+  <si>
+    <t>12GnBgdgOC93JTCs72DFDa</t>
+  </si>
+  <si>
     <t>6xTVBBw0ujCddHRDKvJ6OK</t>
   </si>
   <si>
@@ -1550,9 +1766,6 @@
     <t>5NXZuNymu0LEcTqoAM9r30</t>
   </si>
   <si>
-    <t>4eFErnKNhjZ9kC0i40QGGc</t>
-  </si>
-  <si>
     <t>70VPcF07EkuN4eQ5fxaBW4</t>
   </si>
   <si>
@@ -1568,18 +1781,21 @@
     <t>synonyms</t>
   </si>
   <si>
+    <t>Anular pago</t>
+  </si>
+  <si>
+    <t>Generar pago</t>
+  </si>
+  <si>
+    <t>Información Pagos Automáticos</t>
+  </si>
+  <si>
+    <t>reversar crédito de consumo</t>
+  </si>
+  <si>
     <t>Pago crédito automotriz</t>
   </si>
   <si>
-    <t>Pago crédito hipotecario</t>
-  </si>
-  <si>
-    <t>Pago crédito de consumo</t>
-  </si>
-  <si>
-    <t>Pago CAE</t>
-  </si>
-  <si>
     <t>Deuda en dólares</t>
   </si>
   <si>
@@ -1598,12 +1814,6 @@
     <t>¿Qué es PAC en un clic?</t>
   </si>
   <si>
-    <t>PAT</t>
-  </si>
-  <si>
-    <t>PAC</t>
-  </si>
-  <si>
     <t>Inscripción múltiple</t>
   </si>
   <si>
@@ -1649,21 +1859,42 @@
     <t>ScotiaPesos - Tipo de Usuario</t>
   </si>
   <si>
+    <t>['Problema con pago', 'incidencia pago']</t>
+  </si>
+  <si>
+    <t>['Eliminar pago', 'cancelar pago', 'reversar pago']</t>
+  </si>
+  <si>
+    <t>['pagar', 'cómo pagar', 'quiero pagar']</t>
+  </si>
+  <si>
+    <t>['Información PAC', 'Información PAT']</t>
+  </si>
+  <si>
+    <t>['Retroceder un pago', 'Deshacer un pago', 'Cancelar un pago', 'retroceder pago', 'deshacer pago', 'cancelar pago', 'anular pago']</t>
+  </si>
+  <si>
+    <t>['chip', 'hipotecario', 'dividendo']</t>
+  </si>
+  <si>
+    <t>['crédito con aval', 'crédito con aval del estado']</t>
+  </si>
+  <si>
+    <t>['consumo']</t>
+  </si>
+  <si>
+    <t>['Anular pago consumo']</t>
+  </si>
+  <si>
+    <t>['Finalizar pago automático', 'Desvincular pago automático', 'Terminar pago automático.']</t>
+  </si>
+  <si>
     <t>['nop']</t>
   </si>
   <si>
     <t>['si']</t>
   </si>
   <si>
-    <t>['Pago chip', 'pagar hipotecario', 'pagar dividendo']</t>
-  </si>
-  <si>
-    <t>['pagar consumo', 'pago consumo']</t>
-  </si>
-  <si>
-    <t>['Pagar Crédito con aval del estado', 'Pagar crédito con aval', 'pagar cae']</t>
-  </si>
-  <si>
     <t>['Pago sin cta cte']</t>
   </si>
   <si>
@@ -1739,6 +1970,42 @@
     <t>['Emergencias Bancarias', 'Robo', 'Fraude', 'Emergencia', 'Estafa', 'Bloquear']</t>
   </si>
   <si>
+    <t>3j9T4s7alTSKuzgWstwG2P</t>
+  </si>
+  <si>
+    <t>2ZV7nSrwOR1DW9rDB6akh3</t>
+  </si>
+  <si>
+    <t>7I0bdzid7dIiGrAjeDvB7e</t>
+  </si>
+  <si>
+    <t>vv8YSjopXnlpOLGFwssvc</t>
+  </si>
+  <si>
+    <t>4Two37uBKV0Q66nIGCxkCu</t>
+  </si>
+  <si>
+    <t>1dtPX1p9SK05W7fHWiTe6M</t>
+  </si>
+  <si>
+    <t>6eCDLvNptK2RaRJU9iOtt1</t>
+  </si>
+  <si>
+    <t>gVe5fVeSVURFyuYV9zPKT</t>
+  </si>
+  <si>
+    <t>T0s6SclXBO7cgOplZj6zU</t>
+  </si>
+  <si>
+    <t>3D11NYDz25uS98uzkANmCw</t>
+  </si>
+  <si>
+    <t>1d195xb6eugOP8Kut4tq3d</t>
+  </si>
+  <si>
+    <t>6qWct1Rtf1erombb48iBBF</t>
+  </si>
+  <si>
     <t>77F0M9yYDExkH2i65rc8pu</t>
   </si>
   <si>
@@ -1754,15 +2021,6 @@
     <t>6fl2erdiMU3nqTICgZ57Rd</t>
   </si>
   <si>
-    <t>gVe5fVeSVURFyuYV9zPKT</t>
-  </si>
-  <si>
-    <t>3D11NYDz25uS98uzkANmCw</t>
-  </si>
-  <si>
-    <t>T0s6SclXBO7cgOplZj6zU</t>
-  </si>
-  <si>
     <t>3A0sFRF4GtFzznTFNzZwRW</t>
   </si>
   <si>
@@ -1779,9 +2037,6 @@
   </si>
   <si>
     <t>1dawn9xz97T2arxPpFxokU</t>
-  </si>
-  <si>
-    <t>6eCDLvNptK2RaRJU9iOtt1</t>
   </si>
   <si>
     <t>3RELykQ0BSigdZnqqA95i6</t>
@@ -2331,7 +2586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2371,25 +2626,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2397,25 +2655,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2423,25 +2684,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2449,28 +2710,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2478,25 +2736,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2504,28 +2762,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2533,25 +2791,25 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2559,25 +2817,28 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2585,25 +2846,25 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2611,28 +2872,80 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" t="s">
-        <v>55</v>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +2955,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2650,1040 +2963,1141 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>153</v>
+      </c>
+      <c r="F9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H10" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+      <c r="F11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H12" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
-      </c>
-      <c r="H13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="F14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="F15" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
         <v>160</v>
       </c>
-      <c r="E16" t="s">
-        <v>161</v>
+      <c r="F16" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
         <v>161</v>
       </c>
+      <c r="F17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="F19" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
-        <v>187</v>
-      </c>
-      <c r="H20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>189</v>
-      </c>
-      <c r="H22" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>167</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>202</v>
+      </c>
+      <c r="H25" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>161</v>
+        <v>170</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>171</v>
+      </c>
+      <c r="F27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>172</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>173</v>
+      </c>
+      <c r="F29" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" t="s">
+        <v>204</v>
+      </c>
+      <c r="H29" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>174</v>
+      </c>
+      <c r="F30" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>175</v>
+      </c>
+      <c r="F31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>161</v>
+        <v>176</v>
+      </c>
+      <c r="F32" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>177</v>
+      </c>
+      <c r="F33" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>178</v>
+      </c>
+      <c r="F34" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>179</v>
+      </c>
+      <c r="F35" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>180</v>
+      </c>
+      <c r="F36" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>164</v>
+        <v>181</v>
+      </c>
+      <c r="F37" t="s">
+        <v>200</v>
       </c>
       <c r="G37" t="s">
-        <v>191</v>
-      </c>
-      <c r="H37" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>161</v>
+        <v>182</v>
+      </c>
+      <c r="F38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>183</v>
+      </c>
+      <c r="F39" t="s">
+        <v>200</v>
       </c>
       <c r="G39" t="s">
-        <v>192</v>
-      </c>
-      <c r="H39" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>184</v>
+      </c>
+      <c r="F40" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="F41" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="G41" t="s">
-        <v>193</v>
-      </c>
-      <c r="H41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E42" t="s">
-        <v>161</v>
+        <v>186</v>
+      </c>
+      <c r="F42" t="s">
+        <v>200</v>
+      </c>
+      <c r="G42" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>187</v>
+      </c>
+      <c r="F43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G43" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>188</v>
+      </c>
+      <c r="F44" t="s">
+        <v>200</v>
       </c>
       <c r="G44" t="s">
-        <v>194</v>
-      </c>
-      <c r="H44" t="s">
-        <v>199</v>
-      </c>
-      <c r="I44" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="F45" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="G45" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H45" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="F46" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G46" t="s">
-        <v>196</v>
-      </c>
-      <c r="H46" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="F47" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G47" t="s">
-        <v>197</v>
-      </c>
-      <c r="H47" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H48" t="s">
-        <v>199</v>
+        <v>192</v>
+      </c>
+      <c r="F48" t="s">
+        <v>200</v>
+      </c>
+      <c r="G48" t="s">
+        <v>205</v>
       </c>
       <c r="I48" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="F49" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G49" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H49" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>167</v>
-      </c>
-      <c r="J50" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" t="s">
+        <v>200</v>
+      </c>
+      <c r="G50" t="s">
         <v>202</v>
+      </c>
+      <c r="H50" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>167</v>
-      </c>
-      <c r="J51" t="s">
-        <v>203</v>
+        <v>195</v>
+      </c>
+      <c r="F51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G51" t="s">
+        <v>202</v>
+      </c>
+      <c r="H51" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" t="s">
+        <v>196</v>
+      </c>
+      <c r="F52" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" t="s">
+        <v>206</v>
+      </c>
+      <c r="I52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
+        <v>197</v>
+      </c>
+      <c r="F53" t="s">
+        <v>200</v>
+      </c>
+      <c r="G53" t="s">
+        <v>202</v>
+      </c>
+      <c r="H53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" t="s">
+        <v>200</v>
+      </c>
+      <c r="G54" t="s">
+        <v>207</v>
+      </c>
+      <c r="J54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" t="s">
+        <v>199</v>
+      </c>
+      <c r="F55" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" t="s">
+        <v>207</v>
+      </c>
+      <c r="J55" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3693,7 +4107,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3701,1409 +4115,1773 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="G2" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H2" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>233</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="G3" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H3" t="s">
-        <v>402</v>
-      </c>
-      <c r="I3" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="G4" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H4" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>235</v>
+      </c>
+      <c r="B5" t="s">
+        <v>297</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G5" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H5" t="s">
-        <v>402</v>
-      </c>
-      <c r="I5" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G6" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H6" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I6" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="G7" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H7" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="I7" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="G8" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H8" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="G9" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H9" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="G10" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H10" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C11" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="G11" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H11" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="G12" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H12" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="B13" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="G13" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H13" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>244</v>
+      </c>
+      <c r="B14" t="s">
+        <v>300</v>
       </c>
       <c r="C14" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="G14" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H14" t="s">
-        <v>402</v>
-      </c>
-      <c r="I14" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="G15" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H15" t="s">
-        <v>402</v>
-      </c>
-      <c r="I15" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>222</v>
-      </c>
-      <c r="B16" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G16" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H16" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I16" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="G17" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H17" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>224</v>
-      </c>
-      <c r="B18" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="C18" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="G18" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H18" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I18" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C19" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="G19" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H19" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>226</v>
-      </c>
-      <c r="B20" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="G20" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H20" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="C21" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="G21" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H21" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B22" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="G22" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H22" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I22" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="C23" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="G23" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H23" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I23" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="C24" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="G24" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H24" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="I24" t="s">
-        <v>406</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>231</v>
-      </c>
-      <c r="B25" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="C25" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="G25" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H25" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I25" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>232</v>
-      </c>
-      <c r="B26" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C26" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="G26" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H26" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I26" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>233</v>
-      </c>
-      <c r="B27" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C27" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="G27" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H27" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I27" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="G28" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H28" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C29" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="G29" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H29" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>236</v>
-      </c>
-      <c r="B30" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="G30" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H30" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I30" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C31" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="G31" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H31" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="I31" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="G32" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H32" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="I32" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C33" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="G33" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H33" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="I33" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="C34" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="G34" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H34" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="I34" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="C35" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="G35" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H35" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="I35" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>242</v>
-      </c>
-      <c r="B36" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C36" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="G36" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H36" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I36" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>213</v>
-      </c>
-      <c r="B37" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C37" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="G37" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H37" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I37" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="C38" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="G38" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H38" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>243</v>
-      </c>
-      <c r="B39" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C39" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="G39" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H39" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I39" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>244</v>
-      </c>
-      <c r="B40" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C40" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="G40" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H40" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I40" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>245</v>
-      </c>
-      <c r="B41" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C41" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="G41" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H41" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I41" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>246</v>
-      </c>
-      <c r="B42" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="C42" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="G42" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H42" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I42" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="C43" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="G43" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H43" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="I43" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="C44" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="G44" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H44" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="I44" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>249</v>
+        <v>273</v>
+      </c>
+      <c r="B45" t="s">
+        <v>303</v>
       </c>
       <c r="C45" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G45" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H45" t="s">
-        <v>402</v>
-      </c>
-      <c r="I45" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="B46" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C46" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="G46" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H46" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="B47" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="C47" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="G47" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H47" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="B48" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C48" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="G48" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H48" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="B49" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="C49" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="G49" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H49" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="C50" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F50" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="G50" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H50" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="I50" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C51" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="G51" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H51" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="I51" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>256</v>
-      </c>
-      <c r="B52" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="C52" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F52" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="G52" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H52" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I52" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>257</v>
-      </c>
-      <c r="B53" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C53" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="G53" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H53" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I53" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>258</v>
-      </c>
-      <c r="B54" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C54" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G54" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H54" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="I54" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>281</v>
+      </c>
+      <c r="C55" t="s">
+        <v>354</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" t="s">
+        <v>420</v>
+      </c>
+      <c r="G55" t="s">
+        <v>434</v>
+      </c>
+      <c r="H55" t="s">
+        <v>436</v>
+      </c>
+      <c r="I55" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" t="s">
+        <v>355</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" t="s">
+        <v>421</v>
+      </c>
+      <c r="G56" t="s">
+        <v>434</v>
+      </c>
+      <c r="H56" t="s">
+        <v>436</v>
+      </c>
+      <c r="I56" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>283</v>
+      </c>
+      <c r="B57" t="s">
+        <v>305</v>
+      </c>
+      <c r="C57" t="s">
+        <v>356</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" t="s">
+        <v>422</v>
+      </c>
+      <c r="G57" t="s">
+        <v>434</v>
+      </c>
+      <c r="H57" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B58" t="s">
+        <v>306</v>
+      </c>
+      <c r="C58" t="s">
+        <v>357</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" t="s">
+        <v>423</v>
+      </c>
+      <c r="G58" t="s">
+        <v>434</v>
+      </c>
+      <c r="H58" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59" t="s">
+        <v>306</v>
+      </c>
+      <c r="C59" t="s">
+        <v>358</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" t="s">
+        <v>424</v>
+      </c>
+      <c r="G59" t="s">
+        <v>434</v>
+      </c>
+      <c r="H59" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>286</v>
+      </c>
+      <c r="C60" t="s">
+        <v>359</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" t="s">
+        <v>425</v>
+      </c>
+      <c r="G60" t="s">
+        <v>434</v>
+      </c>
+      <c r="H60" t="s">
+        <v>436</v>
+      </c>
+      <c r="I60" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>287</v>
+      </c>
+      <c r="C61" t="s">
+        <v>360</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" t="s">
+        <v>426</v>
+      </c>
+      <c r="G61" t="s">
+        <v>434</v>
+      </c>
+      <c r="H61" t="s">
+        <v>436</v>
+      </c>
+      <c r="I61" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>288</v>
+      </c>
+      <c r="C62" t="s">
+        <v>361</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" t="s">
+        <v>427</v>
+      </c>
+      <c r="G62" t="s">
+        <v>434</v>
+      </c>
+      <c r="H62" t="s">
+        <v>436</v>
+      </c>
+      <c r="I62" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>289</v>
+      </c>
+      <c r="C63" t="s">
+        <v>362</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" t="s">
+        <v>428</v>
+      </c>
+      <c r="G63" t="s">
+        <v>434</v>
+      </c>
+      <c r="H63" t="s">
+        <v>436</v>
+      </c>
+      <c r="I63" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>290</v>
+      </c>
+      <c r="B64" t="s">
+        <v>307</v>
+      </c>
+      <c r="C64" t="s">
+        <v>363</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" t="s">
+        <v>429</v>
+      </c>
+      <c r="G64" t="s">
+        <v>434</v>
+      </c>
+      <c r="H64" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>291</v>
+      </c>
+      <c r="B65" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65" t="s">
+        <v>364</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" t="s">
+        <v>430</v>
+      </c>
+      <c r="G65" t="s">
+        <v>434</v>
+      </c>
+      <c r="H65" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>240</v>
+      </c>
+      <c r="C66" t="s">
+        <v>316</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>50</v>
+      </c>
+      <c r="F66" t="s">
+        <v>431</v>
+      </c>
+      <c r="G66" t="s">
+        <v>434</v>
+      </c>
+      <c r="H66" t="s">
+        <v>436</v>
+      </c>
+      <c r="I66" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>292</v>
+      </c>
+      <c r="C67" t="s">
+        <v>365</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" t="s">
+        <v>432</v>
+      </c>
+      <c r="G67" t="s">
+        <v>434</v>
+      </c>
+      <c r="H67" t="s">
+        <v>436</v>
+      </c>
+      <c r="I67" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>293</v>
+      </c>
+      <c r="C68" t="s">
+        <v>366</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" t="s">
+        <v>433</v>
+      </c>
+      <c r="G68" t="s">
+        <v>434</v>
+      </c>
+      <c r="H68" t="s">
+        <v>436</v>
+      </c>
+      <c r="I68" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -5113,7 +5891,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5121,282 +5899,342 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>412</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>490</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>438</v>
+        <v>506</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="B3" t="s">
-        <v>426</v>
+        <v>491</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>414</v>
+        <v>476</v>
       </c>
       <c r="B4" t="s">
-        <v>427</v>
+        <v>492</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>440</v>
+        <v>508</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>477</v>
       </c>
       <c r="B5" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>441</v>
+        <v>509</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>442</v>
+        <v>510</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>479</v>
       </c>
       <c r="B7" t="s">
-        <v>430</v>
+        <v>495</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>443</v>
+        <v>511</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="B9" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>420</v>
+        <v>482</v>
       </c>
       <c r="B10" t="s">
-        <v>433</v>
+        <v>498</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>446</v>
+        <v>514</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="B11" t="s">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>422</v>
+        <v>484</v>
       </c>
       <c r="B12" t="s">
+        <v>500</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>516</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
         <v>435</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>448</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="B13" t="s">
-        <v>436</v>
+        <v>501</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
       <c r="B14" t="s">
-        <v>437</v>
+        <v>502</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>450</v>
+        <v>518</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>402</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>487</v>
+      </c>
+      <c r="B15" t="s">
+        <v>503</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>519</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>488</v>
+      </c>
+      <c r="B16" t="s">
+        <v>504</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>520</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>489</v>
+      </c>
+      <c r="B17" t="s">
+        <v>505</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>521</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -5406,7 +6244,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5414,1098 +6252,1255 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>451</v>
+        <v>522</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>509</v>
+        <v>586</v>
       </c>
       <c r="E2" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F2" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>523</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>510</v>
+        <v>587</v>
       </c>
       <c r="E3" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F3" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>524</v>
+      </c>
+      <c r="B4" t="s">
+        <v>551</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>511</v>
+        <v>588</v>
       </c>
       <c r="E4" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>525</v>
+      </c>
+      <c r="B5" t="s">
+        <v>552</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>512</v>
+        <v>589</v>
       </c>
       <c r="E5" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>513</v>
+        <v>590</v>
       </c>
       <c r="E6" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>481</v>
+        <v>553</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>514</v>
+        <v>591</v>
       </c>
       <c r="E7" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F7" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>454</v>
-      </c>
-      <c r="B8" t="s">
-        <v>482</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>515</v>
+        <v>592</v>
       </c>
       <c r="E8" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F8" t="s">
-        <v>568</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>455</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>516</v>
+        <v>593</v>
       </c>
       <c r="E9" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F9" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>243</v>
+      </c>
+      <c r="B10" t="s">
+        <v>555</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>517</v>
+        <v>594</v>
       </c>
       <c r="E10" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
-        <v>484</v>
+        <v>556</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>518</v>
+        <v>595</v>
       </c>
       <c r="E11" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F11" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>526</v>
+      </c>
+      <c r="B12" t="s">
+        <v>557</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>519</v>
+        <v>596</v>
       </c>
       <c r="E12" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>457</v>
+        <v>237</v>
+      </c>
+      <c r="B13" t="s">
+        <v>558</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>520</v>
+        <v>597</v>
       </c>
       <c r="E13" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>249</v>
       </c>
       <c r="B14" t="s">
-        <v>485</v>
+        <v>559</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
       <c r="E14" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F14" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>459</v>
+        <v>250</v>
       </c>
       <c r="B15" t="s">
-        <v>486</v>
+        <v>560</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>522</v>
+        <v>599</v>
       </c>
       <c r="E15" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F15" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>523</v>
+        <v>600</v>
       </c>
       <c r="E16" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>460</v>
+        <v>254</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>524</v>
+        <v>601</v>
       </c>
       <c r="E17" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" t="s">
-        <v>487</v>
+        <v>527</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>525</v>
+        <v>602</v>
       </c>
       <c r="E18" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F18" t="s">
-        <v>568</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>526</v>
+        <v>603</v>
       </c>
       <c r="E19" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>462</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
-        <v>488</v>
+        <v>561</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>527</v>
+        <v>604</v>
       </c>
       <c r="E20" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F20" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>463</v>
-      </c>
-      <c r="B21" t="s">
-        <v>489</v>
+        <v>256</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>528</v>
+        <v>605</v>
       </c>
       <c r="E21" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F21" t="s">
-        <v>568</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>529</v>
+        <v>606</v>
       </c>
       <c r="E22" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>530</v>
+      </c>
+      <c r="B23" t="s">
+        <v>562</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>530</v>
+        <v>607</v>
       </c>
       <c r="E23" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>531</v>
+      </c>
+      <c r="B24" t="s">
+        <v>563</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>531</v>
+        <v>608</v>
       </c>
       <c r="E24" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F24" t="s">
-        <v>161</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>532</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>532</v>
+        <v>609</v>
       </c>
       <c r="E25" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>251</v>
+      </c>
+      <c r="B26" t="s">
+        <v>564</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>533</v>
+        <v>610</v>
       </c>
       <c r="E26" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>534</v>
+        <v>611</v>
       </c>
       <c r="E27" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>466</v>
+        <v>238</v>
+      </c>
+      <c r="B28" t="s">
+        <v>565</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>535</v>
+        <v>612</v>
       </c>
       <c r="E28" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>653</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>467</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s">
-        <v>490</v>
+        <v>566</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>536</v>
+        <v>613</v>
       </c>
       <c r="E29" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F29" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>537</v>
+        <v>614</v>
       </c>
       <c r="E30" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F30" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>232</v>
-      </c>
-      <c r="B31" t="s">
-        <v>491</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>538</v>
+        <v>615</v>
       </c>
       <c r="E31" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F31" t="s">
-        <v>568</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>539</v>
+        <v>616</v>
       </c>
       <c r="E32" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B33" t="s">
-        <v>492</v>
+        <v>271</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>540</v>
+        <v>617</v>
       </c>
       <c r="E33" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F33" t="s">
-        <v>568</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>541</v>
+        <v>618</v>
       </c>
       <c r="E34" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>238</v>
+        <v>535</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>542</v>
+        <v>619</v>
       </c>
       <c r="E35" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>239</v>
-      </c>
-      <c r="B36" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>543</v>
+        <v>620</v>
       </c>
       <c r="E36" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F36" t="s">
-        <v>568</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>240</v>
+        <v>537</v>
       </c>
       <c r="B37" t="s">
-        <v>494</v>
+        <v>567</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>544</v>
+        <v>621</v>
       </c>
       <c r="E37" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F37" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>538</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>545</v>
+        <v>622</v>
       </c>
       <c r="E38" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F38" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>213</v>
+        <v>268</v>
+      </c>
+      <c r="B39" t="s">
+        <v>568</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>546</v>
+        <v>623</v>
       </c>
       <c r="E39" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F39" t="s">
-        <v>161</v>
+        <v>653</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" t="s">
-        <v>495</v>
+        <v>261</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="E40" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F40" t="s">
-        <v>568</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>244</v>
+        <v>277</v>
+      </c>
+      <c r="B41" t="s">
+        <v>569</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>548</v>
+        <v>625</v>
       </c>
       <c r="E41" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F41" t="s">
-        <v>161</v>
+        <v>653</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>469</v>
-      </c>
-      <c r="B42" t="s">
-        <v>496</v>
+        <v>273</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>549</v>
+        <v>626</v>
       </c>
       <c r="E42" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F42" t="s">
-        <v>568</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>470</v>
-      </c>
-      <c r="B43" t="s">
-        <v>497</v>
+        <v>274</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>550</v>
+        <v>627</v>
       </c>
       <c r="E43" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F43" t="s">
-        <v>568</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>471</v>
+        <v>275</v>
       </c>
       <c r="B44" t="s">
-        <v>498</v>
+        <v>570</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>551</v>
+        <v>628</v>
       </c>
       <c r="E44" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F44" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>472</v>
+        <v>276</v>
       </c>
       <c r="B45" t="s">
-        <v>499</v>
+        <v>571</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>552</v>
+        <v>629</v>
       </c>
       <c r="E45" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F45" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>553</v>
+        <v>630</v>
       </c>
       <c r="E46" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F46" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>473</v>
+        <v>249</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>554</v>
+        <v>631</v>
       </c>
       <c r="E47" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F47" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s">
-        <v>500</v>
+        <v>572</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
       <c r="E48" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F48" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>248</v>
-      </c>
-      <c r="B49" t="s">
-        <v>501</v>
+        <v>280</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="E49" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F49" t="s">
-        <v>568</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>474</v>
+        <v>539</v>
       </c>
       <c r="B50" t="s">
-        <v>502</v>
+        <v>573</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="E50" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F50" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>245</v>
+        <v>540</v>
       </c>
       <c r="B51" t="s">
-        <v>503</v>
+        <v>574</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>558</v>
+        <v>635</v>
       </c>
       <c r="E51" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F51" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>250</v>
+        <v>541</v>
       </c>
       <c r="B52" t="s">
-        <v>504</v>
+        <v>575</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>559</v>
+        <v>636</v>
       </c>
       <c r="E52" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F52" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>256</v>
+        <v>542</v>
       </c>
       <c r="B53" t="s">
-        <v>505</v>
+        <v>576</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>560</v>
+        <v>637</v>
       </c>
       <c r="E53" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F53" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>475</v>
-      </c>
-      <c r="B54" t="s">
-        <v>506</v>
+        <v>287</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>561</v>
+        <v>638</v>
       </c>
       <c r="E54" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F54" t="s">
-        <v>568</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>476</v>
-      </c>
-      <c r="B55" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>562</v>
+        <v>639</v>
       </c>
       <c r="E55" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F55" t="s">
-        <v>568</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>477</v>
+        <v>289</v>
       </c>
       <c r="B56" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>563</v>
+        <v>640</v>
       </c>
       <c r="E56" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F56" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>478</v>
+        <v>284</v>
+      </c>
+      <c r="B57" t="s">
+        <v>578</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>564</v>
+        <v>641</v>
       </c>
       <c r="E57" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F57" t="s">
-        <v>161</v>
+        <v>653</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>257</v>
+        <v>544</v>
+      </c>
+      <c r="B58" t="s">
+        <v>579</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>565</v>
+        <v>642</v>
       </c>
       <c r="E58" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F58" t="s">
-        <v>161</v>
+        <v>653</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>258</v>
+        <v>281</v>
+      </c>
+      <c r="B59" t="s">
+        <v>580</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s">
-        <v>566</v>
+        <v>643</v>
       </c>
       <c r="E59" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="F59" t="s">
-        <v>161</v>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>286</v>
+      </c>
+      <c r="B60" t="s">
+        <v>581</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>644</v>
+      </c>
+      <c r="E60" t="s">
+        <v>652</v>
+      </c>
+      <c r="F60" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" t="s">
+        <v>582</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" t="s">
+        <v>645</v>
+      </c>
+      <c r="E61" t="s">
+        <v>652</v>
+      </c>
+      <c r="F61" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>545</v>
+      </c>
+      <c r="B62" t="s">
+        <v>583</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
+        <v>646</v>
+      </c>
+      <c r="E62" t="s">
+        <v>652</v>
+      </c>
+      <c r="F62" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>546</v>
+      </c>
+      <c r="B63" t="s">
+        <v>584</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
+        <v>647</v>
+      </c>
+      <c r="E63" t="s">
+        <v>652</v>
+      </c>
+      <c r="F63" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>547</v>
+      </c>
+      <c r="B64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>648</v>
+      </c>
+      <c r="E64" t="s">
+        <v>652</v>
+      </c>
+      <c r="F64" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>548</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>649</v>
+      </c>
+      <c r="E65" t="s">
+        <v>652</v>
+      </c>
+      <c r="F65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>292</v>
+      </c>
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" t="s">
+        <v>650</v>
+      </c>
+      <c r="E66" t="s">
+        <v>652</v>
+      </c>
+      <c r="F66" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>293</v>
+      </c>
+      <c r="C67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" t="s">
+        <v>651</v>
+      </c>
+      <c r="E67" t="s">
+        <v>652</v>
+      </c>
+      <c r="F67" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6523,36 +7518,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>569</v>
+        <v>654</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="D2" t="s">
-        <v>571</v>
+        <v>656</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6570,62 +7565,62 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>572</v>
+        <v>657</v>
       </c>
       <c r="B2" t="s">
-        <v>574</v>
+        <v>659</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>576</v>
+        <v>661</v>
       </c>
       <c r="E2" t="s">
-        <v>578</v>
+        <v>663</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>573</v>
+        <v>658</v>
       </c>
       <c r="B3" t="s">
-        <v>575</v>
+        <v>660</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>577</v>
+        <v>662</v>
       </c>
       <c r="E3" t="s">
-        <v>578</v>
+        <v>663</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6643,82 +7638,82 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>579</v>
+        <v>664</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>667</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>584</v>
+        <v>669</v>
       </c>
       <c r="E2" t="s">
-        <v>587</v>
+        <v>672</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>580</v>
+        <v>665</v>
       </c>
       <c r="B3" t="s">
-        <v>582</v>
+        <v>667</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>585</v>
+        <v>670</v>
       </c>
       <c r="E3" t="s">
-        <v>587</v>
+        <v>672</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>581</v>
+        <v>666</v>
       </c>
       <c r="B4" t="s">
-        <v>583</v>
+        <v>668</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>586</v>
+        <v>671</v>
       </c>
       <c r="E4" t="s">
-        <v>587</v>
+        <v>672</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
